--- a/excel/finished/能介/压缩空气生产情况汇总表.xlsx
+++ b/excel/finished/能介/压缩空气生产情况汇总表.xlsx
@@ -1,10 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
-  <workbookPr defaultThemeVersion="124226"/>
+  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
+  <workbookPr/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28245" windowHeight="13500"/>
+    <workbookView windowWidth="28800" windowHeight="12465"/>
   </bookViews>
   <sheets>
     <sheet name="ACS_all_day_main" sheetId="1" r:id="rId1"/>
@@ -18,7 +18,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="212" uniqueCount="98">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="98">
   <si>
     <t>压缩空气生产情况汇总表</t>
   </si>
@@ -64,6 +64,27 @@
     <t>一空压站启动次数月累计</t>
   </si>
   <si>
+    <t>一空压站停机次数月累计</t>
+  </si>
+  <si>
+    <t>二空压站启动次数月累计</t>
+  </si>
+  <si>
+    <t>二空压站停机次数月累计</t>
+  </si>
+  <si>
+    <t>三空压站启动次数月累计</t>
+  </si>
+  <si>
+    <t>三空压站停机次数月累计</t>
+  </si>
+  <si>
+    <t>四空压站启动次数月累计</t>
+  </si>
+  <si>
+    <t>四空压站停机次数月累计</t>
+  </si>
+  <si>
     <t>一空压站开机台数</t>
   </si>
   <si>
@@ -293,48 +314,19 @@
   </si>
   <si>
     <t>ES_L2C_ACS4_ACM5_Run_1d_sum</t>
-  </si>
-  <si>
-    <t>一空压站停机次数月累计</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>二空压站启动次数月累计</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>二空压站停机次数月累计</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>三空压站启动次数月累计</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>三空压站停机次数月累计</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>四空压站启动次数月累计</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>四空压站停机次数月累计</t>
-    <phoneticPr fontId="5" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="6">
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="4">
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+  </numFmts>
+  <fonts count="22">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -358,19 +350,151 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
       <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="9"/>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="5">
+  <fills count="36">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -395,8 +519,194 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="9">
     <border>
       <left/>
       <right/>
@@ -404,58 +714,343 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="2">
+  <cellStyleXfs count="50">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0">
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="17" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="15" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="15" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="21" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="16">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="49" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment vertical="center"/>
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="31" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="31" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
-  <cellStyles count="2">
+  <cellStyles count="50">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
-    <cellStyle name="常规 2" xfId="1"/>
+    <cellStyle name="货币[0]" xfId="1" builtinId="7"/>
+    <cellStyle name="20% - 强调文字颜色 3" xfId="2" builtinId="38"/>
+    <cellStyle name="输入" xfId="3" builtinId="20"/>
+    <cellStyle name="货币" xfId="4" builtinId="4"/>
+    <cellStyle name="千位分隔[0]" xfId="5" builtinId="6"/>
+    <cellStyle name="40% - 强调文字颜色 3" xfId="6" builtinId="39"/>
+    <cellStyle name="差" xfId="7" builtinId="27"/>
+    <cellStyle name="千位分隔" xfId="8" builtinId="3"/>
+    <cellStyle name="60% - 强调文字颜色 3" xfId="9" builtinId="40"/>
+    <cellStyle name="超链接" xfId="10" builtinId="8"/>
+    <cellStyle name="百分比" xfId="11" builtinId="5"/>
+    <cellStyle name="已访问的超链接" xfId="12" builtinId="9"/>
+    <cellStyle name="注释" xfId="13" builtinId="10"/>
+    <cellStyle name="60% - 强调文字颜色 2" xfId="14" builtinId="36"/>
+    <cellStyle name="标题 4" xfId="15" builtinId="19"/>
+    <cellStyle name="警告文本" xfId="16" builtinId="11"/>
+    <cellStyle name="标题" xfId="17" builtinId="15"/>
+    <cellStyle name="解释性文本" xfId="18" builtinId="53"/>
+    <cellStyle name="标题 1" xfId="19" builtinId="16"/>
+    <cellStyle name="标题 2" xfId="20" builtinId="17"/>
+    <cellStyle name="60% - 强调文字颜色 1" xfId="21" builtinId="32"/>
+    <cellStyle name="标题 3" xfId="22" builtinId="18"/>
+    <cellStyle name="60% - 强调文字颜色 4" xfId="23" builtinId="44"/>
+    <cellStyle name="输出" xfId="24" builtinId="21"/>
+    <cellStyle name="计算" xfId="25" builtinId="22"/>
+    <cellStyle name="检查单元格" xfId="26" builtinId="23"/>
+    <cellStyle name="20% - 强调文字颜色 6" xfId="27" builtinId="50"/>
+    <cellStyle name="强调文字颜色 2" xfId="28" builtinId="33"/>
+    <cellStyle name="链接单元格" xfId="29" builtinId="24"/>
+    <cellStyle name="汇总" xfId="30" builtinId="25"/>
+    <cellStyle name="好" xfId="31" builtinId="26"/>
+    <cellStyle name="适中" xfId="32" builtinId="28"/>
+    <cellStyle name="20% - 强调文字颜色 5" xfId="33" builtinId="46"/>
+    <cellStyle name="强调文字颜色 1" xfId="34" builtinId="29"/>
+    <cellStyle name="20% - 强调文字颜色 1" xfId="35" builtinId="30"/>
+    <cellStyle name="40% - 强调文字颜色 1" xfId="36" builtinId="31"/>
+    <cellStyle name="20% - 强调文字颜色 2" xfId="37" builtinId="34"/>
+    <cellStyle name="40% - 强调文字颜色 2" xfId="38" builtinId="35"/>
+    <cellStyle name="强调文字颜色 3" xfId="39" builtinId="37"/>
+    <cellStyle name="强调文字颜色 4" xfId="40" builtinId="41"/>
+    <cellStyle name="20% - 强调文字颜色 4" xfId="41" builtinId="42"/>
+    <cellStyle name="40% - 强调文字颜色 4" xfId="42" builtinId="43"/>
+    <cellStyle name="强调文字颜色 5" xfId="43" builtinId="45"/>
+    <cellStyle name="40% - 强调文字颜色 5" xfId="44" builtinId="47"/>
+    <cellStyle name="60% - 强调文字颜色 5" xfId="45" builtinId="48"/>
+    <cellStyle name="强调文字颜色 6" xfId="46" builtinId="49"/>
+    <cellStyle name="40% - 强调文字颜色 6" xfId="47" builtinId="51"/>
+    <cellStyle name="60% - 强调文字颜色 6" xfId="48" builtinId="52"/>
+    <cellStyle name="常规 2" xfId="49"/>
   </cellStyles>
-  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleMedium9"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
@@ -746,16 +1341,16 @@
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
-  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="A1:CN12"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B5" sqref="B5:D5"/>
+    <sheetView tabSelected="1" topLeftCell="H1" workbookViewId="0">
+      <selection activeCell="H7" sqref="H7:CN7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -767,13 +1362,13 @@
     <col min="8" max="75" width="9" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:92">
-      <c r="A1" s="14" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="14"/>
-      <c r="C1" s="14"/>
-      <c r="D1" s="14"/>
+    <row r="1" spans="1:50">
+      <c r="A1" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="4"/>
+      <c r="C1" s="4"/>
+      <c r="D1" s="4"/>
       <c r="E1" s="5"/>
       <c r="F1" s="5"/>
       <c r="G1" s="5"/>
@@ -790,11 +1385,11 @@
       <c r="AW1" s="5"/>
       <c r="AX1" s="5"/>
     </row>
-    <row r="2" spans="1:92">
-      <c r="A2" s="14"/>
-      <c r="B2" s="14"/>
-      <c r="C2" s="14"/>
-      <c r="D2" s="14"/>
+    <row r="2" spans="1:50">
+      <c r="A2" s="4"/>
+      <c r="B2" s="4"/>
+      <c r="C2" s="4"/>
+      <c r="D2" s="4"/>
       <c r="E2" s="5"/>
       <c r="F2" s="5"/>
       <c r="G2" s="5"/>
@@ -811,11 +1406,11 @@
       <c r="AW2" s="5"/>
       <c r="AX2" s="5"/>
     </row>
-    <row r="3" spans="1:92">
-      <c r="A3" s="14"/>
-      <c r="B3" s="14"/>
-      <c r="C3" s="14"/>
-      <c r="D3" s="14"/>
+    <row r="3" spans="1:50">
+      <c r="A3" s="4"/>
+      <c r="B3" s="4"/>
+      <c r="C3" s="4"/>
+      <c r="D3" s="4"/>
       <c r="E3" s="5"/>
       <c r="F3" s="5"/>
       <c r="G3" s="5"/>
@@ -832,448 +1427,448 @@
       <c r="AW3" s="5"/>
       <c r="AX3" s="5"/>
     </row>
-    <row r="4" spans="1:92" ht="45" customHeight="1">
+    <row r="4" ht="45" customHeight="1" spans="1:5">
       <c r="A4" t="s">
         <v>1</v>
       </c>
-      <c r="B4" s="12">
+      <c r="B4" s="6">
         <v>43354</v>
       </c>
-      <c r="C4" s="12"/>
-      <c r="D4" s="12"/>
-      <c r="E4" s="6" t="s">
+      <c r="C4" s="6"/>
+      <c r="D4" s="6"/>
+      <c r="E4" s="7" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="5" spans="1:92" ht="38.25" customHeight="1">
+    <row r="5" ht="38.25" customHeight="1" spans="1:92">
       <c r="A5" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="B5" s="13">
+      <c r="B5" s="8">
         <f>SUM(_acsReportGas_day_all!A2:E2)</f>
         <v>0</v>
       </c>
-      <c r="C5" s="13"/>
-      <c r="D5" s="13"/>
-      <c r="E5" s="6" t="s">
+      <c r="C5" s="8"/>
+      <c r="D5" s="8"/>
+      <c r="E5" s="7" t="s">
         <v>4</v>
       </c>
-      <c r="H5" s="14" t="s">
+      <c r="H5" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="I5" s="14"/>
-      <c r="J5" s="14"/>
-      <c r="K5" s="14" t="s">
+      <c r="I5" s="4"/>
+      <c r="J5" s="4"/>
+      <c r="K5" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="L5" s="14"/>
-      <c r="M5" s="14"/>
-      <c r="N5" s="14" t="s">
+      <c r="L5" s="4"/>
+      <c r="M5" s="4"/>
+      <c r="N5" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="O5" s="14"/>
-      <c r="P5" s="14"/>
-      <c r="Q5" s="14"/>
-      <c r="R5" s="14"/>
-      <c r="S5" s="14" t="s">
+      <c r="O5" s="4"/>
+      <c r="P5" s="4"/>
+      <c r="Q5" s="4"/>
+      <c r="R5" s="4"/>
+      <c r="S5" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="T5" s="14"/>
-      <c r="U5" s="14"/>
-      <c r="V5" s="14"/>
-      <c r="W5" s="14"/>
-      <c r="X5" s="14" t="s">
+      <c r="T5" s="4"/>
+      <c r="U5" s="4"/>
+      <c r="V5" s="4"/>
+      <c r="W5" s="4"/>
+      <c r="X5" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="Y5" s="14"/>
-      <c r="Z5" s="14"/>
-      <c r="AA5" s="14"/>
-      <c r="AB5" s="14" t="s">
+      <c r="Y5" s="4"/>
+      <c r="Z5" s="4"/>
+      <c r="AA5" s="4"/>
+      <c r="AB5" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="AC5" s="14"/>
-      <c r="AD5" s="14"/>
-      <c r="AE5" s="14"/>
-      <c r="AF5" s="14" t="s">
+      <c r="AC5" s="4"/>
+      <c r="AD5" s="4"/>
+      <c r="AE5" s="4"/>
+      <c r="AF5" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="AG5" s="14"/>
-      <c r="AH5" s="14"/>
-      <c r="AI5" s="14"/>
-      <c r="AJ5" s="14"/>
-      <c r="AK5" s="14" t="s">
+      <c r="AG5" s="4"/>
+      <c r="AH5" s="4"/>
+      <c r="AI5" s="4"/>
+      <c r="AJ5" s="4"/>
+      <c r="AK5" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="AL5" s="14"/>
-      <c r="AM5" s="14"/>
-      <c r="AN5" s="14"/>
-      <c r="AO5" s="14"/>
-      <c r="AP5" s="14" t="s">
+      <c r="AL5" s="4"/>
+      <c r="AM5" s="4"/>
+      <c r="AN5" s="4"/>
+      <c r="AO5" s="4"/>
+      <c r="AP5" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="AQ5" s="14"/>
-      <c r="AR5" s="14"/>
-      <c r="AS5" s="14" t="s">
-        <v>91</v>
-      </c>
-      <c r="AT5" s="14"/>
-      <c r="AU5" s="14"/>
-      <c r="AV5" s="14" t="s">
-        <v>92</v>
-      </c>
-      <c r="AW5" s="14"/>
-      <c r="AX5" s="14"/>
-      <c r="AY5" s="14"/>
-      <c r="AZ5" s="14"/>
-      <c r="BA5" s="14" t="s">
-        <v>93</v>
-      </c>
-      <c r="BB5" s="14"/>
-      <c r="BC5" s="14"/>
-      <c r="BD5" s="14"/>
-      <c r="BE5" s="14"/>
-      <c r="BF5" s="14" t="s">
-        <v>94</v>
-      </c>
-      <c r="BG5" s="14"/>
-      <c r="BH5" s="14"/>
-      <c r="BI5" s="14"/>
-      <c r="BJ5" s="14" t="s">
-        <v>95</v>
-      </c>
-      <c r="BK5" s="14"/>
-      <c r="BL5" s="14"/>
-      <c r="BM5" s="14"/>
-      <c r="BN5" s="14" t="s">
-        <v>96</v>
-      </c>
-      <c r="BO5" s="14"/>
-      <c r="BP5" s="14"/>
-      <c r="BQ5" s="14"/>
-      <c r="BR5" s="14"/>
-      <c r="BS5" s="14" t="s">
-        <v>97</v>
-      </c>
-      <c r="BT5" s="14"/>
-      <c r="BU5" s="14"/>
-      <c r="BV5" s="14"/>
-      <c r="BW5" s="14"/>
-      <c r="BX5" s="14" t="s">
+      <c r="AQ5" s="4"/>
+      <c r="AR5" s="4"/>
+      <c r="AS5" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="BY5" s="14"/>
-      <c r="BZ5" s="14"/>
-      <c r="CA5" s="14" t="s">
+      <c r="AT5" s="4"/>
+      <c r="AU5" s="4"/>
+      <c r="AV5" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="CB5" s="14"/>
-      <c r="CC5" s="14"/>
-      <c r="CD5" s="14"/>
-      <c r="CE5" s="14"/>
-      <c r="CF5" s="14" t="s">
+      <c r="AW5" s="4"/>
+      <c r="AX5" s="4"/>
+      <c r="AY5" s="4"/>
+      <c r="AZ5" s="4"/>
+      <c r="BA5" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="CG5" s="14"/>
-      <c r="CH5" s="14"/>
-      <c r="CI5" s="14"/>
-      <c r="CJ5" s="14" t="s">
+      <c r="BB5" s="4"/>
+      <c r="BC5" s="4"/>
+      <c r="BD5" s="4"/>
+      <c r="BE5" s="4"/>
+      <c r="BF5" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="CK5" s="14"/>
-      <c r="CL5" s="14"/>
-      <c r="CM5" s="14"/>
-      <c r="CN5" s="14"/>
+      <c r="BG5" s="4"/>
+      <c r="BH5" s="4"/>
+      <c r="BI5" s="4"/>
+      <c r="BJ5" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="BK5" s="4"/>
+      <c r="BL5" s="4"/>
+      <c r="BM5" s="4"/>
+      <c r="BN5" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="BO5" s="4"/>
+      <c r="BP5" s="4"/>
+      <c r="BQ5" s="4"/>
+      <c r="BR5" s="4"/>
+      <c r="BS5" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="BT5" s="4"/>
+      <c r="BU5" s="4"/>
+      <c r="BV5" s="4"/>
+      <c r="BW5" s="4"/>
+      <c r="BX5" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="BY5" s="4"/>
+      <c r="BZ5" s="4"/>
+      <c r="CA5" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="CB5" s="4"/>
+      <c r="CC5" s="4"/>
+      <c r="CD5" s="4"/>
+      <c r="CE5" s="4"/>
+      <c r="CF5" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="CG5" s="4"/>
+      <c r="CH5" s="4"/>
+      <c r="CI5" s="4"/>
+      <c r="CJ5" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="CK5" s="4"/>
+      <c r="CL5" s="4"/>
+      <c r="CM5" s="4"/>
+      <c r="CN5" s="4"/>
     </row>
-    <row r="6" spans="1:92" s="4" customFormat="1" ht="29.25" customHeight="1">
-      <c r="A6" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="B6" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="C6" s="8" t="s">
-        <v>20</v>
-      </c>
-      <c r="D6" s="4" t="s">
-        <v>21</v>
-      </c>
-      <c r="E6" s="4" t="s">
-        <v>22</v>
-      </c>
-      <c r="H6" s="4" t="s">
-        <v>23</v>
-      </c>
-      <c r="I6" s="4" t="s">
-        <v>24</v>
-      </c>
-      <c r="J6" s="4" t="s">
+    <row r="6" s="3" customFormat="1" ht="29.25" customHeight="1" spans="1:92">
+      <c r="A6" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="K6" s="4" t="s">
-        <v>23</v>
-      </c>
-      <c r="L6" s="4" t="s">
-        <v>24</v>
-      </c>
-      <c r="M6" s="4" t="s">
-        <v>25</v>
-      </c>
-      <c r="N6" s="4" t="s">
-        <v>23</v>
-      </c>
-      <c r="O6" s="4" t="s">
-        <v>24</v>
-      </c>
-      <c r="P6" s="4" t="s">
-        <v>25</v>
-      </c>
-      <c r="Q6" s="4" t="s">
+      <c r="B6" s="9" t="s">
         <v>26</v>
       </c>
-      <c r="R6" s="4" t="s">
+      <c r="C6" s="10" t="s">
         <v>27</v>
       </c>
-      <c r="S6" s="4" t="s">
-        <v>23</v>
-      </c>
-      <c r="T6" s="4" t="s">
-        <v>24</v>
-      </c>
-      <c r="U6" s="4" t="s">
-        <v>25</v>
-      </c>
-      <c r="V6" s="4" t="s">
-        <v>26</v>
-      </c>
-      <c r="W6" s="4" t="s">
-        <v>27</v>
-      </c>
-      <c r="X6" s="4" t="s">
-        <v>23</v>
-      </c>
-      <c r="Y6" s="4" t="s">
-        <v>24</v>
-      </c>
-      <c r="Z6" s="4" t="s">
-        <v>25</v>
-      </c>
-      <c r="AA6" s="4" t="s">
-        <v>26</v>
-      </c>
-      <c r="AB6" s="4" t="s">
-        <v>23</v>
-      </c>
-      <c r="AC6" s="4" t="s">
-        <v>24</v>
-      </c>
-      <c r="AD6" s="4" t="s">
-        <v>25</v>
-      </c>
-      <c r="AE6" s="4" t="s">
-        <v>26</v>
-      </c>
-      <c r="AF6" s="4" t="s">
-        <v>23</v>
-      </c>
-      <c r="AG6" s="4" t="s">
-        <v>24</v>
-      </c>
-      <c r="AH6" s="4" t="s">
-        <v>25</v>
-      </c>
-      <c r="AI6" s="4" t="s">
-        <v>26</v>
-      </c>
-      <c r="AJ6" s="4" t="s">
-        <v>27</v>
-      </c>
-      <c r="AK6" s="4" t="s">
-        <v>23</v>
-      </c>
-      <c r="AL6" s="4" t="s">
-        <v>24</v>
-      </c>
-      <c r="AM6" s="4" t="s">
-        <v>25</v>
-      </c>
-      <c r="AN6" s="4" t="s">
-        <v>26</v>
-      </c>
-      <c r="AO6" s="4" t="s">
-        <v>27</v>
-      </c>
-      <c r="AP6" s="4" t="s">
-        <v>23</v>
-      </c>
-      <c r="AQ6" s="4" t="s">
-        <v>24</v>
-      </c>
-      <c r="AR6" s="4" t="s">
-        <v>25</v>
-      </c>
-      <c r="AS6" s="4" t="s">
-        <v>23</v>
-      </c>
-      <c r="AT6" s="4" t="s">
-        <v>24</v>
-      </c>
-      <c r="AU6" s="4" t="s">
-        <v>25</v>
-      </c>
-      <c r="AV6" s="4" t="s">
-        <v>23</v>
-      </c>
-      <c r="AW6" s="4" t="s">
-        <v>24</v>
-      </c>
-      <c r="AX6" s="4" t="s">
-        <v>25</v>
-      </c>
-      <c r="AY6" s="4" t="s">
-        <v>26</v>
-      </c>
-      <c r="AZ6" s="4" t="s">
-        <v>27</v>
-      </c>
-      <c r="BA6" s="4" t="s">
-        <v>23</v>
-      </c>
-      <c r="BB6" s="4" t="s">
-        <v>24</v>
-      </c>
-      <c r="BC6" s="4" t="s">
-        <v>25</v>
-      </c>
-      <c r="BD6" s="4" t="s">
-        <v>26</v>
-      </c>
-      <c r="BE6" s="4" t="s">
-        <v>27</v>
-      </c>
-      <c r="BF6" s="4" t="s">
-        <v>23</v>
-      </c>
-      <c r="BG6" s="4" t="s">
-        <v>24</v>
-      </c>
-      <c r="BH6" s="4" t="s">
-        <v>25</v>
-      </c>
-      <c r="BI6" s="4" t="s">
-        <v>26</v>
-      </c>
-      <c r="BJ6" s="4" t="s">
-        <v>23</v>
-      </c>
-      <c r="BK6" s="4" t="s">
-        <v>24</v>
-      </c>
-      <c r="BL6" s="4" t="s">
-        <v>25</v>
-      </c>
-      <c r="BM6" s="4" t="s">
-        <v>26</v>
-      </c>
-      <c r="BN6" s="4" t="s">
-        <v>23</v>
-      </c>
-      <c r="BO6" s="4" t="s">
-        <v>24</v>
-      </c>
-      <c r="BP6" s="4" t="s">
-        <v>25</v>
-      </c>
-      <c r="BQ6" s="4" t="s">
-        <v>26</v>
-      </c>
-      <c r="BR6" s="4" t="s">
-        <v>27</v>
-      </c>
-      <c r="BS6" s="4" t="s">
-        <v>23</v>
-      </c>
-      <c r="BT6" s="4" t="s">
-        <v>24</v>
-      </c>
-      <c r="BU6" s="4" t="s">
-        <v>25</v>
-      </c>
-      <c r="BV6" s="4" t="s">
-        <v>26</v>
-      </c>
-      <c r="BW6" s="4" t="s">
-        <v>27</v>
-      </c>
-      <c r="BX6" s="4" t="s">
-        <v>23</v>
-      </c>
-      <c r="BY6" s="4" t="s">
-        <v>24</v>
-      </c>
-      <c r="BZ6" s="4" t="s">
-        <v>25</v>
-      </c>
-      <c r="CA6" s="4" t="s">
-        <v>23</v>
-      </c>
-      <c r="CB6" s="4" t="s">
-        <v>24</v>
-      </c>
-      <c r="CC6" s="4" t="s">
-        <v>25</v>
-      </c>
-      <c r="CD6" s="4" t="s">
-        <v>26</v>
-      </c>
-      <c r="CE6" s="4" t="s">
-        <v>27</v>
-      </c>
-      <c r="CF6" s="4" t="s">
-        <v>23</v>
-      </c>
-      <c r="CG6" s="4" t="s">
-        <v>24</v>
-      </c>
-      <c r="CH6" s="4" t="s">
-        <v>25</v>
-      </c>
-      <c r="CI6" s="4" t="s">
-        <v>26</v>
-      </c>
-      <c r="CJ6" s="4" t="s">
-        <v>23</v>
-      </c>
-      <c r="CK6" s="4" t="s">
-        <v>24</v>
-      </c>
-      <c r="CL6" s="4" t="s">
-        <v>25</v>
-      </c>
-      <c r="CM6" s="4" t="s">
-        <v>26</v>
-      </c>
-      <c r="CN6" s="4" t="s">
-        <v>27</v>
+      <c r="D6" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="E6" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="H6" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="I6" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="J6" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="K6" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="L6" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="M6" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="N6" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="O6" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="P6" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="Q6" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="R6" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="S6" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="T6" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="U6" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="V6" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="W6" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="X6" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="Y6" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="Z6" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="AA6" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="AB6" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="AC6" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="AD6" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="AE6" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="AF6" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="AG6" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="AH6" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="AI6" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="AJ6" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="AK6" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="AL6" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="AM6" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="AN6" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="AO6" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="AP6" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="AQ6" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="AR6" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="AS6" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="AT6" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="AU6" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="AV6" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="AW6" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="AX6" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="AY6" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="AZ6" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="BA6" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="BB6" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="BC6" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="BD6" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="BE6" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="BF6" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="BG6" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="BH6" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="BI6" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="BJ6" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="BK6" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="BL6" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="BM6" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="BN6" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="BO6" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="BP6" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="BQ6" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="BR6" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="BS6" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="BT6" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="BU6" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="BV6" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="BW6" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="BX6" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="BY6" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="BZ6" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="CA6" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="CB6" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="CC6" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="CD6" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="CE6" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="CF6" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="CG6" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="CH6" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="CI6" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="CJ6" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="CK6" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="CL6" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="CM6" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="CN6" s="3" t="s">
+        <v>34</v>
       </c>
     </row>
-    <row r="7" spans="1:92" ht="21.75" customHeight="1">
+    <row r="7" ht="21.75" customHeight="1" spans="1:92">
       <c r="A7" t="s">
-        <v>28</v>
-      </c>
-      <c r="B7" s="9">
+        <v>35</v>
+      </c>
+      <c r="B7" s="11">
         <f>SUM(BX7:BZ7)</f>
         <v>0</v>
       </c>
-      <c r="C7" s="10">
+      <c r="C7" s="11">
         <f>SUM(H7:M7)</f>
         <v>0</v>
       </c>
-      <c r="D7" s="11">
+      <c r="D7" s="12">
         <f>SUM(AP7:AU7)</f>
         <v>0</v>
       </c>
       <c r="E7" t="s">
-        <v>29</v>
+        <v>36</v>
       </c>
       <c r="H7">
         <f>_acsReportStrtStp_day_all!A2</f>
@@ -1616,124 +2211,125 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:92" ht="26.25" customHeight="1">
+    <row r="8" ht="26.25" customHeight="1" spans="1:4">
       <c r="A8" t="s">
-        <v>30</v>
-      </c>
-      <c r="B8" s="9">
+        <v>37</v>
+      </c>
+      <c r="B8" s="11">
         <f>SUM(CA7:CE7)</f>
         <v>0</v>
       </c>
-      <c r="C8" s="10">
+      <c r="C8" s="11">
         <f>SUM(N7:W7)</f>
         <v>0</v>
       </c>
-      <c r="D8" s="11">
+      <c r="D8" s="12">
         <f>SUM(AV7:BE7)</f>
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:92" ht="26.25" customHeight="1">
+    <row r="9" ht="26.25" customHeight="1" spans="1:4">
       <c r="A9" t="s">
-        <v>31</v>
-      </c>
-      <c r="B9" s="9">
+        <v>38</v>
+      </c>
+      <c r="B9" s="11">
         <f>SUM(CF7:CI7)</f>
         <v>0</v>
       </c>
-      <c r="C9" s="10">
+      <c r="C9" s="11">
         <f>SUM(X7:AE7)</f>
         <v>0</v>
       </c>
-      <c r="D9" s="11">
+      <c r="D9" s="12">
         <f>SUM(BF7:BM7)</f>
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:92" ht="33" customHeight="1">
+    <row r="10" ht="33" customHeight="1" spans="1:4">
       <c r="A10" t="s">
-        <v>32</v>
-      </c>
-      <c r="B10" s="9">
+        <v>39</v>
+      </c>
+      <c r="B10" s="11">
         <f>SUM(CJ7:CN7)</f>
         <v>0</v>
       </c>
-      <c r="C10" s="10">
+      <c r="C10" s="11">
         <f>SUM(AF7:AO7)</f>
         <v>0</v>
       </c>
-      <c r="D10" s="11">
+      <c r="D10" s="12">
         <f>SUM(BN7:BW7)</f>
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:92" ht="24.75" customHeight="1">
+    <row r="11" ht="24.75" customHeight="1" spans="1:4">
       <c r="A11" t="s">
-        <v>33</v>
-      </c>
-      <c r="B11" s="9">
+        <v>40</v>
+      </c>
+      <c r="B11" s="11">
         <f>SUM(B7:B10)</f>
         <v>0</v>
       </c>
-      <c r="C11" s="10">
+      <c r="C11" s="11">
         <f>SUM(C7:C10)</f>
         <v>0</v>
       </c>
-      <c r="D11" s="11">
+      <c r="D11" s="12">
         <f>SUM(D7:D10)</f>
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:92" ht="35.25" customHeight="1">
+    <row r="12" ht="35.25" customHeight="1" spans="1:4">
       <c r="A12" t="s">
-        <v>34</v>
-      </c>
-      <c r="B12" s="15"/>
-      <c r="C12" s="15"/>
-      <c r="D12" s="15"/>
+        <v>41</v>
+      </c>
+      <c r="B12" s="13"/>
+      <c r="C12" s="13"/>
+      <c r="D12" s="13"/>
     </row>
   </sheetData>
   <mergeCells count="24">
-    <mergeCell ref="CF5:CI5"/>
-    <mergeCell ref="CJ5:CN5"/>
-    <mergeCell ref="B12:D12"/>
-    <mergeCell ref="A1:D3"/>
+    <mergeCell ref="B4:D4"/>
+    <mergeCell ref="B5:D5"/>
+    <mergeCell ref="H5:J5"/>
+    <mergeCell ref="K5:M5"/>
+    <mergeCell ref="N5:R5"/>
+    <mergeCell ref="S5:W5"/>
+    <mergeCell ref="X5:AA5"/>
+    <mergeCell ref="AB5:AE5"/>
+    <mergeCell ref="AF5:AJ5"/>
+    <mergeCell ref="AK5:AO5"/>
+    <mergeCell ref="AP5:AR5"/>
+    <mergeCell ref="AS5:AU5"/>
+    <mergeCell ref="AV5:AZ5"/>
+    <mergeCell ref="BA5:BE5"/>
+    <mergeCell ref="BF5:BI5"/>
     <mergeCell ref="BJ5:BM5"/>
     <mergeCell ref="BN5:BR5"/>
     <mergeCell ref="BS5:BW5"/>
     <mergeCell ref="BX5:BZ5"/>
     <mergeCell ref="CA5:CE5"/>
-    <mergeCell ref="AP5:AR5"/>
-    <mergeCell ref="AS5:AU5"/>
-    <mergeCell ref="AV5:AZ5"/>
-    <mergeCell ref="BA5:BE5"/>
-    <mergeCell ref="BF5:BI5"/>
-    <mergeCell ref="S5:W5"/>
-    <mergeCell ref="X5:AA5"/>
-    <mergeCell ref="AB5:AE5"/>
-    <mergeCell ref="AF5:AJ5"/>
-    <mergeCell ref="AK5:AO5"/>
-    <mergeCell ref="B4:D4"/>
-    <mergeCell ref="B5:D5"/>
-    <mergeCell ref="H5:J5"/>
-    <mergeCell ref="K5:M5"/>
-    <mergeCell ref="N5:R5"/>
+    <mergeCell ref="CF5:CI5"/>
+    <mergeCell ref="CJ5:CN5"/>
+    <mergeCell ref="B12:D12"/>
+    <mergeCell ref="A1:D3"/>
   </mergeCells>
-  <phoneticPr fontId="5" type="noConversion"/>
-  <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
+  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="A1:E1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="C1" sqref="A1:E1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="4"/>
   <cols>
     <col min="1" max="2" width="32.75" customWidth="1"/>
     <col min="3" max="4" width="37.125" customWidth="1"/>
@@ -1742,29 +2338,30 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1" s="1" t="s">
-        <v>35</v>
+        <v>42</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>36</v>
+        <v>43</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>37</v>
+        <v>44</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>38</v>
+        <v>45</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>39</v>
+        <v>46</v>
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="5" type="noConversion"/>
-  <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="A1:AH17"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -1785,171 +2382,172 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:34">
-      <c r="A1" s="3" t="s">
-        <v>40</v>
+      <c r="A1" s="2" t="s">
+        <v>47</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>41</v>
-      </c>
-      <c r="C1" s="3" t="s">
-        <v>42</v>
-      </c>
-      <c r="D1" s="3" t="s">
-        <v>43</v>
+        <v>48</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>50</v>
       </c>
       <c r="E1" s="2" t="s">
-        <v>44</v>
-      </c>
-      <c r="F1" s="3" t="s">
-        <v>45</v>
-      </c>
-      <c r="G1" s="3" t="s">
-        <v>46</v>
-      </c>
-      <c r="H1" s="3" t="s">
-        <v>47</v>
-      </c>
-      <c r="I1" s="3" t="s">
-        <v>48</v>
-      </c>
-      <c r="J1" s="3" t="s">
-        <v>49</v>
-      </c>
-      <c r="K1" s="3" t="s">
-        <v>50</v>
-      </c>
-      <c r="L1" s="3" t="s">
         <v>51</v>
       </c>
-      <c r="M1" s="3" t="s">
+      <c r="F1" s="2" t="s">
         <v>52</v>
       </c>
-      <c r="N1" s="3" t="s">
+      <c r="G1" s="2" t="s">
         <v>53</v>
       </c>
-      <c r="O1" s="3" t="s">
+      <c r="H1" s="2" t="s">
         <v>54</v>
       </c>
-      <c r="P1" s="3" t="s">
+      <c r="I1" s="2" t="s">
         <v>55</v>
       </c>
-      <c r="Q1" s="3" t="s">
+      <c r="J1" s="2" t="s">
         <v>56</v>
       </c>
-      <c r="R1" s="3" t="s">
+      <c r="K1" s="2" t="s">
         <v>57</v>
       </c>
-      <c r="S1" s="3" t="s">
+      <c r="L1" s="2" t="s">
         <v>58</v>
       </c>
-      <c r="T1" s="3" t="s">
+      <c r="M1" s="2" t="s">
         <v>59</v>
       </c>
-      <c r="U1" s="3" t="s">
+      <c r="N1" s="2" t="s">
         <v>60</v>
       </c>
-      <c r="V1" s="3" t="s">
+      <c r="O1" s="2" t="s">
         <v>61</v>
       </c>
-      <c r="W1" s="3" t="s">
+      <c r="P1" s="2" t="s">
         <v>62</v>
       </c>
-      <c r="X1" s="3" t="s">
+      <c r="Q1" s="2" t="s">
         <v>63</v>
       </c>
-      <c r="Y1" s="3" t="s">
+      <c r="R1" s="2" t="s">
         <v>64</v>
       </c>
-      <c r="Z1" s="3" t="s">
+      <c r="S1" s="2" t="s">
         <v>65</v>
       </c>
-      <c r="AA1" s="3" t="s">
+      <c r="T1" s="2" t="s">
         <v>66</v>
       </c>
-      <c r="AB1" s="3" t="s">
+      <c r="U1" s="2" t="s">
         <v>67</v>
       </c>
-      <c r="AC1" s="3" t="s">
+      <c r="V1" s="2" t="s">
         <v>68</v>
       </c>
+      <c r="W1" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="X1" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="Y1" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="Z1" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="AA1" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="AB1" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="AC1" s="2" t="s">
+        <v>75</v>
+      </c>
       <c r="AD1" s="2" t="s">
-        <v>69</v>
+        <v>76</v>
       </c>
       <c r="AE1" s="2" t="s">
-        <v>70</v>
-      </c>
-      <c r="AF1" s="3" t="s">
-        <v>71</v>
-      </c>
-      <c r="AG1" s="3" t="s">
-        <v>72</v>
-      </c>
-      <c r="AH1" s="3" t="s">
-        <v>73</v>
+        <v>77</v>
+      </c>
+      <c r="AF1" s="2" t="s">
+        <v>78</v>
+      </c>
+      <c r="AG1" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="AH1" s="2" t="s">
+        <v>80</v>
       </c>
     </row>
-    <row r="8" spans="1:34">
-      <c r="A8" s="3"/>
-      <c r="B8" s="3"/>
-      <c r="C8" s="3"/>
-      <c r="D8" s="3"/>
+    <row r="8" spans="1:4">
+      <c r="A8" s="2"/>
+      <c r="B8" s="2"/>
+      <c r="C8" s="2"/>
+      <c r="D8" s="2"/>
     </row>
-    <row r="9" spans="1:34">
-      <c r="A9" s="3"/>
-      <c r="B9" s="3"/>
-      <c r="C9" s="3"/>
-      <c r="D9" s="3"/>
+    <row r="9" spans="1:4">
+      <c r="A9" s="2"/>
+      <c r="B9" s="2"/>
+      <c r="C9" s="2"/>
+      <c r="D9" s="2"/>
     </row>
-    <row r="10" spans="1:34">
-      <c r="A10" s="3"/>
-      <c r="B10" s="3"/>
-      <c r="C10" s="3"/>
-      <c r="D10" s="3"/>
+    <row r="10" spans="1:4">
+      <c r="A10" s="2"/>
+      <c r="B10" s="2"/>
+      <c r="C10" s="2"/>
+      <c r="D10" s="2"/>
     </row>
-    <row r="11" spans="1:34">
-      <c r="A11" s="3"/>
-      <c r="B11" s="3"/>
-      <c r="C11" s="3"/>
-      <c r="D11" s="3"/>
+    <row r="11" spans="1:4">
+      <c r="A11" s="2"/>
+      <c r="B11" s="2"/>
+      <c r="C11" s="2"/>
+      <c r="D11" s="2"/>
     </row>
-    <row r="12" spans="1:34">
-      <c r="A12" s="3"/>
-      <c r="B12" s="3"/>
-      <c r="C12" s="3"/>
-      <c r="D12" s="3"/>
+    <row r="12" spans="1:4">
+      <c r="A12" s="2"/>
+      <c r="B12" s="2"/>
+      <c r="C12" s="2"/>
+      <c r="D12" s="2"/>
     </row>
-    <row r="13" spans="1:34">
-      <c r="A13" s="3"/>
-      <c r="B13" s="3"/>
-      <c r="C13" s="3"/>
-      <c r="D13" s="3"/>
+    <row r="13" spans="1:4">
+      <c r="A13" s="2"/>
+      <c r="B13" s="2"/>
+      <c r="C13" s="2"/>
+      <c r="D13" s="2"/>
     </row>
-    <row r="14" spans="1:34">
-      <c r="B14" s="3"/>
-      <c r="C14" s="3"/>
-      <c r="D14" s="3"/>
+    <row r="14" spans="2:4">
+      <c r="B14" s="2"/>
+      <c r="C14" s="2"/>
+      <c r="D14" s="2"/>
     </row>
-    <row r="15" spans="1:34">
-      <c r="B15" s="3"/>
-      <c r="C15" s="3"/>
-      <c r="D15" s="3"/>
+    <row r="15" spans="2:4">
+      <c r="B15" s="2"/>
+      <c r="C15" s="2"/>
+      <c r="D15" s="2"/>
     </row>
-    <row r="16" spans="1:34">
-      <c r="B16" s="3"/>
-      <c r="D16" s="3"/>
+    <row r="16" spans="2:4">
+      <c r="B16" s="2"/>
+      <c r="D16" s="2"/>
     </row>
     <row r="17" spans="2:4">
-      <c r="B17" s="3"/>
-      <c r="D17" s="3"/>
+      <c r="B17" s="2"/>
+      <c r="D17" s="2"/>
     </row>
   </sheetData>
-  <phoneticPr fontId="5" type="noConversion"/>
-  <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="A1:Q1"/>
   <sheetViews>
     <sheetView topLeftCell="K1" workbookViewId="0">
@@ -1964,69 +2562,70 @@
   <sheetData>
     <row r="1" spans="1:17">
       <c r="A1" s="1" t="s">
-        <v>74</v>
+        <v>81</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>75</v>
+        <v>82</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>76</v>
+        <v>83</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>77</v>
+        <v>84</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>78</v>
+        <v>85</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>79</v>
+        <v>86</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>80</v>
+        <v>87</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>81</v>
+        <v>88</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>82</v>
+        <v>89</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>83</v>
+        <v>90</v>
       </c>
       <c r="K1" s="1" t="s">
-        <v>84</v>
+        <v>91</v>
       </c>
       <c r="L1" s="1" t="s">
-        <v>85</v>
+        <v>92</v>
       </c>
       <c r="M1" s="1" t="s">
-        <v>86</v>
+        <v>93</v>
       </c>
       <c r="N1" s="1" t="s">
-        <v>87</v>
+        <v>94</v>
       </c>
       <c r="O1" s="1" t="s">
-        <v>88</v>
+        <v>95</v>
       </c>
       <c r="P1" s="1" t="s">
-        <v>89</v>
+        <v>96</v>
       </c>
       <c r="Q1" s="1" t="s">
-        <v>90</v>
+        <v>97</v>
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="5" type="noConversion"/>
-  <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="A1:AH1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B20" sqref="A1:XFD1048576"/>
+      <selection activeCell="B20" sqref="$A1:$XFD1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -2044,110 +2643,110 @@
   <sheetData>
     <row r="1" spans="1:34">
       <c r="A1" s="2" t="s">
-        <v>40</v>
-      </c>
-      <c r="B1" s="3" t="s">
-        <v>41</v>
-      </c>
-      <c r="C1" s="3" t="s">
-        <v>42</v>
-      </c>
-      <c r="D1" s="3" t="s">
-        <v>43</v>
-      </c>
-      <c r="E1" s="3" t="s">
-        <v>44</v>
-      </c>
-      <c r="F1" s="3" t="s">
-        <v>45</v>
-      </c>
-      <c r="G1" s="3" t="s">
-        <v>46</v>
-      </c>
-      <c r="H1" s="3" t="s">
         <v>47</v>
       </c>
-      <c r="I1" s="3" t="s">
+      <c r="B1" s="2" t="s">
         <v>48</v>
       </c>
-      <c r="J1" s="3" t="s">
+      <c r="C1" s="2" t="s">
         <v>49</v>
       </c>
-      <c r="K1" s="3" t="s">
+      <c r="D1" s="2" t="s">
         <v>50</v>
       </c>
-      <c r="L1" s="3" t="s">
+      <c r="E1" s="2" t="s">
         <v>51</v>
       </c>
-      <c r="M1" s="3" t="s">
+      <c r="F1" s="2" t="s">
         <v>52</v>
       </c>
-      <c r="N1" s="3" t="s">
+      <c r="G1" s="2" t="s">
         <v>53</v>
       </c>
-      <c r="O1" s="3" t="s">
+      <c r="H1" s="2" t="s">
         <v>54</v>
       </c>
-      <c r="P1" s="3" t="s">
+      <c r="I1" s="2" t="s">
         <v>55</v>
       </c>
-      <c r="Q1" s="3" t="s">
+      <c r="J1" s="2" t="s">
         <v>56</v>
       </c>
-      <c r="R1" s="3" t="s">
+      <c r="K1" s="2" t="s">
         <v>57</v>
       </c>
-      <c r="S1" s="3" t="s">
+      <c r="L1" s="2" t="s">
         <v>58</v>
       </c>
-      <c r="T1" s="3" t="s">
+      <c r="M1" s="2" t="s">
         <v>59</v>
       </c>
-      <c r="U1" s="3" t="s">
+      <c r="N1" s="2" t="s">
         <v>60</v>
       </c>
-      <c r="V1" s="3" t="s">
+      <c r="O1" s="2" t="s">
         <v>61</v>
       </c>
-      <c r="W1" s="3" t="s">
+      <c r="P1" s="2" t="s">
         <v>62</v>
       </c>
-      <c r="X1" s="3" t="s">
+      <c r="Q1" s="2" t="s">
         <v>63</v>
       </c>
-      <c r="Y1" s="3" t="s">
+      <c r="R1" s="2" t="s">
         <v>64</v>
       </c>
-      <c r="Z1" s="3" t="s">
+      <c r="S1" s="2" t="s">
         <v>65</v>
       </c>
-      <c r="AA1" s="3" t="s">
+      <c r="T1" s="2" t="s">
         <v>66</v>
       </c>
-      <c r="AB1" s="3" t="s">
+      <c r="U1" s="2" t="s">
         <v>67</v>
       </c>
-      <c r="AC1" s="3" t="s">
+      <c r="V1" s="2" t="s">
         <v>68</v>
       </c>
-      <c r="AD1" s="3" t="s">
+      <c r="W1" s="2" t="s">
         <v>69</v>
       </c>
-      <c r="AE1" s="3" t="s">
+      <c r="X1" s="2" t="s">
         <v>70</v>
       </c>
-      <c r="AF1" s="3" t="s">
+      <c r="Y1" s="2" t="s">
         <v>71</v>
       </c>
-      <c r="AG1" s="3" t="s">
+      <c r="Z1" s="2" t="s">
         <v>72</v>
       </c>
-      <c r="AH1" s="3" t="s">
+      <c r="AA1" s="2" t="s">
         <v>73</v>
+      </c>
+      <c r="AB1" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="AC1" s="2" t="s">
+        <v>75</v>
+      </c>
+      <c r="AD1" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="AE1" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="AF1" s="2" t="s">
+        <v>78</v>
+      </c>
+      <c r="AG1" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="AH1" s="2" t="s">
+        <v>80</v>
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="5" type="noConversion"/>
-  <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <headerFooter/>
 </worksheet>
 </file>
--- a/excel/finished/能介/压缩空气生产情况汇总表.xlsx
+++ b/excel/finished/能介/压缩空气生产情况汇总表.xlsx
@@ -1,15 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="124226"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\韶钢\程序设计\报表模板\能介\能介\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
+  <workbookPr/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="7300"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12465"/>
   </bookViews>
   <sheets>
     <sheet name="ACS_all_day_main" sheetId="1" r:id="rId1"/>
@@ -17,8 +12,9 @@
     <sheet name="_acsReportStrtStp_day_all" sheetId="3" r:id="rId3"/>
     <sheet name="_acsReportRuntime_day_all" sheetId="4" r:id="rId4"/>
     <sheet name="_acsReportStrtStp_month_day" sheetId="5" r:id="rId5"/>
+    <sheet name="_metadata" sheetId="6" r:id="rId6"/>
   </sheets>
-  <calcPr calcId="152511"/>
+  <calcPr calcId="144525"/>
 </workbook>
 </file>
 
@@ -69,6 +65,27 @@
     <t>一空压站启动次数月累计</t>
   </si>
   <si>
+    <t>一空压站停机次数月累计</t>
+  </si>
+  <si>
+    <t>二空压站启动次数月累计</t>
+  </si>
+  <si>
+    <t>二空压站停机次数月累计</t>
+  </si>
+  <si>
+    <t>三空压站启动次数月累计</t>
+  </si>
+  <si>
+    <t>三空压站停机次数月累计</t>
+  </si>
+  <si>
+    <t>四空压站启动次数月累计</t>
+  </si>
+  <si>
+    <t>四空压站停机次数月累计</t>
+  </si>
+  <si>
     <t>一空压站开机台数</t>
   </si>
   <si>
@@ -298,40 +315,15 @@
   </si>
   <si>
     <t>ES_L2C_ACS4_ACM5_Run_1d_sum</t>
-  </si>
-  <si>
-    <t>一空压站停机次数月累计</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>二空压站启动次数月累计</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>二空压站停机次数月累计</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>三空压站启动次数月累计</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>三空压站停机次数月累计</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>四空压站启动次数月累计</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>四空压站停机次数月累计</t>
-    <phoneticPr fontId="3" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <numFmts count="1">
+    <numFmt numFmtId="178" formatCode="yyyy&quot;年&quot;m&quot;月&quot;d&quot;日&quot;;@"/>
+  </numFmts>
   <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -341,6 +333,7 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
@@ -348,7 +341,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
@@ -424,20 +416,17 @@
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -446,13 +435,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="31" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+    <xf numFmtId="178" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -464,6 +447,12 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -474,9 +463,6 @@
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -525,7 +511,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -560,7 +546,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -771,513 +757,512 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:CN12"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="CU6" sqref="CU6"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B5" sqref="B5:D5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="2" max="2" width="21.7265625" customWidth="1"/>
-    <col min="3" max="3" width="16.7265625" customWidth="1"/>
-    <col min="4" max="4" width="24.6328125" customWidth="1"/>
-    <col min="5" max="5" width="68.453125" hidden="1" customWidth="1"/>
-    <col min="6" max="7" width="0" hidden="1" customWidth="1"/>
-    <col min="8" max="75" width="9" hidden="1" customWidth="1"/>
-    <col min="76" max="92" width="0" hidden="1" customWidth="1"/>
+    <col min="2" max="2" width="21.75" customWidth="1"/>
+    <col min="3" max="3" width="16.75" customWidth="1"/>
+    <col min="4" max="4" width="24.625" customWidth="1"/>
+    <col min="5" max="5" width="68.5" hidden="1" customWidth="1"/>
+    <col min="6" max="92" width="9" hidden="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:92" x14ac:dyDescent="0.25">
-      <c r="A1" s="7" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="7"/>
-      <c r="C1" s="7"/>
-      <c r="D1" s="7"/>
-      <c r="E1" s="5"/>
-      <c r="F1" s="5"/>
-      <c r="G1" s="5"/>
-      <c r="H1" s="5"/>
-      <c r="I1" s="5"/>
-      <c r="J1" s="5"/>
-      <c r="N1" s="5"/>
-      <c r="O1" s="5"/>
-      <c r="P1" s="5"/>
-      <c r="AP1" s="5"/>
-      <c r="AQ1" s="5"/>
-      <c r="AR1" s="5"/>
-      <c r="AV1" s="5"/>
-      <c r="AW1" s="5"/>
-      <c r="AX1" s="5"/>
-    </row>
-    <row r="2" spans="1:92" x14ac:dyDescent="0.25">
-      <c r="A2" s="7"/>
-      <c r="B2" s="7"/>
-      <c r="C2" s="7"/>
-      <c r="D2" s="7"/>
-      <c r="E2" s="5"/>
-      <c r="F2" s="5"/>
-      <c r="G2" s="5"/>
-      <c r="H2" s="5"/>
-      <c r="I2" s="5"/>
-      <c r="J2" s="5"/>
-      <c r="N2" s="5"/>
-      <c r="O2" s="5"/>
-      <c r="P2" s="5"/>
-      <c r="AP2" s="5"/>
-      <c r="AQ2" s="5"/>
-      <c r="AR2" s="5"/>
-      <c r="AV2" s="5"/>
-      <c r="AW2" s="5"/>
-      <c r="AX2" s="5"/>
-    </row>
-    <row r="3" spans="1:92" x14ac:dyDescent="0.25">
-      <c r="A3" s="7"/>
-      <c r="B3" s="7"/>
-      <c r="C3" s="7"/>
-      <c r="D3" s="7"/>
-      <c r="E3" s="5"/>
-      <c r="F3" s="5"/>
-      <c r="G3" s="5"/>
-      <c r="H3" s="5"/>
-      <c r="I3" s="5"/>
-      <c r="J3" s="5"/>
-      <c r="N3" s="5"/>
-      <c r="O3" s="5"/>
-      <c r="P3" s="5"/>
-      <c r="AP3" s="5"/>
-      <c r="AQ3" s="5"/>
-      <c r="AR3" s="5"/>
-      <c r="AV3" s="5"/>
-      <c r="AW3" s="5"/>
-      <c r="AX3" s="5"/>
-    </row>
-    <row r="4" spans="1:92" ht="45" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:92" x14ac:dyDescent="0.15">
+      <c r="A1" s="10" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="10"/>
+      <c r="C1" s="10"/>
+      <c r="D1" s="10"/>
+      <c r="E1" s="4"/>
+      <c r="F1" s="4"/>
+      <c r="G1" s="4"/>
+      <c r="H1" s="4"/>
+      <c r="I1" s="4"/>
+      <c r="J1" s="4"/>
+      <c r="N1" s="4"/>
+      <c r="O1" s="4"/>
+      <c r="P1" s="4"/>
+      <c r="AP1" s="4"/>
+      <c r="AQ1" s="4"/>
+      <c r="AR1" s="4"/>
+      <c r="AV1" s="4"/>
+      <c r="AW1" s="4"/>
+      <c r="AX1" s="4"/>
+    </row>
+    <row r="2" spans="1:92" x14ac:dyDescent="0.15">
+      <c r="A2" s="10"/>
+      <c r="B2" s="10"/>
+      <c r="C2" s="10"/>
+      <c r="D2" s="10"/>
+      <c r="E2" s="4"/>
+      <c r="F2" s="4"/>
+      <c r="G2" s="4"/>
+      <c r="H2" s="4"/>
+      <c r="I2" s="4"/>
+      <c r="J2" s="4"/>
+      <c r="N2" s="4"/>
+      <c r="O2" s="4"/>
+      <c r="P2" s="4"/>
+      <c r="AP2" s="4"/>
+      <c r="AQ2" s="4"/>
+      <c r="AR2" s="4"/>
+      <c r="AV2" s="4"/>
+      <c r="AW2" s="4"/>
+      <c r="AX2" s="4"/>
+    </row>
+    <row r="3" spans="1:92" x14ac:dyDescent="0.15">
+      <c r="A3" s="10"/>
+      <c r="B3" s="10"/>
+      <c r="C3" s="10"/>
+      <c r="D3" s="10"/>
+      <c r="E3" s="4"/>
+      <c r="F3" s="4"/>
+      <c r="G3" s="4"/>
+      <c r="H3" s="4"/>
+      <c r="I3" s="4"/>
+      <c r="J3" s="4"/>
+      <c r="N3" s="4"/>
+      <c r="O3" s="4"/>
+      <c r="P3" s="4"/>
+      <c r="AP3" s="4"/>
+      <c r="AQ3" s="4"/>
+      <c r="AR3" s="4"/>
+      <c r="AV3" s="4"/>
+      <c r="AW3" s="4"/>
+      <c r="AX3" s="4"/>
+    </row>
+    <row r="4" spans="1:92" ht="45" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A4" t="s">
         <v>1</v>
       </c>
-      <c r="B4" s="9">
-        <v>43354</v>
-      </c>
-      <c r="C4" s="9"/>
-      <c r="D4" s="9"/>
-      <c r="E4" s="6" t="s">
+      <c r="B4" s="6">
+        <f>_metadata!B1</f>
+        <v>0</v>
+      </c>
+      <c r="C4" s="6"/>
+      <c r="D4" s="6"/>
+      <c r="E4" s="5" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="5" spans="1:92" ht="38.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:92" ht="38.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A5" t="s">
         <v>3</v>
       </c>
-      <c r="B5" s="10">
+      <c r="B5" s="7">
         <f>SUM(_acsReportGas_day_all!A2:E2)</f>
         <v>0</v>
       </c>
-      <c r="C5" s="11"/>
-      <c r="D5" s="12"/>
-      <c r="E5" s="6" t="s">
+      <c r="C5" s="8"/>
+      <c r="D5" s="9"/>
+      <c r="E5" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="H5" s="7" t="s">
+      <c r="H5" s="10" t="s">
         <v>5</v>
       </c>
-      <c r="I5" s="7"/>
-      <c r="J5" s="7"/>
-      <c r="K5" s="7" t="s">
+      <c r="I5" s="10"/>
+      <c r="J5" s="10"/>
+      <c r="K5" s="10" t="s">
         <v>6</v>
       </c>
-      <c r="L5" s="7"/>
-      <c r="M5" s="7"/>
-      <c r="N5" s="7" t="s">
+      <c r="L5" s="10"/>
+      <c r="M5" s="10"/>
+      <c r="N5" s="10" t="s">
         <v>7</v>
       </c>
-      <c r="O5" s="7"/>
-      <c r="P5" s="7"/>
-      <c r="Q5" s="7"/>
-      <c r="R5" s="7"/>
-      <c r="S5" s="7" t="s">
+      <c r="O5" s="10"/>
+      <c r="P5" s="10"/>
+      <c r="Q5" s="10"/>
+      <c r="R5" s="10"/>
+      <c r="S5" s="10" t="s">
         <v>8</v>
       </c>
-      <c r="T5" s="7"/>
-      <c r="U5" s="7"/>
-      <c r="V5" s="7"/>
-      <c r="W5" s="7"/>
-      <c r="X5" s="7" t="s">
+      <c r="T5" s="10"/>
+      <c r="U5" s="10"/>
+      <c r="V5" s="10"/>
+      <c r="W5" s="10"/>
+      <c r="X5" s="10" t="s">
         <v>9</v>
       </c>
-      <c r="Y5" s="7"/>
-      <c r="Z5" s="7"/>
-      <c r="AA5" s="7"/>
-      <c r="AB5" s="7" t="s">
+      <c r="Y5" s="10"/>
+      <c r="Z5" s="10"/>
+      <c r="AA5" s="10"/>
+      <c r="AB5" s="10" t="s">
         <v>10</v>
       </c>
-      <c r="AC5" s="7"/>
-      <c r="AD5" s="7"/>
-      <c r="AE5" s="7"/>
-      <c r="AF5" s="7" t="s">
+      <c r="AC5" s="10"/>
+      <c r="AD5" s="10"/>
+      <c r="AE5" s="10"/>
+      <c r="AF5" s="10" t="s">
         <v>11</v>
       </c>
-      <c r="AG5" s="7"/>
-      <c r="AH5" s="7"/>
-      <c r="AI5" s="7"/>
-      <c r="AJ5" s="7"/>
-      <c r="AK5" s="7" t="s">
+      <c r="AG5" s="10"/>
+      <c r="AH5" s="10"/>
+      <c r="AI5" s="10"/>
+      <c r="AJ5" s="10"/>
+      <c r="AK5" s="10" t="s">
         <v>12</v>
       </c>
-      <c r="AL5" s="7"/>
-      <c r="AM5" s="7"/>
-      <c r="AN5" s="7"/>
-      <c r="AO5" s="7"/>
-      <c r="AP5" s="7" t="s">
+      <c r="AL5" s="10"/>
+      <c r="AM5" s="10"/>
+      <c r="AN5" s="10"/>
+      <c r="AO5" s="10"/>
+      <c r="AP5" s="10" t="s">
         <v>13</v>
       </c>
-      <c r="AQ5" s="7"/>
-      <c r="AR5" s="7"/>
-      <c r="AS5" s="7" t="s">
-        <v>91</v>
-      </c>
-      <c r="AT5" s="7"/>
-      <c r="AU5" s="7"/>
-      <c r="AV5" s="7" t="s">
-        <v>92</v>
-      </c>
-      <c r="AW5" s="7"/>
-      <c r="AX5" s="7"/>
-      <c r="AY5" s="7"/>
-      <c r="AZ5" s="7"/>
-      <c r="BA5" s="7" t="s">
-        <v>93</v>
-      </c>
-      <c r="BB5" s="7"/>
-      <c r="BC5" s="7"/>
-      <c r="BD5" s="7"/>
-      <c r="BE5" s="7"/>
-      <c r="BF5" s="7" t="s">
-        <v>94</v>
-      </c>
-      <c r="BG5" s="7"/>
-      <c r="BH5" s="7"/>
-      <c r="BI5" s="7"/>
-      <c r="BJ5" s="7" t="s">
-        <v>95</v>
-      </c>
-      <c r="BK5" s="7"/>
-      <c r="BL5" s="7"/>
-      <c r="BM5" s="7"/>
-      <c r="BN5" s="7" t="s">
-        <v>96</v>
-      </c>
-      <c r="BO5" s="7"/>
-      <c r="BP5" s="7"/>
-      <c r="BQ5" s="7"/>
-      <c r="BR5" s="7"/>
-      <c r="BS5" s="7" t="s">
-        <v>97</v>
-      </c>
-      <c r="BT5" s="7"/>
-      <c r="BU5" s="7"/>
-      <c r="BV5" s="7"/>
-      <c r="BW5" s="7"/>
-      <c r="BX5" s="7" t="s">
+      <c r="AQ5" s="10"/>
+      <c r="AR5" s="10"/>
+      <c r="AS5" s="10" t="s">
         <v>14</v>
       </c>
-      <c r="BY5" s="7"/>
-      <c r="BZ5" s="7"/>
-      <c r="CA5" s="7" t="s">
+      <c r="AT5" s="10"/>
+      <c r="AU5" s="10"/>
+      <c r="AV5" s="10" t="s">
         <v>15</v>
       </c>
-      <c r="CB5" s="7"/>
-      <c r="CC5" s="7"/>
-      <c r="CD5" s="7"/>
-      <c r="CE5" s="7"/>
-      <c r="CF5" s="7" t="s">
+      <c r="AW5" s="10"/>
+      <c r="AX5" s="10"/>
+      <c r="AY5" s="10"/>
+      <c r="AZ5" s="10"/>
+      <c r="BA5" s="10" t="s">
         <v>16</v>
       </c>
-      <c r="CG5" s="7"/>
-      <c r="CH5" s="7"/>
-      <c r="CI5" s="7"/>
-      <c r="CJ5" s="7" t="s">
+      <c r="BB5" s="10"/>
+      <c r="BC5" s="10"/>
+      <c r="BD5" s="10"/>
+      <c r="BE5" s="10"/>
+      <c r="BF5" s="10" t="s">
         <v>17</v>
       </c>
-      <c r="CK5" s="7"/>
-      <c r="CL5" s="7"/>
-      <c r="CM5" s="7"/>
-      <c r="CN5" s="7"/>
-    </row>
-    <row r="6" spans="1:92" s="4" customFormat="1" ht="29.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="4" t="s">
+      <c r="BG5" s="10"/>
+      <c r="BH5" s="10"/>
+      <c r="BI5" s="10"/>
+      <c r="BJ5" s="10" t="s">
         <v>18</v>
       </c>
+      <c r="BK5" s="10"/>
+      <c r="BL5" s="10"/>
+      <c r="BM5" s="10"/>
+      <c r="BN5" s="10" t="s">
+        <v>19</v>
+      </c>
+      <c r="BO5" s="10"/>
+      <c r="BP5" s="10"/>
+      <c r="BQ5" s="10"/>
+      <c r="BR5" s="10"/>
+      <c r="BS5" s="10" t="s">
+        <v>20</v>
+      </c>
+      <c r="BT5" s="10"/>
+      <c r="BU5" s="10"/>
+      <c r="BV5" s="10"/>
+      <c r="BW5" s="10"/>
+      <c r="BX5" s="10" t="s">
+        <v>21</v>
+      </c>
+      <c r="BY5" s="10"/>
+      <c r="BZ5" s="10"/>
+      <c r="CA5" s="10" t="s">
+        <v>22</v>
+      </c>
+      <c r="CB5" s="10"/>
+      <c r="CC5" s="10"/>
+      <c r="CD5" s="10"/>
+      <c r="CE5" s="10"/>
+      <c r="CF5" s="10" t="s">
+        <v>23</v>
+      </c>
+      <c r="CG5" s="10"/>
+      <c r="CH5" s="10"/>
+      <c r="CI5" s="10"/>
+      <c r="CJ5" s="10" t="s">
+        <v>24</v>
+      </c>
+      <c r="CK5" s="10"/>
+      <c r="CL5" s="10"/>
+      <c r="CM5" s="10"/>
+      <c r="CN5" s="10"/>
+    </row>
+    <row r="6" spans="1:92" s="3" customFormat="1" ht="29.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A6" s="3" t="s">
+        <v>25</v>
+      </c>
       <c r="B6" t="s">
-        <v>19</v>
+        <v>26</v>
       </c>
       <c r="C6" t="s">
-        <v>20</v>
+        <v>27</v>
       </c>
       <c r="D6" t="s">
-        <v>21</v>
-      </c>
-      <c r="E6" s="4" t="s">
-        <v>22</v>
-      </c>
-      <c r="H6" s="4" t="s">
-        <v>23</v>
-      </c>
-      <c r="I6" s="4" t="s">
-        <v>24</v>
-      </c>
-      <c r="J6" s="4" t="s">
-        <v>25</v>
-      </c>
-      <c r="K6" s="4" t="s">
-        <v>23</v>
-      </c>
-      <c r="L6" s="4" t="s">
-        <v>24</v>
-      </c>
-      <c r="M6" s="4" t="s">
-        <v>25</v>
-      </c>
-      <c r="N6" s="4" t="s">
-        <v>23</v>
-      </c>
-      <c r="O6" s="4" t="s">
-        <v>24</v>
-      </c>
-      <c r="P6" s="4" t="s">
-        <v>25</v>
-      </c>
-      <c r="Q6" s="4" t="s">
-        <v>26</v>
-      </c>
-      <c r="R6" s="4" t="s">
-        <v>27</v>
-      </c>
-      <c r="S6" s="4" t="s">
-        <v>23</v>
-      </c>
-      <c r="T6" s="4" t="s">
-        <v>24</v>
-      </c>
-      <c r="U6" s="4" t="s">
-        <v>25</v>
-      </c>
-      <c r="V6" s="4" t="s">
-        <v>26</v>
-      </c>
-      <c r="W6" s="4" t="s">
-        <v>27</v>
-      </c>
-      <c r="X6" s="4" t="s">
-        <v>23</v>
-      </c>
-      <c r="Y6" s="4" t="s">
-        <v>24</v>
-      </c>
-      <c r="Z6" s="4" t="s">
-        <v>25</v>
-      </c>
-      <c r="AA6" s="4" t="s">
-        <v>26</v>
-      </c>
-      <c r="AB6" s="4" t="s">
-        <v>23</v>
-      </c>
-      <c r="AC6" s="4" t="s">
-        <v>24</v>
-      </c>
-      <c r="AD6" s="4" t="s">
-        <v>25</v>
-      </c>
-      <c r="AE6" s="4" t="s">
-        <v>26</v>
-      </c>
-      <c r="AF6" s="4" t="s">
-        <v>23</v>
-      </c>
-      <c r="AG6" s="4" t="s">
-        <v>24</v>
-      </c>
-      <c r="AH6" s="4" t="s">
-        <v>25</v>
-      </c>
-      <c r="AI6" s="4" t="s">
-        <v>26</v>
-      </c>
-      <c r="AJ6" s="4" t="s">
-        <v>27</v>
-      </c>
-      <c r="AK6" s="4" t="s">
-        <v>23</v>
-      </c>
-      <c r="AL6" s="4" t="s">
-        <v>24</v>
-      </c>
-      <c r="AM6" s="4" t="s">
-        <v>25</v>
-      </c>
-      <c r="AN6" s="4" t="s">
-        <v>26</v>
-      </c>
-      <c r="AO6" s="4" t="s">
-        <v>27</v>
-      </c>
-      <c r="AP6" s="4" t="s">
-        <v>23</v>
-      </c>
-      <c r="AQ6" s="4" t="s">
-        <v>24</v>
-      </c>
-      <c r="AR6" s="4" t="s">
-        <v>25</v>
-      </c>
-      <c r="AS6" s="4" t="s">
-        <v>23</v>
-      </c>
-      <c r="AT6" s="4" t="s">
-        <v>24</v>
-      </c>
-      <c r="AU6" s="4" t="s">
-        <v>25</v>
-      </c>
-      <c r="AV6" s="4" t="s">
-        <v>23</v>
-      </c>
-      <c r="AW6" s="4" t="s">
-        <v>24</v>
-      </c>
-      <c r="AX6" s="4" t="s">
-        <v>25</v>
-      </c>
-      <c r="AY6" s="4" t="s">
-        <v>26</v>
-      </c>
-      <c r="AZ6" s="4" t="s">
-        <v>27</v>
-      </c>
-      <c r="BA6" s="4" t="s">
-        <v>23</v>
-      </c>
-      <c r="BB6" s="4" t="s">
-        <v>24</v>
-      </c>
-      <c r="BC6" s="4" t="s">
-        <v>25</v>
-      </c>
-      <c r="BD6" s="4" t="s">
-        <v>26</v>
-      </c>
-      <c r="BE6" s="4" t="s">
-        <v>27</v>
-      </c>
-      <c r="BF6" s="4" t="s">
-        <v>23</v>
-      </c>
-      <c r="BG6" s="4" t="s">
-        <v>24</v>
-      </c>
-      <c r="BH6" s="4" t="s">
-        <v>25</v>
-      </c>
-      <c r="BI6" s="4" t="s">
-        <v>26</v>
-      </c>
-      <c r="BJ6" s="4" t="s">
-        <v>23</v>
-      </c>
-      <c r="BK6" s="4" t="s">
-        <v>24</v>
-      </c>
-      <c r="BL6" s="4" t="s">
-        <v>25</v>
-      </c>
-      <c r="BM6" s="4" t="s">
-        <v>26</v>
-      </c>
-      <c r="BN6" s="4" t="s">
-        <v>23</v>
-      </c>
-      <c r="BO6" s="4" t="s">
-        <v>24</v>
-      </c>
-      <c r="BP6" s="4" t="s">
-        <v>25</v>
-      </c>
-      <c r="BQ6" s="4" t="s">
-        <v>26</v>
-      </c>
-      <c r="BR6" s="4" t="s">
-        <v>27</v>
-      </c>
-      <c r="BS6" s="4" t="s">
-        <v>23</v>
-      </c>
-      <c r="BT6" s="4" t="s">
-        <v>24</v>
-      </c>
-      <c r="BU6" s="4" t="s">
-        <v>25</v>
-      </c>
-      <c r="BV6" s="4" t="s">
-        <v>26</v>
-      </c>
-      <c r="BW6" s="4" t="s">
-        <v>27</v>
-      </c>
-      <c r="BX6" s="4" t="s">
-        <v>23</v>
-      </c>
-      <c r="BY6" s="4" t="s">
-        <v>24</v>
-      </c>
-      <c r="BZ6" s="4" t="s">
-        <v>25</v>
-      </c>
-      <c r="CA6" s="4" t="s">
-        <v>23</v>
-      </c>
-      <c r="CB6" s="4" t="s">
-        <v>24</v>
-      </c>
-      <c r="CC6" s="4" t="s">
-        <v>25</v>
-      </c>
-      <c r="CD6" s="4" t="s">
-        <v>26</v>
-      </c>
-      <c r="CE6" s="4" t="s">
-        <v>27</v>
-      </c>
-      <c r="CF6" s="4" t="s">
-        <v>23</v>
-      </c>
-      <c r="CG6" s="4" t="s">
-        <v>24</v>
-      </c>
-      <c r="CH6" s="4" t="s">
-        <v>25</v>
-      </c>
-      <c r="CI6" s="4" t="s">
-        <v>26</v>
-      </c>
-      <c r="CJ6" s="4" t="s">
-        <v>23</v>
-      </c>
-      <c r="CK6" s="4" t="s">
-        <v>24</v>
-      </c>
-      <c r="CL6" s="4" t="s">
-        <v>25</v>
-      </c>
-      <c r="CM6" s="4" t="s">
-        <v>26</v>
-      </c>
-      <c r="CN6" s="4" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="7" spans="1:92" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
+        <v>28</v>
+      </c>
+      <c r="E6" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="H6" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="I6" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="J6" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="K6" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="L6" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="M6" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="N6" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="O6" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="P6" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="Q6" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="R6" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="S6" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="T6" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="U6" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="V6" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="W6" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="X6" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="Y6" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="Z6" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="AA6" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="AB6" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="AC6" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="AD6" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="AE6" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="AF6" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="AG6" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="AH6" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="AI6" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="AJ6" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="AK6" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="AL6" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="AM6" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="AN6" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="AO6" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="AP6" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="AQ6" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="AR6" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="AS6" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="AT6" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="AU6" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="AV6" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="AW6" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="AX6" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="AY6" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="AZ6" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="BA6" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="BB6" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="BC6" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="BD6" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="BE6" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="BF6" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="BG6" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="BH6" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="BI6" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="BJ6" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="BK6" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="BL6" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="BM6" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="BN6" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="BO6" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="BP6" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="BQ6" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="BR6" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="BS6" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="BT6" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="BU6" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="BV6" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="BW6" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="BX6" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="BY6" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="BZ6" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="CA6" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="CB6" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="CC6" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="CD6" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="CE6" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="CF6" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="CG6" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="CH6" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="CI6" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="CJ6" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="CK6" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="CL6" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="CM6" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="CN6" s="3" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="7" spans="1:92" ht="21.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A7" t="s">
-        <v>28</v>
+        <v>35</v>
       </c>
       <c r="B7">
         <f>SUM(BX7:BZ7)</f>
@@ -1292,7 +1277,7 @@
         <v>0</v>
       </c>
       <c r="E7" t="s">
-        <v>29</v>
+        <v>36</v>
       </c>
       <c r="H7">
         <f>_acsReportStrtStp_day_all!A2</f>
@@ -1635,9 +1620,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:92" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:92" ht="26.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A8" t="s">
-        <v>30</v>
+        <v>37</v>
       </c>
       <c r="B8">
         <f>SUM(CA7:CE7)</f>
@@ -1652,9 +1637,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:92" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:92" ht="26.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A9" t="s">
-        <v>31</v>
+        <v>38</v>
       </c>
       <c r="B9">
         <f>SUM(CF7:CI7)</f>
@@ -1669,9 +1654,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:92" ht="33" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:92" ht="33" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A10" t="s">
-        <v>32</v>
+        <v>39</v>
       </c>
       <c r="B10">
         <f>SUM(CJ7:CN7)</f>
@@ -1686,9 +1671,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:92" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:92" ht="24.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A11" t="s">
-        <v>33</v>
+        <v>40</v>
       </c>
       <c r="B11">
         <f>SUM(B7:B10)</f>
@@ -1703,24 +1688,16 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:92" ht="35.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:92" ht="35.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A12" t="s">
-        <v>34</v>
-      </c>
-      <c r="B12" s="8"/>
-      <c r="C12" s="8"/>
-      <c r="D12" s="8"/>
+        <v>41</v>
+      </c>
+      <c r="B12" s="11"/>
+      <c r="C12" s="11"/>
+      <c r="D12" s="11"/>
     </row>
   </sheetData>
   <mergeCells count="24">
-    <mergeCell ref="AB5:AE5"/>
-    <mergeCell ref="AF5:AJ5"/>
-    <mergeCell ref="AK5:AO5"/>
-    <mergeCell ref="B4:D4"/>
-    <mergeCell ref="B5:D5"/>
-    <mergeCell ref="H5:J5"/>
-    <mergeCell ref="K5:M5"/>
-    <mergeCell ref="N5:R5"/>
     <mergeCell ref="CF5:CI5"/>
     <mergeCell ref="CJ5:CN5"/>
     <mergeCell ref="B12:D12"/>
@@ -1737,10 +1714,18 @@
     <mergeCell ref="BF5:BI5"/>
     <mergeCell ref="S5:W5"/>
     <mergeCell ref="X5:AA5"/>
+    <mergeCell ref="AB5:AE5"/>
+    <mergeCell ref="AF5:AJ5"/>
+    <mergeCell ref="AK5:AO5"/>
+    <mergeCell ref="B4:D4"/>
+    <mergeCell ref="B5:D5"/>
+    <mergeCell ref="H5:J5"/>
+    <mergeCell ref="K5:M5"/>
+    <mergeCell ref="N5:R5"/>
   </mergeCells>
   <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait"/>
 </worksheet>
 </file>
 
@@ -1752,28 +1737,28 @@
       <selection activeCell="C1" sqref="A1:E1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="2" width="32.7265625" customWidth="1"/>
-    <col min="3" max="4" width="37.08984375" customWidth="1"/>
-    <col min="5" max="5" width="32.7265625" customWidth="1"/>
+    <col min="1" max="2" width="32.75" customWidth="1"/>
+    <col min="3" max="4" width="37.125" customWidth="1"/>
+    <col min="5" max="5" width="32.75" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A1" s="1" t="s">
-        <v>35</v>
+        <v>42</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>36</v>
+        <v>43</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>37</v>
+        <v>44</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>38</v>
+        <v>45</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>39</v>
+        <v>46</v>
       </c>
     </row>
   </sheetData>
@@ -1790,176 +1775,176 @@
       <selection activeCell="B8" sqref="B8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="4" width="40.453125" style="1" customWidth="1"/>
-    <col min="5" max="6" width="39.36328125" style="1" customWidth="1"/>
-    <col min="7" max="11" width="40.453125" style="1" customWidth="1"/>
-    <col min="12" max="16" width="39.36328125" style="1" customWidth="1"/>
-    <col min="17" max="20" width="40.453125" style="1" customWidth="1"/>
-    <col min="21" max="24" width="39.36328125" style="1" customWidth="1"/>
-    <col min="25" max="29" width="40.453125" style="1" customWidth="1"/>
-    <col min="30" max="34" width="39.36328125" style="1" customWidth="1"/>
+    <col min="1" max="4" width="40.5" style="1" customWidth="1"/>
+    <col min="5" max="6" width="39.375" style="1" customWidth="1"/>
+    <col min="7" max="11" width="40.5" style="1" customWidth="1"/>
+    <col min="12" max="16" width="39.375" style="1" customWidth="1"/>
+    <col min="17" max="20" width="40.5" style="1" customWidth="1"/>
+    <col min="21" max="24" width="39.375" style="1" customWidth="1"/>
+    <col min="25" max="29" width="40.5" style="1" customWidth="1"/>
+    <col min="30" max="34" width="39.375" style="1" customWidth="1"/>
     <col min="35" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:34" x14ac:dyDescent="0.25">
-      <c r="A1" s="3" t="s">
-        <v>40</v>
+    <row r="1" spans="1:34" x14ac:dyDescent="0.15">
+      <c r="A1" s="2" t="s">
+        <v>47</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>41</v>
-      </c>
-      <c r="C1" s="3" t="s">
-        <v>42</v>
-      </c>
-      <c r="D1" s="3" t="s">
-        <v>43</v>
+        <v>48</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>50</v>
       </c>
       <c r="E1" s="2" t="s">
-        <v>44</v>
-      </c>
-      <c r="F1" s="3" t="s">
-        <v>45</v>
-      </c>
-      <c r="G1" s="3" t="s">
-        <v>46</v>
-      </c>
-      <c r="H1" s="3" t="s">
-        <v>47</v>
-      </c>
-      <c r="I1" s="3" t="s">
-        <v>48</v>
-      </c>
-      <c r="J1" s="3" t="s">
-        <v>49</v>
-      </c>
-      <c r="K1" s="3" t="s">
-        <v>50</v>
-      </c>
-      <c r="L1" s="3" t="s">
         <v>51</v>
       </c>
-      <c r="M1" s="3" t="s">
+      <c r="F1" s="2" t="s">
         <v>52</v>
       </c>
-      <c r="N1" s="3" t="s">
+      <c r="G1" s="2" t="s">
         <v>53</v>
       </c>
-      <c r="O1" s="3" t="s">
+      <c r="H1" s="2" t="s">
         <v>54</v>
       </c>
-      <c r="P1" s="3" t="s">
+      <c r="I1" s="2" t="s">
         <v>55</v>
       </c>
-      <c r="Q1" s="3" t="s">
+      <c r="J1" s="2" t="s">
         <v>56</v>
       </c>
-      <c r="R1" s="3" t="s">
+      <c r="K1" s="2" t="s">
         <v>57</v>
       </c>
-      <c r="S1" s="3" t="s">
+      <c r="L1" s="2" t="s">
         <v>58</v>
       </c>
-      <c r="T1" s="3" t="s">
+      <c r="M1" s="2" t="s">
         <v>59</v>
       </c>
-      <c r="U1" s="3" t="s">
+      <c r="N1" s="2" t="s">
         <v>60</v>
       </c>
-      <c r="V1" s="3" t="s">
+      <c r="O1" s="2" t="s">
         <v>61</v>
       </c>
-      <c r="W1" s="3" t="s">
+      <c r="P1" s="2" t="s">
         <v>62</v>
       </c>
-      <c r="X1" s="3" t="s">
+      <c r="Q1" s="2" t="s">
         <v>63</v>
       </c>
-      <c r="Y1" s="3" t="s">
+      <c r="R1" s="2" t="s">
         <v>64</v>
       </c>
-      <c r="Z1" s="3" t="s">
+      <c r="S1" s="2" t="s">
         <v>65</v>
       </c>
-      <c r="AA1" s="3" t="s">
+      <c r="T1" s="2" t="s">
         <v>66</v>
       </c>
-      <c r="AB1" s="3" t="s">
+      <c r="U1" s="2" t="s">
         <v>67</v>
       </c>
-      <c r="AC1" s="3" t="s">
+      <c r="V1" s="2" t="s">
         <v>68</v>
       </c>
+      <c r="W1" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="X1" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="Y1" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="Z1" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="AA1" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="AB1" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="AC1" s="2" t="s">
+        <v>75</v>
+      </c>
       <c r="AD1" s="2" t="s">
-        <v>69</v>
+        <v>76</v>
       </c>
       <c r="AE1" s="2" t="s">
-        <v>70</v>
-      </c>
-      <c r="AF1" s="3" t="s">
-        <v>71</v>
-      </c>
-      <c r="AG1" s="3" t="s">
-        <v>72</v>
-      </c>
-      <c r="AH1" s="3" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="8" spans="1:34" x14ac:dyDescent="0.25">
-      <c r="A8" s="3"/>
-      <c r="B8" s="3"/>
-      <c r="C8" s="3"/>
-      <c r="D8" s="3"/>
-    </row>
-    <row r="9" spans="1:34" x14ac:dyDescent="0.25">
-      <c r="A9" s="3"/>
-      <c r="B9" s="3"/>
-      <c r="C9" s="3"/>
-      <c r="D9" s="3"/>
-    </row>
-    <row r="10" spans="1:34" x14ac:dyDescent="0.25">
-      <c r="A10" s="3"/>
-      <c r="B10" s="3"/>
-      <c r="C10" s="3"/>
-      <c r="D10" s="3"/>
-    </row>
-    <row r="11" spans="1:34" x14ac:dyDescent="0.25">
-      <c r="A11" s="3"/>
-      <c r="B11" s="3"/>
-      <c r="C11" s="3"/>
-      <c r="D11" s="3"/>
-    </row>
-    <row r="12" spans="1:34" x14ac:dyDescent="0.25">
-      <c r="A12" s="3"/>
-      <c r="B12" s="3"/>
-      <c r="C12" s="3"/>
-      <c r="D12" s="3"/>
-    </row>
-    <row r="13" spans="1:34" x14ac:dyDescent="0.25">
-      <c r="A13" s="3"/>
-      <c r="B13" s="3"/>
-      <c r="C13" s="3"/>
-      <c r="D13" s="3"/>
-    </row>
-    <row r="14" spans="1:34" x14ac:dyDescent="0.25">
-      <c r="B14" s="3"/>
-      <c r="C14" s="3"/>
-      <c r="D14" s="3"/>
-    </row>
-    <row r="15" spans="1:34" x14ac:dyDescent="0.25">
-      <c r="B15" s="3"/>
-      <c r="C15" s="3"/>
-      <c r="D15" s="3"/>
-    </row>
-    <row r="16" spans="1:34" x14ac:dyDescent="0.25">
-      <c r="B16" s="3"/>
-      <c r="D16" s="3"/>
-    </row>
-    <row r="17" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B17" s="3"/>
-      <c r="D17" s="3"/>
+        <v>77</v>
+      </c>
+      <c r="AF1" s="2" t="s">
+        <v>78</v>
+      </c>
+      <c r="AG1" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="AH1" s="2" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="8" spans="1:34" x14ac:dyDescent="0.15">
+      <c r="A8" s="2"/>
+      <c r="B8" s="2"/>
+      <c r="C8" s="2"/>
+      <c r="D8" s="2"/>
+    </row>
+    <row r="9" spans="1:34" x14ac:dyDescent="0.15">
+      <c r="A9" s="2"/>
+      <c r="B9" s="2"/>
+      <c r="C9" s="2"/>
+      <c r="D9" s="2"/>
+    </row>
+    <row r="10" spans="1:34" x14ac:dyDescent="0.15">
+      <c r="A10" s="2"/>
+      <c r="B10" s="2"/>
+      <c r="C10" s="2"/>
+      <c r="D10" s="2"/>
+    </row>
+    <row r="11" spans="1:34" x14ac:dyDescent="0.15">
+      <c r="A11" s="2"/>
+      <c r="B11" s="2"/>
+      <c r="C11" s="2"/>
+      <c r="D11" s="2"/>
+    </row>
+    <row r="12" spans="1:34" x14ac:dyDescent="0.15">
+      <c r="A12" s="2"/>
+      <c r="B12" s="2"/>
+      <c r="C12" s="2"/>
+      <c r="D12" s="2"/>
+    </row>
+    <row r="13" spans="1:34" x14ac:dyDescent="0.15">
+      <c r="A13" s="2"/>
+      <c r="B13" s="2"/>
+      <c r="C13" s="2"/>
+      <c r="D13" s="2"/>
+    </row>
+    <row r="14" spans="1:34" x14ac:dyDescent="0.15">
+      <c r="B14" s="2"/>
+      <c r="C14" s="2"/>
+      <c r="D14" s="2"/>
+    </row>
+    <row r="15" spans="1:34" x14ac:dyDescent="0.15">
+      <c r="B15" s="2"/>
+      <c r="C15" s="2"/>
+      <c r="D15" s="2"/>
+    </row>
+    <row r="16" spans="1:34" x14ac:dyDescent="0.15">
+      <c r="B16" s="2"/>
+      <c r="D16" s="2"/>
+    </row>
+    <row r="17" spans="2:4" x14ac:dyDescent="0.15">
+      <c r="B17" s="2"/>
+      <c r="D17" s="2"/>
     </row>
   </sheetData>
   <phoneticPr fontId="3" type="noConversion"/>
@@ -1975,63 +1960,63 @@
       <selection activeCell="B8" sqref="B8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="17" width="30.453125" style="1" customWidth="1"/>
+    <col min="1" max="17" width="30.5" style="1" customWidth="1"/>
     <col min="18" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A1" s="1" t="s">
-        <v>74</v>
+        <v>81</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>75</v>
+        <v>82</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>76</v>
+        <v>83</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>77</v>
+        <v>84</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>78</v>
+        <v>85</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>79</v>
+        <v>86</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>80</v>
+        <v>87</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>81</v>
+        <v>88</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>82</v>
+        <v>89</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>83</v>
+        <v>90</v>
       </c>
       <c r="K1" s="1" t="s">
-        <v>84</v>
+        <v>91</v>
       </c>
       <c r="L1" s="1" t="s">
-        <v>85</v>
+        <v>92</v>
       </c>
       <c r="M1" s="1" t="s">
-        <v>86</v>
+        <v>93</v>
       </c>
       <c r="N1" s="1" t="s">
-        <v>87</v>
+        <v>94</v>
       </c>
       <c r="O1" s="1" t="s">
-        <v>88</v>
+        <v>95</v>
       </c>
       <c r="P1" s="1" t="s">
-        <v>89</v>
+        <v>96</v>
       </c>
       <c r="Q1" s="1" t="s">
-        <v>90</v>
+        <v>97</v>
       </c>
     </row>
   </sheetData>
@@ -2048,125 +2033,140 @@
       <selection activeCell="B20" sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="3" width="40.453125" style="1" customWidth="1"/>
-    <col min="4" max="6" width="39.36328125" style="1" customWidth="1"/>
-    <col min="7" max="11" width="40.453125" style="1" customWidth="1"/>
-    <col min="12" max="16" width="39.36328125" style="1" customWidth="1"/>
-    <col min="17" max="20" width="40.453125" style="1" customWidth="1"/>
-    <col min="21" max="24" width="39.36328125" style="1" customWidth="1"/>
-    <col min="25" max="29" width="40.453125" style="1" customWidth="1"/>
-    <col min="30" max="34" width="39.36328125" style="1" customWidth="1"/>
+    <col min="1" max="3" width="40.5" style="1" customWidth="1"/>
+    <col min="4" max="6" width="39.375" style="1" customWidth="1"/>
+    <col min="7" max="11" width="40.5" style="1" customWidth="1"/>
+    <col min="12" max="16" width="39.375" style="1" customWidth="1"/>
+    <col min="17" max="20" width="40.5" style="1" customWidth="1"/>
+    <col min="21" max="24" width="39.375" style="1" customWidth="1"/>
+    <col min="25" max="29" width="40.5" style="1" customWidth="1"/>
+    <col min="30" max="34" width="39.375" style="1" customWidth="1"/>
     <col min="35" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:34" x14ac:dyDescent="0.15">
       <c r="A1" s="2" t="s">
-        <v>40</v>
-      </c>
-      <c r="B1" s="3" t="s">
-        <v>41</v>
-      </c>
-      <c r="C1" s="3" t="s">
-        <v>42</v>
-      </c>
-      <c r="D1" s="3" t="s">
-        <v>43</v>
-      </c>
-      <c r="E1" s="3" t="s">
-        <v>44</v>
-      </c>
-      <c r="F1" s="3" t="s">
-        <v>45</v>
-      </c>
-      <c r="G1" s="3" t="s">
-        <v>46</v>
-      </c>
-      <c r="H1" s="3" t="s">
         <v>47</v>
       </c>
-      <c r="I1" s="3" t="s">
+      <c r="B1" s="2" t="s">
         <v>48</v>
       </c>
-      <c r="J1" s="3" t="s">
+      <c r="C1" s="2" t="s">
         <v>49</v>
       </c>
-      <c r="K1" s="3" t="s">
+      <c r="D1" s="2" t="s">
         <v>50</v>
       </c>
-      <c r="L1" s="3" t="s">
+      <c r="E1" s="2" t="s">
         <v>51</v>
       </c>
-      <c r="M1" s="3" t="s">
+      <c r="F1" s="2" t="s">
         <v>52</v>
       </c>
-      <c r="N1" s="3" t="s">
+      <c r="G1" s="2" t="s">
         <v>53</v>
       </c>
-      <c r="O1" s="3" t="s">
+      <c r="H1" s="2" t="s">
         <v>54</v>
       </c>
-      <c r="P1" s="3" t="s">
+      <c r="I1" s="2" t="s">
         <v>55</v>
       </c>
-      <c r="Q1" s="3" t="s">
+      <c r="J1" s="2" t="s">
         <v>56</v>
       </c>
-      <c r="R1" s="3" t="s">
+      <c r="K1" s="2" t="s">
         <v>57</v>
       </c>
-      <c r="S1" s="3" t="s">
+      <c r="L1" s="2" t="s">
         <v>58</v>
       </c>
-      <c r="T1" s="3" t="s">
+      <c r="M1" s="2" t="s">
         <v>59</v>
       </c>
-      <c r="U1" s="3" t="s">
+      <c r="N1" s="2" t="s">
         <v>60</v>
       </c>
-      <c r="V1" s="3" t="s">
+      <c r="O1" s="2" t="s">
         <v>61</v>
       </c>
-      <c r="W1" s="3" t="s">
+      <c r="P1" s="2" t="s">
         <v>62</v>
       </c>
-      <c r="X1" s="3" t="s">
+      <c r="Q1" s="2" t="s">
         <v>63</v>
       </c>
-      <c r="Y1" s="3" t="s">
+      <c r="R1" s="2" t="s">
         <v>64</v>
       </c>
-      <c r="Z1" s="3" t="s">
+      <c r="S1" s="2" t="s">
         <v>65</v>
       </c>
-      <c r="AA1" s="3" t="s">
+      <c r="T1" s="2" t="s">
         <v>66</v>
       </c>
-      <c r="AB1" s="3" t="s">
+      <c r="U1" s="2" t="s">
         <v>67</v>
       </c>
-      <c r="AC1" s="3" t="s">
+      <c r="V1" s="2" t="s">
         <v>68</v>
       </c>
-      <c r="AD1" s="3" t="s">
+      <c r="W1" s="2" t="s">
         <v>69</v>
       </c>
-      <c r="AE1" s="3" t="s">
+      <c r="X1" s="2" t="s">
         <v>70</v>
       </c>
-      <c r="AF1" s="3" t="s">
+      <c r="Y1" s="2" t="s">
         <v>71</v>
       </c>
-      <c r="AG1" s="3" t="s">
+      <c r="Z1" s="2" t="s">
         <v>72</v>
       </c>
-      <c r="AH1" s="3" t="s">
+      <c r="AA1" s="2" t="s">
         <v>73</v>
+      </c>
+      <c r="AB1" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="AC1" s="2" t="s">
+        <v>75</v>
+      </c>
+      <c r="AD1" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="AE1" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="AF1" s="2" t="s">
+        <v>78</v>
+      </c>
+      <c r="AG1" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="AH1" s="2" t="s">
+        <v>80</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G32" sqref="G32"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetData/>
+  <phoneticPr fontId="3" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/excel/finished/能介/压缩空气生产情况汇总表.xlsx
+++ b/excel/finished/能介/压缩空气生产情况汇总表.xlsx
@@ -321,9 +321,6 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <numFmts count="1">
-    <numFmt numFmtId="178" formatCode="yyyy&quot;年&quot;m&quot;月&quot;d&quot;日&quot;;@"/>
-  </numFmts>
   <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -337,6 +334,7 @@
       <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
+      <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
@@ -344,12 +342,14 @@
       <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
+      <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="9"/>
       <name val="宋体"/>
+      <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
@@ -435,7 +435,10 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="178" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -447,10 +450,7 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -758,7 +758,7 @@
   <dimension ref="A1:CN12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B5" sqref="B5:D5"/>
+      <selection activeCell="B4" sqref="B4:D4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -771,12 +771,12 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:92" x14ac:dyDescent="0.15">
-      <c r="A1" s="10" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="10"/>
-      <c r="C1" s="10"/>
-      <c r="D1" s="10"/>
+      <c r="A1" s="6" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="6"/>
+      <c r="C1" s="6"/>
+      <c r="D1" s="6"/>
       <c r="E1" s="4"/>
       <c r="F1" s="4"/>
       <c r="G1" s="4"/>
@@ -794,10 +794,10 @@
       <c r="AX1" s="4"/>
     </row>
     <row r="2" spans="1:92" x14ac:dyDescent="0.15">
-      <c r="A2" s="10"/>
-      <c r="B2" s="10"/>
-      <c r="C2" s="10"/>
-      <c r="D2" s="10"/>
+      <c r="A2" s="6"/>
+      <c r="B2" s="6"/>
+      <c r="C2" s="6"/>
+      <c r="D2" s="6"/>
       <c r="E2" s="4"/>
       <c r="F2" s="4"/>
       <c r="G2" s="4"/>
@@ -815,10 +815,10 @@
       <c r="AX2" s="4"/>
     </row>
     <row r="3" spans="1:92" x14ac:dyDescent="0.15">
-      <c r="A3" s="10"/>
-      <c r="B3" s="10"/>
-      <c r="C3" s="10"/>
-      <c r="D3" s="10"/>
+      <c r="A3" s="6"/>
+      <c r="B3" s="6"/>
+      <c r="C3" s="6"/>
+      <c r="D3" s="6"/>
       <c r="E3" s="4"/>
       <c r="F3" s="4"/>
       <c r="G3" s="4"/>
@@ -839,12 +839,12 @@
       <c r="A4" t="s">
         <v>1</v>
       </c>
-      <c r="B4" s="6">
-        <f>_metadata!B1</f>
-        <v>0</v>
-      </c>
-      <c r="C4" s="6"/>
-      <c r="D4" s="6"/>
+      <c r="B4" s="11">
+        <f>_metadata!B2</f>
+        <v>0</v>
+      </c>
+      <c r="C4" s="11"/>
+      <c r="D4" s="11"/>
       <c r="E4" s="5" t="s">
         <v>2</v>
       </c>
@@ -853,140 +853,140 @@
       <c r="A5" t="s">
         <v>3</v>
       </c>
-      <c r="B5" s="7">
+      <c r="B5" s="8">
         <f>SUM(_acsReportGas_day_all!A2:E2)</f>
         <v>0</v>
       </c>
-      <c r="C5" s="8"/>
-      <c r="D5" s="9"/>
+      <c r="C5" s="9"/>
+      <c r="D5" s="10"/>
       <c r="E5" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="H5" s="10" t="s">
+      <c r="H5" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="I5" s="10"/>
-      <c r="J5" s="10"/>
-      <c r="K5" s="10" t="s">
+      <c r="I5" s="6"/>
+      <c r="J5" s="6"/>
+      <c r="K5" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="L5" s="10"/>
-      <c r="M5" s="10"/>
-      <c r="N5" s="10" t="s">
+      <c r="L5" s="6"/>
+      <c r="M5" s="6"/>
+      <c r="N5" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="O5" s="10"/>
-      <c r="P5" s="10"/>
-      <c r="Q5" s="10"/>
-      <c r="R5" s="10"/>
-      <c r="S5" s="10" t="s">
+      <c r="O5" s="6"/>
+      <c r="P5" s="6"/>
+      <c r="Q5" s="6"/>
+      <c r="R5" s="6"/>
+      <c r="S5" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="T5" s="10"/>
-      <c r="U5" s="10"/>
-      <c r="V5" s="10"/>
-      <c r="W5" s="10"/>
-      <c r="X5" s="10" t="s">
+      <c r="T5" s="6"/>
+      <c r="U5" s="6"/>
+      <c r="V5" s="6"/>
+      <c r="W5" s="6"/>
+      <c r="X5" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="Y5" s="10"/>
-      <c r="Z5" s="10"/>
-      <c r="AA5" s="10"/>
-      <c r="AB5" s="10" t="s">
+      <c r="Y5" s="6"/>
+      <c r="Z5" s="6"/>
+      <c r="AA5" s="6"/>
+      <c r="AB5" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="AC5" s="10"/>
-      <c r="AD5" s="10"/>
-      <c r="AE5" s="10"/>
-      <c r="AF5" s="10" t="s">
+      <c r="AC5" s="6"/>
+      <c r="AD5" s="6"/>
+      <c r="AE5" s="6"/>
+      <c r="AF5" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="AG5" s="10"/>
-      <c r="AH5" s="10"/>
-      <c r="AI5" s="10"/>
-      <c r="AJ5" s="10"/>
-      <c r="AK5" s="10" t="s">
+      <c r="AG5" s="6"/>
+      <c r="AH5" s="6"/>
+      <c r="AI5" s="6"/>
+      <c r="AJ5" s="6"/>
+      <c r="AK5" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="AL5" s="10"/>
-      <c r="AM5" s="10"/>
-      <c r="AN5" s="10"/>
-      <c r="AO5" s="10"/>
-      <c r="AP5" s="10" t="s">
+      <c r="AL5" s="6"/>
+      <c r="AM5" s="6"/>
+      <c r="AN5" s="6"/>
+      <c r="AO5" s="6"/>
+      <c r="AP5" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="AQ5" s="10"/>
-      <c r="AR5" s="10"/>
-      <c r="AS5" s="10" t="s">
+      <c r="AQ5" s="6"/>
+      <c r="AR5" s="6"/>
+      <c r="AS5" s="6" t="s">
         <v>14</v>
       </c>
-      <c r="AT5" s="10"/>
-      <c r="AU5" s="10"/>
-      <c r="AV5" s="10" t="s">
+      <c r="AT5" s="6"/>
+      <c r="AU5" s="6"/>
+      <c r="AV5" s="6" t="s">
         <v>15</v>
       </c>
-      <c r="AW5" s="10"/>
-      <c r="AX5" s="10"/>
-      <c r="AY5" s="10"/>
-      <c r="AZ5" s="10"/>
-      <c r="BA5" s="10" t="s">
+      <c r="AW5" s="6"/>
+      <c r="AX5" s="6"/>
+      <c r="AY5" s="6"/>
+      <c r="AZ5" s="6"/>
+      <c r="BA5" s="6" t="s">
         <v>16</v>
       </c>
-      <c r="BB5" s="10"/>
-      <c r="BC5" s="10"/>
-      <c r="BD5" s="10"/>
-      <c r="BE5" s="10"/>
-      <c r="BF5" s="10" t="s">
+      <c r="BB5" s="6"/>
+      <c r="BC5" s="6"/>
+      <c r="BD5" s="6"/>
+      <c r="BE5" s="6"/>
+      <c r="BF5" s="6" t="s">
         <v>17</v>
       </c>
-      <c r="BG5" s="10"/>
-      <c r="BH5" s="10"/>
-      <c r="BI5" s="10"/>
-      <c r="BJ5" s="10" t="s">
+      <c r="BG5" s="6"/>
+      <c r="BH5" s="6"/>
+      <c r="BI5" s="6"/>
+      <c r="BJ5" s="6" t="s">
         <v>18</v>
       </c>
-      <c r="BK5" s="10"/>
-      <c r="BL5" s="10"/>
-      <c r="BM5" s="10"/>
-      <c r="BN5" s="10" t="s">
+      <c r="BK5" s="6"/>
+      <c r="BL5" s="6"/>
+      <c r="BM5" s="6"/>
+      <c r="BN5" s="6" t="s">
         <v>19</v>
       </c>
-      <c r="BO5" s="10"/>
-      <c r="BP5" s="10"/>
-      <c r="BQ5" s="10"/>
-      <c r="BR5" s="10"/>
-      <c r="BS5" s="10" t="s">
+      <c r="BO5" s="6"/>
+      <c r="BP5" s="6"/>
+      <c r="BQ5" s="6"/>
+      <c r="BR5" s="6"/>
+      <c r="BS5" s="6" t="s">
         <v>20</v>
       </c>
-      <c r="BT5" s="10"/>
-      <c r="BU5" s="10"/>
-      <c r="BV5" s="10"/>
-      <c r="BW5" s="10"/>
-      <c r="BX5" s="10" t="s">
+      <c r="BT5" s="6"/>
+      <c r="BU5" s="6"/>
+      <c r="BV5" s="6"/>
+      <c r="BW5" s="6"/>
+      <c r="BX5" s="6" t="s">
         <v>21</v>
       </c>
-      <c r="BY5" s="10"/>
-      <c r="BZ5" s="10"/>
-      <c r="CA5" s="10" t="s">
+      <c r="BY5" s="6"/>
+      <c r="BZ5" s="6"/>
+      <c r="CA5" s="6" t="s">
         <v>22</v>
       </c>
-      <c r="CB5" s="10"/>
-      <c r="CC5" s="10"/>
-      <c r="CD5" s="10"/>
-      <c r="CE5" s="10"/>
-      <c r="CF5" s="10" t="s">
+      <c r="CB5" s="6"/>
+      <c r="CC5" s="6"/>
+      <c r="CD5" s="6"/>
+      <c r="CE5" s="6"/>
+      <c r="CF5" s="6" t="s">
         <v>23</v>
       </c>
-      <c r="CG5" s="10"/>
-      <c r="CH5" s="10"/>
-      <c r="CI5" s="10"/>
-      <c r="CJ5" s="10" t="s">
+      <c r="CG5" s="6"/>
+      <c r="CH5" s="6"/>
+      <c r="CI5" s="6"/>
+      <c r="CJ5" s="6" t="s">
         <v>24</v>
       </c>
-      <c r="CK5" s="10"/>
-      <c r="CL5" s="10"/>
-      <c r="CM5" s="10"/>
-      <c r="CN5" s="10"/>
+      <c r="CK5" s="6"/>
+      <c r="CL5" s="6"/>
+      <c r="CM5" s="6"/>
+      <c r="CN5" s="6"/>
     </row>
     <row r="6" spans="1:92" s="3" customFormat="1" ht="29.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A6" s="3" t="s">
@@ -1692,12 +1692,20 @@
       <c r="A12" t="s">
         <v>41</v>
       </c>
-      <c r="B12" s="11"/>
-      <c r="C12" s="11"/>
-      <c r="D12" s="11"/>
+      <c r="B12" s="7"/>
+      <c r="C12" s="7"/>
+      <c r="D12" s="7"/>
     </row>
   </sheetData>
   <mergeCells count="24">
+    <mergeCell ref="AB5:AE5"/>
+    <mergeCell ref="AF5:AJ5"/>
+    <mergeCell ref="AK5:AO5"/>
+    <mergeCell ref="B4:D4"/>
+    <mergeCell ref="B5:D5"/>
+    <mergeCell ref="H5:J5"/>
+    <mergeCell ref="K5:M5"/>
+    <mergeCell ref="N5:R5"/>
     <mergeCell ref="CF5:CI5"/>
     <mergeCell ref="CJ5:CN5"/>
     <mergeCell ref="B12:D12"/>
@@ -1714,14 +1722,6 @@
     <mergeCell ref="BF5:BI5"/>
     <mergeCell ref="S5:W5"/>
     <mergeCell ref="X5:AA5"/>
-    <mergeCell ref="AB5:AE5"/>
-    <mergeCell ref="AF5:AJ5"/>
-    <mergeCell ref="AK5:AO5"/>
-    <mergeCell ref="B4:D4"/>
-    <mergeCell ref="B5:D5"/>
-    <mergeCell ref="H5:J5"/>
-    <mergeCell ref="K5:M5"/>
-    <mergeCell ref="N5:R5"/>
   </mergeCells>
   <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/excel/finished/能介/压缩空气生产情况汇总表.xlsx
+++ b/excel/finished/能介/压缩空气生产情况汇总表.xlsx
@@ -1,10 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
+  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12465"/>
+    <workbookView windowWidth="28800" windowHeight="12540"/>
   </bookViews>
   <sheets>
     <sheet name="ACS_all_day_main" sheetId="1" r:id="rId1"/>
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="212" uniqueCount="98">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="98">
   <si>
     <t>压缩空气生产情况汇总表</t>
   </si>
@@ -320,8 +320,14 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="4" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="4">
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+  </numFmts>
+  <fonts count="22">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -334,27 +340,162 @@
       <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
-      <family val="3"/>
       <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
-      <family val="3"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="9"/>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
       <name val="宋体"/>
-      <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="3">
+  <fills count="34">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -367,8 +508,194 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="4">
+  <borders count="12">
     <border>
       <left/>
       <right/>
@@ -413,34 +740,276 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="2">
+  <cellStyleXfs count="50">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0">
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="19" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="18" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="13" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="13" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="22" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="49" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment vertical="center"/>
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -450,15 +1019,59 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
   </cellXfs>
-  <cellStyles count="2">
+  <cellStyles count="50">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
-    <cellStyle name="常规 2" xfId="1"/>
+    <cellStyle name="货币[0]" xfId="1" builtinId="7"/>
+    <cellStyle name="20% - 强调文字颜色 3" xfId="2" builtinId="38"/>
+    <cellStyle name="输入" xfId="3" builtinId="20"/>
+    <cellStyle name="货币" xfId="4" builtinId="4"/>
+    <cellStyle name="千位分隔[0]" xfId="5" builtinId="6"/>
+    <cellStyle name="40% - 强调文字颜色 3" xfId="6" builtinId="39"/>
+    <cellStyle name="差" xfId="7" builtinId="27"/>
+    <cellStyle name="千位分隔" xfId="8" builtinId="3"/>
+    <cellStyle name="60% - 强调文字颜色 3" xfId="9" builtinId="40"/>
+    <cellStyle name="超链接" xfId="10" builtinId="8"/>
+    <cellStyle name="百分比" xfId="11" builtinId="5"/>
+    <cellStyle name="已访问的超链接" xfId="12" builtinId="9"/>
+    <cellStyle name="注释" xfId="13" builtinId="10"/>
+    <cellStyle name="60% - 强调文字颜色 2" xfId="14" builtinId="36"/>
+    <cellStyle name="标题 4" xfId="15" builtinId="19"/>
+    <cellStyle name="警告文本" xfId="16" builtinId="11"/>
+    <cellStyle name="标题" xfId="17" builtinId="15"/>
+    <cellStyle name="解释性文本" xfId="18" builtinId="53"/>
+    <cellStyle name="标题 1" xfId="19" builtinId="16"/>
+    <cellStyle name="标题 2" xfId="20" builtinId="17"/>
+    <cellStyle name="60% - 强调文字颜色 1" xfId="21" builtinId="32"/>
+    <cellStyle name="标题 3" xfId="22" builtinId="18"/>
+    <cellStyle name="60% - 强调文字颜色 4" xfId="23" builtinId="44"/>
+    <cellStyle name="输出" xfId="24" builtinId="21"/>
+    <cellStyle name="计算" xfId="25" builtinId="22"/>
+    <cellStyle name="检查单元格" xfId="26" builtinId="23"/>
+    <cellStyle name="20% - 强调文字颜色 6" xfId="27" builtinId="50"/>
+    <cellStyle name="强调文字颜色 2" xfId="28" builtinId="33"/>
+    <cellStyle name="链接单元格" xfId="29" builtinId="24"/>
+    <cellStyle name="汇总" xfId="30" builtinId="25"/>
+    <cellStyle name="好" xfId="31" builtinId="26"/>
+    <cellStyle name="适中" xfId="32" builtinId="28"/>
+    <cellStyle name="20% - 强调文字颜色 5" xfId="33" builtinId="46"/>
+    <cellStyle name="强调文字颜色 1" xfId="34" builtinId="29"/>
+    <cellStyle name="20% - 强调文字颜色 1" xfId="35" builtinId="30"/>
+    <cellStyle name="40% - 强调文字颜色 1" xfId="36" builtinId="31"/>
+    <cellStyle name="20% - 强调文字颜色 2" xfId="37" builtinId="34"/>
+    <cellStyle name="40% - 强调文字颜色 2" xfId="38" builtinId="35"/>
+    <cellStyle name="强调文字颜色 3" xfId="39" builtinId="37"/>
+    <cellStyle name="强调文字颜色 4" xfId="40" builtinId="41"/>
+    <cellStyle name="20% - 强调文字颜色 4" xfId="41" builtinId="42"/>
+    <cellStyle name="40% - 强调文字颜色 4" xfId="42" builtinId="43"/>
+    <cellStyle name="强调文字颜色 5" xfId="43" builtinId="45"/>
+    <cellStyle name="40% - 强调文字颜色 5" xfId="44" builtinId="47"/>
+    <cellStyle name="60% - 强调文字颜色 5" xfId="45" builtinId="48"/>
+    <cellStyle name="强调文字颜色 6" xfId="46" builtinId="49"/>
+    <cellStyle name="40% - 强调文字颜色 6" xfId="47" builtinId="51"/>
+    <cellStyle name="60% - 强调文字颜色 6" xfId="48" builtinId="52"/>
+    <cellStyle name="常规 2" xfId="49"/>
   </cellStyles>
-  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleMedium9"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
@@ -749,19 +1362,19 @@
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
-  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="A1:CN12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="B4" sqref="B4:D4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
   <cols>
     <col min="2" max="2" width="21.75" customWidth="1"/>
     <col min="3" max="3" width="16.75" customWidth="1"/>
@@ -770,86 +1383,86 @@
     <col min="6" max="92" width="9" hidden="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:92" x14ac:dyDescent="0.15">
-      <c r="A1" s="6" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="6"/>
-      <c r="C1" s="6"/>
-      <c r="D1" s="6"/>
-      <c r="E1" s="4"/>
-      <c r="F1" s="4"/>
-      <c r="G1" s="4"/>
-      <c r="H1" s="4"/>
-      <c r="I1" s="4"/>
-      <c r="J1" s="4"/>
-      <c r="N1" s="4"/>
-      <c r="O1" s="4"/>
-      <c r="P1" s="4"/>
-      <c r="AP1" s="4"/>
-      <c r="AQ1" s="4"/>
-      <c r="AR1" s="4"/>
-      <c r="AV1" s="4"/>
-      <c r="AW1" s="4"/>
-      <c r="AX1" s="4"/>
+    <row r="1" spans="1:50">
+      <c r="A1" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="4"/>
+      <c r="C1" s="4"/>
+      <c r="D1" s="4"/>
+      <c r="E1" s="5"/>
+      <c r="F1" s="5"/>
+      <c r="G1" s="5"/>
+      <c r="H1" s="5"/>
+      <c r="I1" s="5"/>
+      <c r="J1" s="5"/>
+      <c r="N1" s="5"/>
+      <c r="O1" s="5"/>
+      <c r="P1" s="5"/>
+      <c r="AP1" s="5"/>
+      <c r="AQ1" s="5"/>
+      <c r="AR1" s="5"/>
+      <c r="AV1" s="5"/>
+      <c r="AW1" s="5"/>
+      <c r="AX1" s="5"/>
     </row>
-    <row r="2" spans="1:92" x14ac:dyDescent="0.15">
-      <c r="A2" s="6"/>
-      <c r="B2" s="6"/>
-      <c r="C2" s="6"/>
-      <c r="D2" s="6"/>
-      <c r="E2" s="4"/>
-      <c r="F2" s="4"/>
-      <c r="G2" s="4"/>
-      <c r="H2" s="4"/>
-      <c r="I2" s="4"/>
-      <c r="J2" s="4"/>
-      <c r="N2" s="4"/>
-      <c r="O2" s="4"/>
-      <c r="P2" s="4"/>
-      <c r="AP2" s="4"/>
-      <c r="AQ2" s="4"/>
-      <c r="AR2" s="4"/>
-      <c r="AV2" s="4"/>
-      <c r="AW2" s="4"/>
-      <c r="AX2" s="4"/>
+    <row r="2" spans="1:50">
+      <c r="A2" s="4"/>
+      <c r="B2" s="4"/>
+      <c r="C2" s="4"/>
+      <c r="D2" s="4"/>
+      <c r="E2" s="5"/>
+      <c r="F2" s="5"/>
+      <c r="G2" s="5"/>
+      <c r="H2" s="5"/>
+      <c r="I2" s="5"/>
+      <c r="J2" s="5"/>
+      <c r="N2" s="5"/>
+      <c r="O2" s="5"/>
+      <c r="P2" s="5"/>
+      <c r="AP2" s="5"/>
+      <c r="AQ2" s="5"/>
+      <c r="AR2" s="5"/>
+      <c r="AV2" s="5"/>
+      <c r="AW2" s="5"/>
+      <c r="AX2" s="5"/>
     </row>
-    <row r="3" spans="1:92" x14ac:dyDescent="0.15">
-      <c r="A3" s="6"/>
-      <c r="B3" s="6"/>
-      <c r="C3" s="6"/>
-      <c r="D3" s="6"/>
-      <c r="E3" s="4"/>
-      <c r="F3" s="4"/>
-      <c r="G3" s="4"/>
-      <c r="H3" s="4"/>
-      <c r="I3" s="4"/>
-      <c r="J3" s="4"/>
-      <c r="N3" s="4"/>
-      <c r="O3" s="4"/>
-      <c r="P3" s="4"/>
-      <c r="AP3" s="4"/>
-      <c r="AQ3" s="4"/>
-      <c r="AR3" s="4"/>
-      <c r="AV3" s="4"/>
-      <c r="AW3" s="4"/>
-      <c r="AX3" s="4"/>
+    <row r="3" spans="1:50">
+      <c r="A3" s="4"/>
+      <c r="B3" s="4"/>
+      <c r="C3" s="4"/>
+      <c r="D3" s="4"/>
+      <c r="E3" s="5"/>
+      <c r="F3" s="5"/>
+      <c r="G3" s="5"/>
+      <c r="H3" s="5"/>
+      <c r="I3" s="5"/>
+      <c r="J3" s="5"/>
+      <c r="N3" s="5"/>
+      <c r="O3" s="5"/>
+      <c r="P3" s="5"/>
+      <c r="AP3" s="5"/>
+      <c r="AQ3" s="5"/>
+      <c r="AR3" s="5"/>
+      <c r="AV3" s="5"/>
+      <c r="AW3" s="5"/>
+      <c r="AX3" s="5"/>
     </row>
-    <row r="4" spans="1:92" ht="45" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="4" ht="45" customHeight="1" spans="1:5">
       <c r="A4" t="s">
         <v>1</v>
       </c>
-      <c r="B4" s="11">
+      <c r="B4" s="6">
         <f>_metadata!B2</f>
         <v>0</v>
       </c>
-      <c r="C4" s="11"/>
-      <c r="D4" s="11"/>
-      <c r="E4" s="5" t="s">
+      <c r="C4" s="6"/>
+      <c r="D4" s="6"/>
+      <c r="E4" s="7" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="5" spans="1:92" ht="38.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="5" ht="38.25" customHeight="1" spans="1:92">
       <c r="A5" t="s">
         <v>3</v>
       </c>
@@ -859,136 +1472,136 @@
       </c>
       <c r="C5" s="9"/>
       <c r="D5" s="10"/>
-      <c r="E5" s="5" t="s">
+      <c r="E5" s="7" t="s">
         <v>4</v>
       </c>
-      <c r="H5" s="6" t="s">
+      <c r="H5" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="I5" s="6"/>
-      <c r="J5" s="6"/>
-      <c r="K5" s="6" t="s">
+      <c r="I5" s="4"/>
+      <c r="J5" s="4"/>
+      <c r="K5" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="L5" s="6"/>
-      <c r="M5" s="6"/>
-      <c r="N5" s="6" t="s">
+      <c r="L5" s="4"/>
+      <c r="M5" s="4"/>
+      <c r="N5" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="O5" s="6"/>
-      <c r="P5" s="6"/>
-      <c r="Q5" s="6"/>
-      <c r="R5" s="6"/>
-      <c r="S5" s="6" t="s">
+      <c r="O5" s="4"/>
+      <c r="P5" s="4"/>
+      <c r="Q5" s="4"/>
+      <c r="R5" s="4"/>
+      <c r="S5" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="T5" s="6"/>
-      <c r="U5" s="6"/>
-      <c r="V5" s="6"/>
-      <c r="W5" s="6"/>
-      <c r="X5" s="6" t="s">
+      <c r="T5" s="4"/>
+      <c r="U5" s="4"/>
+      <c r="V5" s="4"/>
+      <c r="W5" s="4"/>
+      <c r="X5" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="Y5" s="6"/>
-      <c r="Z5" s="6"/>
-      <c r="AA5" s="6"/>
-      <c r="AB5" s="6" t="s">
+      <c r="Y5" s="4"/>
+      <c r="Z5" s="4"/>
+      <c r="AA5" s="4"/>
+      <c r="AB5" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="AC5" s="6"/>
-      <c r="AD5" s="6"/>
-      <c r="AE5" s="6"/>
-      <c r="AF5" s="6" t="s">
+      <c r="AC5" s="4"/>
+      <c r="AD5" s="4"/>
+      <c r="AE5" s="4"/>
+      <c r="AF5" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="AG5" s="6"/>
-      <c r="AH5" s="6"/>
-      <c r="AI5" s="6"/>
-      <c r="AJ5" s="6"/>
-      <c r="AK5" s="6" t="s">
+      <c r="AG5" s="4"/>
+      <c r="AH5" s="4"/>
+      <c r="AI5" s="4"/>
+      <c r="AJ5" s="4"/>
+      <c r="AK5" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="AL5" s="6"/>
-      <c r="AM5" s="6"/>
-      <c r="AN5" s="6"/>
-      <c r="AO5" s="6"/>
-      <c r="AP5" s="6" t="s">
+      <c r="AL5" s="4"/>
+      <c r="AM5" s="4"/>
+      <c r="AN5" s="4"/>
+      <c r="AO5" s="4"/>
+      <c r="AP5" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="AQ5" s="6"/>
-      <c r="AR5" s="6"/>
-      <c r="AS5" s="6" t="s">
+      <c r="AQ5" s="4"/>
+      <c r="AR5" s="4"/>
+      <c r="AS5" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="AT5" s="6"/>
-      <c r="AU5" s="6"/>
-      <c r="AV5" s="6" t="s">
+      <c r="AT5" s="4"/>
+      <c r="AU5" s="4"/>
+      <c r="AV5" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="AW5" s="6"/>
-      <c r="AX5" s="6"/>
-      <c r="AY5" s="6"/>
-      <c r="AZ5" s="6"/>
-      <c r="BA5" s="6" t="s">
+      <c r="AW5" s="4"/>
+      <c r="AX5" s="4"/>
+      <c r="AY5" s="4"/>
+      <c r="AZ5" s="4"/>
+      <c r="BA5" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="BB5" s="6"/>
-      <c r="BC5" s="6"/>
-      <c r="BD5" s="6"/>
-      <c r="BE5" s="6"/>
-      <c r="BF5" s="6" t="s">
+      <c r="BB5" s="4"/>
+      <c r="BC5" s="4"/>
+      <c r="BD5" s="4"/>
+      <c r="BE5" s="4"/>
+      <c r="BF5" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="BG5" s="6"/>
-      <c r="BH5" s="6"/>
-      <c r="BI5" s="6"/>
-      <c r="BJ5" s="6" t="s">
+      <c r="BG5" s="4"/>
+      <c r="BH5" s="4"/>
+      <c r="BI5" s="4"/>
+      <c r="BJ5" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="BK5" s="6"/>
-      <c r="BL5" s="6"/>
-      <c r="BM5" s="6"/>
-      <c r="BN5" s="6" t="s">
+      <c r="BK5" s="4"/>
+      <c r="BL5" s="4"/>
+      <c r="BM5" s="4"/>
+      <c r="BN5" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="BO5" s="6"/>
-      <c r="BP5" s="6"/>
-      <c r="BQ5" s="6"/>
-      <c r="BR5" s="6"/>
-      <c r="BS5" s="6" t="s">
+      <c r="BO5" s="4"/>
+      <c r="BP5" s="4"/>
+      <c r="BQ5" s="4"/>
+      <c r="BR5" s="4"/>
+      <c r="BS5" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="BT5" s="6"/>
-      <c r="BU5" s="6"/>
-      <c r="BV5" s="6"/>
-      <c r="BW5" s="6"/>
-      <c r="BX5" s="6" t="s">
+      <c r="BT5" s="4"/>
+      <c r="BU5" s="4"/>
+      <c r="BV5" s="4"/>
+      <c r="BW5" s="4"/>
+      <c r="BX5" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="BY5" s="6"/>
-      <c r="BZ5" s="6"/>
-      <c r="CA5" s="6" t="s">
+      <c r="BY5" s="4"/>
+      <c r="BZ5" s="4"/>
+      <c r="CA5" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="CB5" s="6"/>
-      <c r="CC5" s="6"/>
-      <c r="CD5" s="6"/>
-      <c r="CE5" s="6"/>
-      <c r="CF5" s="6" t="s">
+      <c r="CB5" s="4"/>
+      <c r="CC5" s="4"/>
+      <c r="CD5" s="4"/>
+      <c r="CE5" s="4"/>
+      <c r="CF5" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="CG5" s="6"/>
-      <c r="CH5" s="6"/>
-      <c r="CI5" s="6"/>
-      <c r="CJ5" s="6" t="s">
+      <c r="CG5" s="4"/>
+      <c r="CH5" s="4"/>
+      <c r="CI5" s="4"/>
+      <c r="CJ5" s="4" t="s">
         <v>24</v>
       </c>
-      <c r="CK5" s="6"/>
-      <c r="CL5" s="6"/>
-      <c r="CM5" s="6"/>
-      <c r="CN5" s="6"/>
+      <c r="CK5" s="4"/>
+      <c r="CL5" s="4"/>
+      <c r="CM5" s="4"/>
+      <c r="CN5" s="4"/>
     </row>
-    <row r="6" spans="1:92" s="3" customFormat="1" ht="29.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="6" s="3" customFormat="1" ht="29.25" customHeight="1" spans="1:92">
       <c r="A6" s="3" t="s">
         <v>25</v>
       </c>
@@ -1260,7 +1873,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="7" spans="1:92" ht="21.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="7" ht="21.75" customHeight="1" spans="1:92">
       <c r="A7" t="s">
         <v>35</v>
       </c>
@@ -1620,7 +2233,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:92" ht="26.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="8" ht="26.25" customHeight="1" spans="1:4">
       <c r="A8" t="s">
         <v>37</v>
       </c>
@@ -1637,7 +2250,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:92" ht="26.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="9" ht="26.25" customHeight="1" spans="1:4">
       <c r="A9" t="s">
         <v>38</v>
       </c>
@@ -1654,7 +2267,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:92" ht="33" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="10" ht="33" customHeight="1" spans="1:4">
       <c r="A10" t="s">
         <v>39</v>
       </c>
@@ -1671,7 +2284,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:92" ht="24.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="11" ht="24.75" customHeight="1" spans="1:4">
       <c r="A11" t="s">
         <v>40</v>
       </c>
@@ -1688,63 +2301,64 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:92" ht="35.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="12" ht="35.25" customHeight="1" spans="1:4">
       <c r="A12" t="s">
         <v>41</v>
       </c>
-      <c r="B12" s="7"/>
-      <c r="C12" s="7"/>
-      <c r="D12" s="7"/>
+      <c r="B12" s="6"/>
+      <c r="C12" s="6"/>
+      <c r="D12" s="6"/>
     </row>
   </sheetData>
   <mergeCells count="24">
-    <mergeCell ref="AB5:AE5"/>
-    <mergeCell ref="AF5:AJ5"/>
-    <mergeCell ref="AK5:AO5"/>
     <mergeCell ref="B4:D4"/>
     <mergeCell ref="B5:D5"/>
     <mergeCell ref="H5:J5"/>
     <mergeCell ref="K5:M5"/>
     <mergeCell ref="N5:R5"/>
-    <mergeCell ref="CF5:CI5"/>
-    <mergeCell ref="CJ5:CN5"/>
-    <mergeCell ref="B12:D12"/>
-    <mergeCell ref="A1:D3"/>
+    <mergeCell ref="S5:W5"/>
+    <mergeCell ref="X5:AA5"/>
+    <mergeCell ref="AB5:AE5"/>
+    <mergeCell ref="AF5:AJ5"/>
+    <mergeCell ref="AK5:AO5"/>
+    <mergeCell ref="AP5:AR5"/>
+    <mergeCell ref="AS5:AU5"/>
+    <mergeCell ref="AV5:AZ5"/>
+    <mergeCell ref="BA5:BE5"/>
+    <mergeCell ref="BF5:BI5"/>
     <mergeCell ref="BJ5:BM5"/>
     <mergeCell ref="BN5:BR5"/>
     <mergeCell ref="BS5:BW5"/>
     <mergeCell ref="BX5:BZ5"/>
     <mergeCell ref="CA5:CE5"/>
-    <mergeCell ref="AP5:AR5"/>
-    <mergeCell ref="AS5:AU5"/>
-    <mergeCell ref="AV5:AZ5"/>
-    <mergeCell ref="BA5:BE5"/>
-    <mergeCell ref="BF5:BI5"/>
-    <mergeCell ref="S5:W5"/>
-    <mergeCell ref="X5:AA5"/>
+    <mergeCell ref="CF5:CI5"/>
+    <mergeCell ref="CJ5:CN5"/>
+    <mergeCell ref="B12:D12"/>
+    <mergeCell ref="A1:D3"/>
   </mergeCells>
-  <phoneticPr fontId="3" type="noConversion"/>
-  <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
+  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="A1:E1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="C1" sqref="A1:E1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="4"/>
   <cols>
     <col min="1" max="2" width="32.75" customWidth="1"/>
     <col min="3" max="4" width="37.125" customWidth="1"/>
     <col min="5" max="5" width="32.75" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:5">
       <c r="A1" s="1" t="s">
         <v>42</v>
       </c>
@@ -1762,20 +2376,21 @@
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="3" type="noConversion"/>
-  <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="A1:AH17"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="B8" sqref="B8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
   <cols>
     <col min="1" max="4" width="40.5" style="1" customWidth="1"/>
     <col min="5" max="6" width="39.375" style="1" customWidth="1"/>
@@ -1788,7 +2403,7 @@
     <col min="35" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:34" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:34">
       <c r="A1" s="2" t="s">
         <v>47</v>
       </c>
@@ -1892,81 +2507,82 @@
         <v>80</v>
       </c>
     </row>
-    <row r="8" spans="1:34" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:4">
       <c r="A8" s="2"/>
       <c r="B8" s="2"/>
       <c r="C8" s="2"/>
       <c r="D8" s="2"/>
     </row>
-    <row r="9" spans="1:34" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:4">
       <c r="A9" s="2"/>
       <c r="B9" s="2"/>
       <c r="C9" s="2"/>
       <c r="D9" s="2"/>
     </row>
-    <row r="10" spans="1:34" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:4">
       <c r="A10" s="2"/>
       <c r="B10" s="2"/>
       <c r="C10" s="2"/>
       <c r="D10" s="2"/>
     </row>
-    <row r="11" spans="1:34" x14ac:dyDescent="0.15">
+    <row r="11" spans="1:4">
       <c r="A11" s="2"/>
       <c r="B11" s="2"/>
       <c r="C11" s="2"/>
       <c r="D11" s="2"/>
     </row>
-    <row r="12" spans="1:34" x14ac:dyDescent="0.15">
+    <row r="12" spans="1:4">
       <c r="A12" s="2"/>
       <c r="B12" s="2"/>
       <c r="C12" s="2"/>
       <c r="D12" s="2"/>
     </row>
-    <row r="13" spans="1:34" x14ac:dyDescent="0.15">
+    <row r="13" spans="1:4">
       <c r="A13" s="2"/>
       <c r="B13" s="2"/>
       <c r="C13" s="2"/>
       <c r="D13" s="2"/>
     </row>
-    <row r="14" spans="1:34" x14ac:dyDescent="0.15">
+    <row r="14" spans="2:4">
       <c r="B14" s="2"/>
       <c r="C14" s="2"/>
       <c r="D14" s="2"/>
     </row>
-    <row r="15" spans="1:34" x14ac:dyDescent="0.15">
+    <row r="15" spans="2:4">
       <c r="B15" s="2"/>
       <c r="C15" s="2"/>
       <c r="D15" s="2"/>
     </row>
-    <row r="16" spans="1:34" x14ac:dyDescent="0.15">
+    <row r="16" spans="2:4">
       <c r="B16" s="2"/>
       <c r="D16" s="2"/>
     </row>
-    <row r="17" spans="2:4" x14ac:dyDescent="0.15">
+    <row r="17" spans="2:4">
       <c r="B17" s="2"/>
       <c r="D17" s="2"/>
     </row>
   </sheetData>
-  <phoneticPr fontId="3" type="noConversion"/>
-  <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="A1:Q1"/>
   <sheetViews>
     <sheetView topLeftCell="K1" workbookViewId="0">
       <selection activeCell="B8" sqref="B8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
   <cols>
     <col min="1" max="17" width="30.5" style="1" customWidth="1"/>
     <col min="18" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:17">
       <c r="A1" s="1" t="s">
         <v>81</v>
       </c>
@@ -2020,20 +2636,21 @@
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="3" type="noConversion"/>
-  <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="A1:AH1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B20" sqref="A1:XFD1048576"/>
+      <selection activeCell="B20" sqref="$A1:$XFD1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
   <cols>
     <col min="1" max="3" width="40.5" style="1" customWidth="1"/>
     <col min="4" max="6" width="39.375" style="1" customWidth="1"/>
@@ -2046,7 +2663,7 @@
     <col min="35" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:34" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:34">
       <c r="A1" s="2" t="s">
         <v>47</v>
       </c>
@@ -2151,22 +2768,23 @@
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="3" type="noConversion"/>
-  <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="G32" sqref="G32"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
   <sheetData/>
-  <phoneticPr fontId="3" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <headerFooter/>
 </worksheet>
 </file>
--- a/excel/finished/能介/压缩空气生产情况汇总表.xlsx
+++ b/excel/finished/能介/压缩空气生产情况汇总表.xlsx
@@ -321,13 +321,14 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="4">
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+  <numFmts count="5">
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="176" formatCode="yyyy&quot;年&quot;m&quot;月&quot;d&quot;日&quot;;@"/>
   </numFmts>
-  <fonts count="22">
+  <fonts count="21">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -352,38 +353,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <color rgb="FF3F3F76"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -391,37 +361,6 @@
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -436,15 +375,14 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <color rgb="FF9C0006"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -467,7 +405,23 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -481,19 +435,59 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
   <fills count="34">
     <fill>
@@ -510,187 +504,187 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -741,26 +735,6 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
         <color rgb="FF7F7F7F"/>
       </left>
@@ -800,17 +774,11 @@
       <diagonal/>
     </border>
     <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
+      <left/>
+      <right/>
+      <top/>
       <bottom style="double">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -832,9 +800,35 @@
     <border>
       <left/>
       <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
       <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -844,10 +838,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="19" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -856,140 +850,140 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="18" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="21" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="21" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="27" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="13" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="13" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="22" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="49" applyFont="1" applyFill="1" applyAlignment="1">
@@ -1004,20 +998,23 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="50">
@@ -1371,15 +1368,15 @@
   <dimension ref="A1:CN12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B4" sqref="B4:D4"/>
+      <selection activeCell="D8" sqref="D8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
   <cols>
-    <col min="2" max="2" width="21.75" customWidth="1"/>
-    <col min="3" max="3" width="16.75" customWidth="1"/>
-    <col min="4" max="4" width="24.625" customWidth="1"/>
-    <col min="5" max="5" width="68.5" hidden="1" customWidth="1"/>
+    <col min="2" max="2" width="21.725" customWidth="1"/>
+    <col min="3" max="3" width="16.725" customWidth="1"/>
+    <col min="4" max="4" width="24.6333333333333" customWidth="1"/>
+    <col min="5" max="5" width="68.45" hidden="1" customWidth="1"/>
     <col min="6" max="92" width="9" hidden="1" customWidth="1"/>
   </cols>
   <sheetData>
@@ -1452,9 +1449,9 @@
       <c r="A4" t="s">
         <v>1</v>
       </c>
-      <c r="B4" s="6">
-        <f>_metadata!B2</f>
-        <v>0</v>
+      <c r="B4" s="6" t="str">
+        <f>IF(_metadata!B2="","",_metadata!B2)</f>
+        <v/>
       </c>
       <c r="C4" s="6"/>
       <c r="D4" s="6"/>
@@ -2305,9 +2302,9 @@
       <c r="A12" t="s">
         <v>41</v>
       </c>
-      <c r="B12" s="6"/>
-      <c r="C12" s="6"/>
-      <c r="D12" s="6"/>
+      <c r="B12" s="11"/>
+      <c r="C12" s="11"/>
+      <c r="D12" s="11"/>
     </row>
   </sheetData>
   <mergeCells count="24">
@@ -2353,9 +2350,9 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="4"/>
   <cols>
-    <col min="1" max="2" width="32.75" customWidth="1"/>
-    <col min="3" max="4" width="37.125" customWidth="1"/>
-    <col min="5" max="5" width="32.75" customWidth="1"/>
+    <col min="1" max="2" width="32.725" customWidth="1"/>
+    <col min="3" max="4" width="37.0916666666667" customWidth="1"/>
+    <col min="5" max="5" width="32.725" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5">
@@ -2392,14 +2389,14 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
   <cols>
-    <col min="1" max="4" width="40.5" style="1" customWidth="1"/>
-    <col min="5" max="6" width="39.375" style="1" customWidth="1"/>
-    <col min="7" max="11" width="40.5" style="1" customWidth="1"/>
-    <col min="12" max="16" width="39.375" style="1" customWidth="1"/>
-    <col min="17" max="20" width="40.5" style="1" customWidth="1"/>
-    <col min="21" max="24" width="39.375" style="1" customWidth="1"/>
-    <col min="25" max="29" width="40.5" style="1" customWidth="1"/>
-    <col min="30" max="34" width="39.375" style="1" customWidth="1"/>
+    <col min="1" max="4" width="40.45" style="1" customWidth="1"/>
+    <col min="5" max="6" width="39.3666666666667" style="1" customWidth="1"/>
+    <col min="7" max="11" width="40.45" style="1" customWidth="1"/>
+    <col min="12" max="16" width="39.3666666666667" style="1" customWidth="1"/>
+    <col min="17" max="20" width="40.45" style="1" customWidth="1"/>
+    <col min="21" max="24" width="39.3666666666667" style="1" customWidth="1"/>
+    <col min="25" max="29" width="40.45" style="1" customWidth="1"/>
+    <col min="30" max="34" width="39.3666666666667" style="1" customWidth="1"/>
     <col min="35" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
@@ -2578,7 +2575,7 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
   <cols>
-    <col min="1" max="17" width="30.5" style="1" customWidth="1"/>
+    <col min="1" max="17" width="30.45" style="1" customWidth="1"/>
     <col min="18" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
@@ -2652,14 +2649,14 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
   <cols>
-    <col min="1" max="3" width="40.5" style="1" customWidth="1"/>
-    <col min="4" max="6" width="39.375" style="1" customWidth="1"/>
-    <col min="7" max="11" width="40.5" style="1" customWidth="1"/>
-    <col min="12" max="16" width="39.375" style="1" customWidth="1"/>
-    <col min="17" max="20" width="40.5" style="1" customWidth="1"/>
-    <col min="21" max="24" width="39.375" style="1" customWidth="1"/>
-    <col min="25" max="29" width="40.5" style="1" customWidth="1"/>
-    <col min="30" max="34" width="39.375" style="1" customWidth="1"/>
+    <col min="1" max="3" width="40.45" style="1" customWidth="1"/>
+    <col min="4" max="6" width="39.3666666666667" style="1" customWidth="1"/>
+    <col min="7" max="11" width="40.45" style="1" customWidth="1"/>
+    <col min="12" max="16" width="39.3666666666667" style="1" customWidth="1"/>
+    <col min="17" max="20" width="40.45" style="1" customWidth="1"/>
+    <col min="21" max="24" width="39.3666666666667" style="1" customWidth="1"/>
+    <col min="25" max="29" width="40.45" style="1" customWidth="1"/>
+    <col min="30" max="34" width="39.3666666666667" style="1" customWidth="1"/>
     <col min="35" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
@@ -2779,12 +2776,12 @@
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G32" sqref="G32"/>
+      <selection activeCell="K25" sqref="K25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
   <sheetData/>
-  <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555556" footer="0.511805555555556"/>
   <headerFooter/>
 </worksheet>
 </file>
--- a/excel/finished/能介/压缩空气生产情况汇总表.xlsx
+++ b/excel/finished/能介/压缩空气生产情况汇总表.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28800" windowHeight="12540"/>
+    <workbookView windowWidth="28800" windowHeight="12465"/>
   </bookViews>
   <sheets>
     <sheet name="ACS_all_day_main" sheetId="1" r:id="rId1"/>
@@ -322,10 +322,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="5">
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="176" formatCode="yyyy&quot;年&quot;m&quot;月&quot;d&quot;日&quot;;@"/>
   </numFmts>
   <fonts count="21">
@@ -353,14 +353,44 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -375,7 +405,38 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -383,6 +444,22 @@
     <font>
       <sz val="11"/>
       <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -404,52 +481,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="11"/>
       <color theme="1"/>
@@ -457,37 +488,6 @@
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
   <fills count="34">
     <fill>
@@ -504,181 +504,181 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -735,6 +735,15 @@
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="thin">
         <color rgb="FF7F7F7F"/>
       </left>
@@ -746,15 +755,6 @@
       </top>
       <bottom style="thin">
         <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -779,6 +779,30 @@
       <top/>
       <bottom style="double">
         <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -808,40 +832,16 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="50">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="19" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -850,133 +850,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="17" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="13" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="13" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="27" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="21" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="21" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="27" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -1368,7 +1368,7 @@
   <dimension ref="A1:CN12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D8" sqref="D8"/>
+      <selection activeCell="B7" sqref="B7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -1463,9 +1463,9 @@
       <c r="A5" t="s">
         <v>3</v>
       </c>
-      <c r="B5" s="8">
-        <f>SUM(_acsReportGas_day_all!A2:E2)</f>
-        <v>0</v>
+      <c r="B5" s="8" t="str">
+        <f>IF(_acsReportGas_day_all!A2="","",SUM(_acsReportGas_day_all!A2:E2))</f>
+        <v/>
       </c>
       <c r="C5" s="9"/>
       <c r="D5" s="10"/>
@@ -1889,345 +1889,345 @@
       <c r="E7" t="s">
         <v>36</v>
       </c>
-      <c r="H7">
-        <f>_acsReportStrtStp_day_all!A2</f>
-        <v>0</v>
-      </c>
-      <c r="I7">
-        <f>_acsReportStrtStp_day_all!B2</f>
-        <v>0</v>
-      </c>
-      <c r="J7">
-        <f>_acsReportStrtStp_day_all!C2</f>
-        <v>0</v>
-      </c>
-      <c r="K7">
-        <f>_acsReportStrtStp_day_all!D2</f>
-        <v>0</v>
-      </c>
-      <c r="L7">
-        <f>_acsReportStrtStp_day_all!E2</f>
-        <v>0</v>
-      </c>
-      <c r="M7">
-        <f>_acsReportStrtStp_day_all!F2</f>
-        <v>0</v>
-      </c>
-      <c r="N7">
-        <f>_acsReportStrtStp_day_all!G2</f>
-        <v>0</v>
-      </c>
-      <c r="O7">
-        <f>_acsReportStrtStp_day_all!H2</f>
-        <v>0</v>
-      </c>
-      <c r="P7">
-        <f>_acsReportStrtStp_day_all!I2</f>
-        <v>0</v>
-      </c>
-      <c r="Q7">
-        <f>_acsReportStrtStp_day_all!J2</f>
-        <v>0</v>
-      </c>
-      <c r="R7">
-        <f>_acsReportStrtStp_day_all!K2</f>
-        <v>0</v>
-      </c>
-      <c r="S7">
-        <f>_acsReportStrtStp_day_all!L2</f>
-        <v>0</v>
-      </c>
-      <c r="T7">
-        <f>_acsReportStrtStp_day_all!M2</f>
-        <v>0</v>
-      </c>
-      <c r="U7">
-        <f>_acsReportStrtStp_day_all!N2</f>
-        <v>0</v>
-      </c>
-      <c r="V7">
-        <f>_acsReportStrtStp_day_all!O2</f>
-        <v>0</v>
-      </c>
-      <c r="W7">
-        <f>_acsReportStrtStp_day_all!P2</f>
-        <v>0</v>
-      </c>
-      <c r="X7">
-        <f>_acsReportStrtStp_day_all!Q2</f>
-        <v>0</v>
-      </c>
-      <c r="Y7">
-        <f>_acsReportStrtStp_day_all!R2</f>
-        <v>0</v>
-      </c>
-      <c r="Z7">
-        <f>_acsReportStrtStp_day_all!S2</f>
-        <v>0</v>
-      </c>
-      <c r="AA7">
-        <f>_acsReportStrtStp_day_all!T2</f>
-        <v>0</v>
-      </c>
-      <c r="AB7">
-        <f>_acsReportStrtStp_day_all!U2</f>
-        <v>0</v>
-      </c>
-      <c r="AC7">
-        <f>_acsReportStrtStp_day_all!V2</f>
-        <v>0</v>
-      </c>
-      <c r="AD7">
-        <f>_acsReportStrtStp_day_all!W2</f>
-        <v>0</v>
-      </c>
-      <c r="AE7">
-        <f>_acsReportStrtStp_day_all!X2</f>
-        <v>0</v>
-      </c>
-      <c r="AF7">
-        <f>_acsReportStrtStp_day_all!Y2</f>
-        <v>0</v>
-      </c>
-      <c r="AG7">
-        <f>_acsReportStrtStp_day_all!Z2</f>
-        <v>0</v>
-      </c>
-      <c r="AH7">
-        <f>_acsReportStrtStp_day_all!AA2</f>
-        <v>0</v>
-      </c>
-      <c r="AI7">
-        <f>_acsReportStrtStp_day_all!AB2</f>
-        <v>0</v>
-      </c>
-      <c r="AJ7">
-        <f>_acsReportStrtStp_day_all!AC2</f>
-        <v>0</v>
-      </c>
-      <c r="AK7">
-        <f>_acsReportStrtStp_day_all!AD2</f>
-        <v>0</v>
-      </c>
-      <c r="AL7">
-        <f>_acsReportStrtStp_day_all!AE2</f>
-        <v>0</v>
-      </c>
-      <c r="AM7">
-        <f>_acsReportStrtStp_day_all!AF2</f>
-        <v>0</v>
-      </c>
-      <c r="AN7">
-        <f>_acsReportStrtStp_day_all!AG2</f>
-        <v>0</v>
-      </c>
-      <c r="AO7">
-        <f>_acsReportStrtStp_day_all!AH2</f>
-        <v>0</v>
-      </c>
-      <c r="AP7">
-        <f>_acsReportStrtStp_month_day!A2</f>
-        <v>0</v>
-      </c>
-      <c r="AQ7">
-        <f>_acsReportStrtStp_month_day!B2</f>
-        <v>0</v>
-      </c>
-      <c r="AR7">
-        <f>_acsReportStrtStp_month_day!C2</f>
-        <v>0</v>
-      </c>
-      <c r="AS7">
-        <f>_acsReportStrtStp_month_day!D2</f>
-        <v>0</v>
-      </c>
-      <c r="AT7">
-        <f>_acsReportStrtStp_month_day!E2</f>
-        <v>0</v>
-      </c>
-      <c r="AU7">
-        <f>_acsReportStrtStp_month_day!F2</f>
-        <v>0</v>
-      </c>
-      <c r="AV7">
-        <f>_acsReportStrtStp_month_day!G2</f>
-        <v>0</v>
-      </c>
-      <c r="AW7">
-        <f>_acsReportStrtStp_month_day!H2</f>
-        <v>0</v>
-      </c>
-      <c r="AX7">
-        <f>_acsReportStrtStp_month_day!I2</f>
-        <v>0</v>
-      </c>
-      <c r="AY7">
-        <f>_acsReportStrtStp_month_day!J2</f>
-        <v>0</v>
-      </c>
-      <c r="AZ7">
-        <f>_acsReportStrtStp_month_day!K2</f>
-        <v>0</v>
-      </c>
-      <c r="BA7">
-        <f>_acsReportStrtStp_month_day!L2</f>
-        <v>0</v>
-      </c>
-      <c r="BB7">
-        <f>_acsReportStrtStp_month_day!M2</f>
-        <v>0</v>
-      </c>
-      <c r="BC7">
-        <f>_acsReportStrtStp_month_day!N2</f>
-        <v>0</v>
-      </c>
-      <c r="BD7">
-        <f>_acsReportStrtStp_month_day!O2</f>
-        <v>0</v>
-      </c>
-      <c r="BE7">
-        <f>_acsReportStrtStp_month_day!P2</f>
-        <v>0</v>
-      </c>
-      <c r="BF7">
-        <f>_acsReportStrtStp_month_day!Q2</f>
-        <v>0</v>
-      </c>
-      <c r="BG7">
-        <f>_acsReportStrtStp_month_day!R2</f>
-        <v>0</v>
-      </c>
-      <c r="BH7">
-        <f>_acsReportStrtStp_month_day!S2</f>
-        <v>0</v>
-      </c>
-      <c r="BI7">
-        <f>_acsReportStrtStp_month_day!T2</f>
-        <v>0</v>
-      </c>
-      <c r="BJ7">
-        <f>_acsReportStrtStp_month_day!U2</f>
-        <v>0</v>
-      </c>
-      <c r="BK7">
-        <f>_acsReportStrtStp_month_day!V2</f>
-        <v>0</v>
-      </c>
-      <c r="BL7">
-        <f>_acsReportStrtStp_month_day!W2</f>
-        <v>0</v>
-      </c>
-      <c r="BM7">
-        <f>_acsReportStrtStp_month_day!X2</f>
-        <v>0</v>
-      </c>
-      <c r="BN7">
-        <f>_acsReportStrtStp_month_day!Y2</f>
-        <v>0</v>
-      </c>
-      <c r="BO7">
-        <f>_acsReportStrtStp_month_day!Z2</f>
-        <v>0</v>
-      </c>
-      <c r="BP7">
-        <f>_acsReportStrtStp_month_day!AA2</f>
-        <v>0</v>
-      </c>
-      <c r="BQ7">
-        <f>_acsReportStrtStp_month_day!AB2</f>
-        <v>0</v>
-      </c>
-      <c r="BR7">
-        <f>_acsReportStrtStp_month_day!AC2</f>
-        <v>0</v>
-      </c>
-      <c r="BS7">
-        <f>_acsReportStrtStp_month_day!AD2</f>
-        <v>0</v>
-      </c>
-      <c r="BT7">
-        <f>_acsReportStrtStp_month_day!AE2</f>
-        <v>0</v>
-      </c>
-      <c r="BU7">
-        <f>_acsReportStrtStp_month_day!AF2</f>
-        <v>0</v>
-      </c>
-      <c r="BV7">
-        <f>_acsReportStrtStp_month_day!AG2</f>
-        <v>0</v>
-      </c>
-      <c r="BW7">
-        <f>_acsReportStrtStp_month_day!AH2</f>
-        <v>0</v>
-      </c>
-      <c r="BX7">
-        <f>IF(_acsReportRuntime_day_all!A2&gt;0,1,0)</f>
-        <v>0</v>
-      </c>
-      <c r="BY7">
-        <f>IF(_acsReportRuntime_day_all!B2&gt;0,1,0)</f>
-        <v>0</v>
-      </c>
-      <c r="BZ7">
-        <f>IF(_acsReportRuntime_day_all!C2&gt;0,1,0)</f>
-        <v>0</v>
-      </c>
-      <c r="CA7">
-        <f>IF(_acsReportRuntime_day_all!D2&gt;0,1,0)</f>
-        <v>0</v>
-      </c>
-      <c r="CB7">
-        <f>IF(_acsReportRuntime_day_all!E2&gt;0,1,0)</f>
-        <v>0</v>
-      </c>
-      <c r="CC7">
-        <f>IF(_acsReportRuntime_day_all!F2&gt;0,1,0)</f>
-        <v>0</v>
-      </c>
-      <c r="CD7">
-        <f>IF(_acsReportRuntime_day_all!G2&gt;0,1,0)</f>
-        <v>0</v>
-      </c>
-      <c r="CE7">
-        <f>IF(_acsReportRuntime_day_all!H2&gt;0,1,0)</f>
-        <v>0</v>
-      </c>
-      <c r="CF7">
-        <f>IF(_acsReportRuntime_day_all!I2&gt;0,1,0)</f>
-        <v>0</v>
-      </c>
-      <c r="CG7">
-        <f>IF(_acsReportRuntime_day_all!J2&gt;0,1,0)</f>
-        <v>0</v>
-      </c>
-      <c r="CH7">
-        <f>IF(_acsReportRuntime_day_all!K2&gt;0,1,0)</f>
-        <v>0</v>
-      </c>
-      <c r="CI7">
-        <f>IF(_acsReportRuntime_day_all!L2&gt;0,1,0)</f>
-        <v>0</v>
-      </c>
-      <c r="CJ7">
-        <f>IF(_acsReportRuntime_day_all!M2&gt;0,1,0)</f>
-        <v>0</v>
-      </c>
-      <c r="CK7">
-        <f>IF(_acsReportRuntime_day_all!N2&gt;0,1,0)</f>
-        <v>0</v>
-      </c>
-      <c r="CL7">
-        <f>IF(_acsReportRuntime_day_all!O2&gt;0,1,0)</f>
-        <v>0</v>
-      </c>
-      <c r="CM7">
-        <f>IF(_acsReportRuntime_day_all!P2&gt;0,1,0)</f>
-        <v>0</v>
-      </c>
-      <c r="CN7">
-        <f>IF(_acsReportRuntime_day_all!Q2&gt;0,1,0)</f>
-        <v>0</v>
+      <c r="H7" t="str">
+        <f>IF(_acsReportStrtStp_day_all!A2="","",_acsReportStrtStp_day_all!A2)</f>
+        <v/>
+      </c>
+      <c r="I7" t="str">
+        <f>IF(_acsReportStrtStp_day_all!B2="","",_acsReportStrtStp_day_all!B2)</f>
+        <v/>
+      </c>
+      <c r="J7" t="str">
+        <f>IF(_acsReportStrtStp_day_all!C2="","",_acsReportStrtStp_day_all!C2)</f>
+        <v/>
+      </c>
+      <c r="K7" t="str">
+        <f>IF(_acsReportStrtStp_day_all!D2="","",_acsReportStrtStp_day_all!D2)</f>
+        <v/>
+      </c>
+      <c r="L7" t="str">
+        <f>IF(_acsReportStrtStp_day_all!E2="","",_acsReportStrtStp_day_all!E2)</f>
+        <v/>
+      </c>
+      <c r="M7" t="str">
+        <f>IF(_acsReportStrtStp_day_all!F2="","",_acsReportStrtStp_day_all!F2)</f>
+        <v/>
+      </c>
+      <c r="N7" t="str">
+        <f>IF(_acsReportStrtStp_day_all!G2="","",_acsReportStrtStp_day_all!G2)</f>
+        <v/>
+      </c>
+      <c r="O7" t="str">
+        <f>IF(_acsReportStrtStp_day_all!H2="","",_acsReportStrtStp_day_all!H2)</f>
+        <v/>
+      </c>
+      <c r="P7" t="str">
+        <f>IF(_acsReportStrtStp_day_all!I2="","",_acsReportStrtStp_day_all!I2)</f>
+        <v/>
+      </c>
+      <c r="Q7" t="str">
+        <f>IF(_acsReportStrtStp_day_all!J2="","",_acsReportStrtStp_day_all!J2)</f>
+        <v/>
+      </c>
+      <c r="R7" t="str">
+        <f>IF(_acsReportStrtStp_day_all!K2="","",_acsReportStrtStp_day_all!K2)</f>
+        <v/>
+      </c>
+      <c r="S7" t="str">
+        <f>IF(_acsReportStrtStp_day_all!L2="","",_acsReportStrtStp_day_all!L2)</f>
+        <v/>
+      </c>
+      <c r="T7" t="str">
+        <f>IF(_acsReportStrtStp_day_all!M2="","",_acsReportStrtStp_day_all!M2)</f>
+        <v/>
+      </c>
+      <c r="U7" t="str">
+        <f>IF(_acsReportStrtStp_day_all!N2="","",_acsReportStrtStp_day_all!N2)</f>
+        <v/>
+      </c>
+      <c r="V7" t="str">
+        <f>IF(_acsReportStrtStp_day_all!O2="","",_acsReportStrtStp_day_all!O2)</f>
+        <v/>
+      </c>
+      <c r="W7" t="str">
+        <f>IF(_acsReportStrtStp_day_all!P2="","",_acsReportStrtStp_day_all!P2)</f>
+        <v/>
+      </c>
+      <c r="X7" t="str">
+        <f>IF(_acsReportStrtStp_day_all!Q2="","",_acsReportStrtStp_day_all!Q2)</f>
+        <v/>
+      </c>
+      <c r="Y7" t="str">
+        <f>IF(_acsReportStrtStp_day_all!R2="","",_acsReportStrtStp_day_all!R2)</f>
+        <v/>
+      </c>
+      <c r="Z7" t="str">
+        <f>IF(_acsReportStrtStp_day_all!S2="","",_acsReportStrtStp_day_all!S2)</f>
+        <v/>
+      </c>
+      <c r="AA7" t="str">
+        <f>IF(_acsReportStrtStp_day_all!T2="","",_acsReportStrtStp_day_all!T2)</f>
+        <v/>
+      </c>
+      <c r="AB7" t="str">
+        <f>IF(_acsReportStrtStp_day_all!U2="","",_acsReportStrtStp_day_all!U2)</f>
+        <v/>
+      </c>
+      <c r="AC7" t="str">
+        <f>IF(_acsReportStrtStp_day_all!V2="","",_acsReportStrtStp_day_all!V2)</f>
+        <v/>
+      </c>
+      <c r="AD7" t="str">
+        <f>IF(_acsReportStrtStp_day_all!W2="","",_acsReportStrtStp_day_all!W2)</f>
+        <v/>
+      </c>
+      <c r="AE7" t="str">
+        <f>IF(_acsReportStrtStp_day_all!X2="","",_acsReportStrtStp_day_all!X2)</f>
+        <v/>
+      </c>
+      <c r="AF7" t="str">
+        <f>IF(_acsReportStrtStp_day_all!Y2="","",_acsReportStrtStp_day_all!Y2)</f>
+        <v/>
+      </c>
+      <c r="AG7" t="str">
+        <f>IF(_acsReportStrtStp_day_all!Z2="","",_acsReportStrtStp_day_all!Z2)</f>
+        <v/>
+      </c>
+      <c r="AH7" t="str">
+        <f>IF(_acsReportStrtStp_day_all!AA2="","",_acsReportStrtStp_day_all!AA2)</f>
+        <v/>
+      </c>
+      <c r="AI7" t="str">
+        <f>IF(_acsReportStrtStp_day_all!AB2="","",_acsReportStrtStp_day_all!AB2)</f>
+        <v/>
+      </c>
+      <c r="AJ7" t="str">
+        <f>IF(_acsReportStrtStp_day_all!AC2="","",_acsReportStrtStp_day_all!AC2)</f>
+        <v/>
+      </c>
+      <c r="AK7" t="str">
+        <f>IF(_acsReportStrtStp_day_all!AD2="","",_acsReportStrtStp_day_all!AD2)</f>
+        <v/>
+      </c>
+      <c r="AL7" t="str">
+        <f>IF(_acsReportStrtStp_day_all!AE2="","",_acsReportStrtStp_day_all!AE2)</f>
+        <v/>
+      </c>
+      <c r="AM7" t="str">
+        <f>IF(_acsReportStrtStp_day_all!AF2="","",_acsReportStrtStp_day_all!AF2)</f>
+        <v/>
+      </c>
+      <c r="AN7" t="str">
+        <f>IF(_acsReportStrtStp_day_all!AG2="","",_acsReportStrtStp_day_all!AG2)</f>
+        <v/>
+      </c>
+      <c r="AO7" t="str">
+        <f>IF(_acsReportStrtStp_day_all!AH2="","",_acsReportStrtStp_day_all!AH2)</f>
+        <v/>
+      </c>
+      <c r="AP7" t="str">
+        <f>IF(_acsReportStrtStp_month_day!A2="","",_acsReportStrtStp_month_day!A2)</f>
+        <v/>
+      </c>
+      <c r="AQ7" t="str">
+        <f>IF(_acsReportStrtStp_month_day!B2="","",_acsReportStrtStp_month_day!B2)</f>
+        <v/>
+      </c>
+      <c r="AR7" t="str">
+        <f>IF(_acsReportStrtStp_month_day!C2="","",_acsReportStrtStp_month_day!C2)</f>
+        <v/>
+      </c>
+      <c r="AS7" t="str">
+        <f>IF(_acsReportStrtStp_month_day!D2="","",_acsReportStrtStp_month_day!D2)</f>
+        <v/>
+      </c>
+      <c r="AT7" t="str">
+        <f>IF(_acsReportStrtStp_month_day!E2="","",_acsReportStrtStp_month_day!E2)</f>
+        <v/>
+      </c>
+      <c r="AU7" t="str">
+        <f>IF(_acsReportStrtStp_month_day!F2="","",_acsReportStrtStp_month_day!F2)</f>
+        <v/>
+      </c>
+      <c r="AV7" t="str">
+        <f>IF(_acsReportStrtStp_month_day!G2="","",_acsReportStrtStp_month_day!G2)</f>
+        <v/>
+      </c>
+      <c r="AW7" t="str">
+        <f>IF(_acsReportStrtStp_month_day!H2="","",_acsReportStrtStp_month_day!H2)</f>
+        <v/>
+      </c>
+      <c r="AX7" t="str">
+        <f>IF(_acsReportStrtStp_month_day!I2="","",_acsReportStrtStp_month_day!I2)</f>
+        <v/>
+      </c>
+      <c r="AY7" t="str">
+        <f>IF(_acsReportStrtStp_month_day!J2="","",_acsReportStrtStp_month_day!J2)</f>
+        <v/>
+      </c>
+      <c r="AZ7" t="str">
+        <f>IF(_acsReportStrtStp_month_day!K2="","",_acsReportStrtStp_month_day!K2)</f>
+        <v/>
+      </c>
+      <c r="BA7" t="str">
+        <f>IF(_acsReportStrtStp_month_day!L2="","",_acsReportStrtStp_month_day!L2)</f>
+        <v/>
+      </c>
+      <c r="BB7" t="str">
+        <f>IF(_acsReportStrtStp_month_day!M2="","",_acsReportStrtStp_month_day!M2)</f>
+        <v/>
+      </c>
+      <c r="BC7" t="str">
+        <f>IF(_acsReportStrtStp_month_day!N2="","",_acsReportStrtStp_month_day!N2)</f>
+        <v/>
+      </c>
+      <c r="BD7" t="str">
+        <f>IF(_acsReportStrtStp_month_day!O2="","",_acsReportStrtStp_month_day!O2)</f>
+        <v/>
+      </c>
+      <c r="BE7" t="str">
+        <f>IF(_acsReportStrtStp_month_day!P2="","",_acsReportStrtStp_month_day!P2)</f>
+        <v/>
+      </c>
+      <c r="BF7" t="str">
+        <f>IF(_acsReportStrtStp_month_day!Q2="","",_acsReportStrtStp_month_day!Q2)</f>
+        <v/>
+      </c>
+      <c r="BG7" t="str">
+        <f>IF(_acsReportStrtStp_month_day!R2="","",_acsReportStrtStp_month_day!R2)</f>
+        <v/>
+      </c>
+      <c r="BH7" t="str">
+        <f>IF(_acsReportStrtStp_month_day!S2="","",_acsReportStrtStp_month_day!S2)</f>
+        <v/>
+      </c>
+      <c r="BI7" t="str">
+        <f>IF(_acsReportStrtStp_month_day!T2="","",_acsReportStrtStp_month_day!T2)</f>
+        <v/>
+      </c>
+      <c r="BJ7" t="str">
+        <f>IF(_acsReportStrtStp_month_day!U2="","",_acsReportStrtStp_month_day!U2)</f>
+        <v/>
+      </c>
+      <c r="BK7" t="str">
+        <f>IF(_acsReportStrtStp_month_day!V2="","",_acsReportStrtStp_month_day!V2)</f>
+        <v/>
+      </c>
+      <c r="BL7" t="str">
+        <f>IF(_acsReportStrtStp_month_day!W2="","",_acsReportStrtStp_month_day!W2)</f>
+        <v/>
+      </c>
+      <c r="BM7" t="str">
+        <f>IF(_acsReportStrtStp_month_day!X2="","",_acsReportStrtStp_month_day!X2)</f>
+        <v/>
+      </c>
+      <c r="BN7" t="str">
+        <f>IF(_acsReportStrtStp_month_day!Y2="","",_acsReportStrtStp_month_day!Y2)</f>
+        <v/>
+      </c>
+      <c r="BO7" t="str">
+        <f>IF(_acsReportStrtStp_month_day!Z2="","",_acsReportStrtStp_month_day!Z2)</f>
+        <v/>
+      </c>
+      <c r="BP7" t="str">
+        <f>IF(_acsReportStrtStp_month_day!AA2="","",_acsReportStrtStp_month_day!AA2)</f>
+        <v/>
+      </c>
+      <c r="BQ7" t="str">
+        <f>IF(_acsReportStrtStp_month_day!AB2="","",_acsReportStrtStp_month_day!AB2)</f>
+        <v/>
+      </c>
+      <c r="BR7" t="str">
+        <f>IF(_acsReportStrtStp_month_day!AC2="","",_acsReportStrtStp_month_day!AC2)</f>
+        <v/>
+      </c>
+      <c r="BS7" t="str">
+        <f>IF(_acsReportStrtStp_month_day!AD2="","",_acsReportStrtStp_month_day!AD2)</f>
+        <v/>
+      </c>
+      <c r="BT7" t="str">
+        <f>IF(_acsReportStrtStp_month_day!AE2="","",_acsReportStrtStp_month_day!AE2)</f>
+        <v/>
+      </c>
+      <c r="BU7" t="str">
+        <f>IF(_acsReportStrtStp_month_day!AF2="","",_acsReportStrtStp_month_day!AF2)</f>
+        <v/>
+      </c>
+      <c r="BV7" t="str">
+        <f>IF(_acsReportStrtStp_month_day!AG2="","",_acsReportStrtStp_month_day!AG2)</f>
+        <v/>
+      </c>
+      <c r="BW7" t="str">
+        <f>IF(_acsReportStrtStp_month_day!AH2="","",_acsReportStrtStp_month_day!AH2)</f>
+        <v/>
+      </c>
+      <c r="BX7" t="str">
+        <f>IF(_acsReportRuntime_day_all!A2="","",IF(_acsReportRuntime_day_all!A2&gt;0,1,0))</f>
+        <v/>
+      </c>
+      <c r="BY7" t="str">
+        <f>IF(_acsReportRuntime_day_all!B2="","",IF(_acsReportRuntime_day_all!B2&gt;0,1,0))</f>
+        <v/>
+      </c>
+      <c r="BZ7" t="str">
+        <f>IF(_acsReportRuntime_day_all!C2="","",IF(_acsReportRuntime_day_all!C2&gt;0,1,0))</f>
+        <v/>
+      </c>
+      <c r="CA7" t="str">
+        <f>IF(_acsReportRuntime_day_all!D2="","",IF(_acsReportRuntime_day_all!D2&gt;0,1,0))</f>
+        <v/>
+      </c>
+      <c r="CB7" t="str">
+        <f>IF(_acsReportRuntime_day_all!E2="","",IF(_acsReportRuntime_day_all!E2&gt;0,1,0))</f>
+        <v/>
+      </c>
+      <c r="CC7" t="str">
+        <f>IF(_acsReportRuntime_day_all!F2="","",IF(_acsReportRuntime_day_all!F2&gt;0,1,0))</f>
+        <v/>
+      </c>
+      <c r="CD7" t="str">
+        <f>IF(_acsReportRuntime_day_all!G2="","",IF(_acsReportRuntime_day_all!G2&gt;0,1,0))</f>
+        <v/>
+      </c>
+      <c r="CE7" t="str">
+        <f>IF(_acsReportRuntime_day_all!H2="","",IF(_acsReportRuntime_day_all!H2&gt;0,1,0))</f>
+        <v/>
+      </c>
+      <c r="CF7" t="str">
+        <f>IF(_acsReportRuntime_day_all!I2="","",IF(_acsReportRuntime_day_all!I2&gt;0,1,0))</f>
+        <v/>
+      </c>
+      <c r="CG7" t="str">
+        <f>IF(_acsReportRuntime_day_all!J2="","",IF(_acsReportRuntime_day_all!J2&gt;0,1,0))</f>
+        <v/>
+      </c>
+      <c r="CH7" t="str">
+        <f>IF(_acsReportRuntime_day_all!K2="","",IF(_acsReportRuntime_day_all!K2&gt;0,1,0))</f>
+        <v/>
+      </c>
+      <c r="CI7" t="str">
+        <f>IF(_acsReportRuntime_day_all!L2="","",IF(_acsReportRuntime_day_all!L2&gt;0,1,0))</f>
+        <v/>
+      </c>
+      <c r="CJ7" t="str">
+        <f>IF(_acsReportRuntime_day_all!M2="","",IF(_acsReportRuntime_day_all!M2&gt;0,1,0))</f>
+        <v/>
+      </c>
+      <c r="CK7" t="str">
+        <f>IF(_acsReportRuntime_day_all!N2="","",IF(_acsReportRuntime_day_all!N2&gt;0,1,0))</f>
+        <v/>
+      </c>
+      <c r="CL7" t="str">
+        <f>IF(_acsReportRuntime_day_all!O2="","",IF(_acsReportRuntime_day_all!O2&gt;0,1,0))</f>
+        <v/>
+      </c>
+      <c r="CM7" t="str">
+        <f>IF(_acsReportRuntime_day_all!P2="","",IF(_acsReportRuntime_day_all!P2&gt;0,1,0))</f>
+        <v/>
+      </c>
+      <c r="CN7" t="str">
+        <f>IF(_acsReportRuntime_day_all!Q2="","",IF(_acsReportRuntime_day_all!Q2&gt;0,1,0))</f>
+        <v/>
       </c>
     </row>
     <row r="8" ht="26.25" customHeight="1" spans="1:4">

--- a/excel/finished/能介/压缩空气生产情况汇总表.xlsx
+++ b/excel/finished/能介/压缩空气生产情况汇总表.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28800" windowHeight="12465"/>
+    <workbookView windowWidth="28800" windowHeight="12465" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="ACS_all_day_main" sheetId="1" r:id="rId1"/>
@@ -322,10 +322,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="5">
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="176" formatCode="yyyy&quot;年&quot;m&quot;月&quot;d&quot;日&quot;;@"/>
   </numFmts>
   <fonts count="21">
@@ -346,12 +346,127 @@
     </font>
     <font>
       <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color theme="0"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
@@ -373,121 +488,6 @@
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
   <fills count="34">
     <fill>
@@ -504,187 +504,187 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -745,6 +745,21 @@
     </border>
     <border>
       <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
         <color rgb="FF7F7F7F"/>
       </left>
       <right style="thin">
@@ -760,25 +775,16 @@
     </border>
     <border>
       <left style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color rgb="FF3F3F3F"/>
       </left>
       <right style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color rgb="FF3F3F3F"/>
       </right>
       <top style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color rgb="FF3F3F3F"/>
       </top>
       <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -807,17 +813,11 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -838,10 +838,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="19" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="8" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -850,133 +850,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="17" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="13" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="13" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="27" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="7" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="18" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -1367,8 +1367,8 @@
   <sheetPr/>
   <dimension ref="A1:CN12"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B7" sqref="B7"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C10" sqref="C10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -1376,8 +1376,8 @@
     <col min="2" max="2" width="21.725" customWidth="1"/>
     <col min="3" max="3" width="16.725" customWidth="1"/>
     <col min="4" max="4" width="24.6333333333333" customWidth="1"/>
-    <col min="5" max="5" width="68.45" hidden="1" customWidth="1"/>
-    <col min="6" max="92" width="9" hidden="1" customWidth="1"/>
+    <col min="5" max="5" width="68.45" customWidth="1"/>
+    <col min="6" max="92" width="9" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:50">
@@ -2383,7 +2383,7 @@
   <sheetPr/>
   <dimension ref="A1:AH17"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="B8" sqref="B8"/>
     </sheetView>
   </sheetViews>
@@ -2569,7 +2569,7 @@
   <sheetPr/>
   <dimension ref="A1:Q1"/>
   <sheetViews>
-    <sheetView topLeftCell="K1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B8" sqref="B8"/>
     </sheetView>
   </sheetViews>

--- a/excel/finished/能介/压缩空气生产情况汇总表.xlsx
+++ b/excel/finished/能介/压缩空气生产情况汇总表.xlsx
@@ -4,10 +4,10 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28800" windowHeight="12465" activeTab="2"/>
+    <workbookView windowWidth="28800" windowHeight="12465"/>
   </bookViews>
   <sheets>
-    <sheet name="ACS_all_day_main" sheetId="1" r:id="rId1"/>
+    <sheet name="ACSalldaymain" sheetId="1" r:id="rId1"/>
     <sheet name="_acsReportGas_day_all" sheetId="2" r:id="rId2"/>
     <sheet name="_acsReportStrtStp_day_all" sheetId="3" r:id="rId3"/>
     <sheet name="_acsReportRuntime_day_all" sheetId="4" r:id="rId4"/>
@@ -322,9 +322,9 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="5">
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="176" formatCode="yyyy&quot;年&quot;m&quot;月&quot;d&quot;日&quot;;@"/>
   </numFmts>
@@ -345,48 +345,11 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -407,17 +370,17 @@
     <font>
       <b/>
       <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -435,9 +398,15 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -445,14 +414,7 @@
     <font>
       <u/>
       <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF0000FF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -466,9 +428,24 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
+      <u/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -483,7 +460,30 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -504,73 +504,157 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -582,109 +666,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -739,7 +739,7 @@
       <right/>
       <top/>
       <bottom style="medium">
-        <color theme="4"/>
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -760,6 +760,21 @@
     </border>
     <border>
       <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
         <color rgb="FF7F7F7F"/>
       </left>
       <right style="thin">
@@ -774,26 +789,11 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right/>
       <top/>
       <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -838,10 +838,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="8" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -850,16 +850,16 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -868,115 +868,115 @@
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="7" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="7" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="18" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="27" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -1367,8 +1367,8 @@
   <sheetPr/>
   <dimension ref="A1:CN12"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C10" sqref="C10"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B31" sqref="B31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -2383,7 +2383,7 @@
   <sheetPr/>
   <dimension ref="A1:AH17"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B8" sqref="B8"/>
     </sheetView>
   </sheetViews>

--- a/excel/finished/能介/压缩空气生产情况汇总表.xlsx
+++ b/excel/finished/能介/压缩空气生产情况汇总表.xlsx
@@ -345,6 +345,64 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
       <color theme="3"/>
@@ -354,8 +412,47 @@
     </font>
     <font>
       <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="11"/>
       <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -384,88 +481,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="11"/>
       <color rgb="FFFFFFFF"/>
@@ -473,21 +488,6 @@
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
   <fills count="34">
     <fill>
@@ -504,187 +504,187 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFFFCC"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -738,23 +738,37 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
       <top style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color theme="4"/>
       </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -789,11 +803,17 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -812,36 +832,16 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="50">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="23" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -850,133 +850,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="26" borderId="10" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="27" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="19" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="19" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="31" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -1376,8 +1376,8 @@
     <col min="2" max="2" width="21.725" customWidth="1"/>
     <col min="3" max="3" width="16.725" customWidth="1"/>
     <col min="4" max="4" width="24.6333333333333" customWidth="1"/>
-    <col min="5" max="5" width="68.45" customWidth="1"/>
-    <col min="6" max="92" width="9" customWidth="1"/>
+    <col min="5" max="5" width="68.45" hidden="1" customWidth="1"/>
+    <col min="6" max="92" width="9" hidden="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:50">
@@ -2569,7 +2569,7 @@
   <sheetPr/>
   <dimension ref="A1:Q1"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView topLeftCell="K1" workbookViewId="0">
       <selection activeCell="B8" sqref="B8"/>
     </sheetView>
   </sheetViews>

--- a/excel/finished/能介/压缩空气生产情况汇总表.xlsx
+++ b/excel/finished/能介/压缩空气生产情况汇总表.xlsx
@@ -8,11 +8,11 @@
   </bookViews>
   <sheets>
     <sheet name="ACSalldaymain" sheetId="1" r:id="rId1"/>
-    <sheet name="_acsReportGas_day_all" sheetId="2" r:id="rId2"/>
-    <sheet name="_acsReportStrtStp_day_all" sheetId="3" r:id="rId3"/>
-    <sheet name="_acsReportRuntime_day_all" sheetId="4" r:id="rId4"/>
-    <sheet name="_acsReportStrtStp_month_day" sheetId="5" r:id="rId5"/>
-    <sheet name="_metadata" sheetId="6" r:id="rId6"/>
+    <sheet name="_acsReportGas_day_all" sheetId="2" state="hidden" r:id="rId2"/>
+    <sheet name="_acsReportStrtStp_day_all" sheetId="3" state="hidden" r:id="rId3"/>
+    <sheet name="_acsReportRuntime_day_all" sheetId="4" state="hidden" r:id="rId4"/>
+    <sheet name="_acsReportStrtStp_month_all" sheetId="5" state="hidden" r:id="rId5"/>
+    <sheet name="_metadata" sheetId="6" state="hidden" r:id="rId6"/>
   </sheets>
   <calcPr calcId="144525"/>
 </workbook>
@@ -149,19 +149,19 @@
     <t>原因说明</t>
   </si>
   <si>
-    <t>ES_L1R_ACS1_AirFlow_Q_10m_cur</t>
-  </si>
-  <si>
-    <t>ES_L1R_ACS2_AirFlow_Q_10m_cur</t>
-  </si>
-  <si>
-    <t>ES_L1R_ACS3_PureAirFlow_Q_10m_cur</t>
-  </si>
-  <si>
-    <t>ES_L1R_ACS3_AirFlow_Q_10m_cur</t>
-  </si>
-  <si>
-    <t>ES_L1R_ACS4_AirFlow_Q_10m_cur</t>
+    <t>ES_L1R_ACS1_AirFlow_Q_1d_sum</t>
+  </si>
+  <si>
+    <t>ES_L1R_ACS2_AirFlow_Q_1d_sum</t>
+  </si>
+  <si>
+    <t>ES_L1R_ACS3_PureAirFlow_Q_1d_sum</t>
+  </si>
+  <si>
+    <t>ES_L1R_ACS3_AirFlow_Q_1d_sum</t>
+  </si>
+  <si>
+    <t>ES_L1R_ACS4_AirFlow_Q_1d_sum</t>
   </si>
   <si>
     <t>ES_L2C_ACS1_ACM1_Strt_Times_1day_sum</t>
@@ -323,12 +323,12 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="5">
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="176" formatCode="yyyy&quot;年&quot;m&quot;月&quot;d&quot;日&quot;;@"/>
   </numFmts>
-  <fonts count="21">
+  <fonts count="24">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -338,7 +338,22 @@
     </font>
     <font>
       <b/>
-      <sz val="11"/>
+      <sz val="16"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="16"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
       <color theme="1"/>
       <name val="宋体"/>
       <charset val="134"/>
@@ -346,16 +361,9 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="0"/>
+      <color theme="1"/>
       <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -366,8 +374,16 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -389,7 +405,52 @@
     </font>
     <font>
       <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -403,11 +464,34 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -426,68 +510,6 @@
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
   <fills count="34">
     <fill>
@@ -504,187 +526,187 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -735,44 +757,6 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
         <color rgb="FF3F3F3F"/>
       </left>
@@ -784,6 +768,15 @@
       </top>
       <bottom style="thin">
         <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -832,16 +825,45 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="50">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="23" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="8" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -850,140 +872,140 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="26" borderId="10" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="19" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="19" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="31" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="5" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="17" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="49" applyFont="1" applyFill="1" applyAlignment="1">
@@ -992,28 +1014,32 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -1368,247 +1394,249 @@
   <dimension ref="A1:CN12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B31" sqref="B31"/>
+      <selection activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="20.25"/>
   <cols>
-    <col min="2" max="2" width="21.725" customWidth="1"/>
-    <col min="3" max="3" width="16.725" customWidth="1"/>
-    <col min="4" max="4" width="24.6333333333333" customWidth="1"/>
-    <col min="5" max="5" width="68.45" hidden="1" customWidth="1"/>
-    <col min="6" max="92" width="9" hidden="1" customWidth="1"/>
+    <col min="1" max="1" width="19.6333333333333" style="4" customWidth="1"/>
+    <col min="2" max="2" width="21.725" style="4" customWidth="1"/>
+    <col min="3" max="3" width="16.725" style="4" customWidth="1"/>
+    <col min="4" max="4" width="24.6333333333333" style="4" customWidth="1"/>
+    <col min="5" max="5" width="68.45" style="4" hidden="1" customWidth="1"/>
+    <col min="6" max="92" width="9" style="4" hidden="1" customWidth="1"/>
+    <col min="93" max="16384" width="9" style="4"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:50">
-      <c r="A1" s="4" t="s">
+      <c r="A1" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="4"/>
-      <c r="C1" s="4"/>
-      <c r="D1" s="4"/>
-      <c r="E1" s="5"/>
-      <c r="F1" s="5"/>
-      <c r="G1" s="5"/>
-      <c r="H1" s="5"/>
-      <c r="I1" s="5"/>
-      <c r="J1" s="5"/>
-      <c r="N1" s="5"/>
-      <c r="O1" s="5"/>
-      <c r="P1" s="5"/>
-      <c r="AP1" s="5"/>
-      <c r="AQ1" s="5"/>
-      <c r="AR1" s="5"/>
-      <c r="AV1" s="5"/>
-      <c r="AW1" s="5"/>
-      <c r="AX1" s="5"/>
+      <c r="B1" s="5"/>
+      <c r="C1" s="5"/>
+      <c r="D1" s="5"/>
+      <c r="E1" s="6"/>
+      <c r="F1" s="6"/>
+      <c r="G1" s="6"/>
+      <c r="H1" s="6"/>
+      <c r="I1" s="6"/>
+      <c r="J1" s="6"/>
+      <c r="N1" s="6"/>
+      <c r="O1" s="6"/>
+      <c r="P1" s="6"/>
+      <c r="AP1" s="6"/>
+      <c r="AQ1" s="6"/>
+      <c r="AR1" s="6"/>
+      <c r="AV1" s="6"/>
+      <c r="AW1" s="6"/>
+      <c r="AX1" s="6"/>
     </row>
     <row r="2" spans="1:50">
-      <c r="A2" s="4"/>
-      <c r="B2" s="4"/>
-      <c r="C2" s="4"/>
-      <c r="D2" s="4"/>
-      <c r="E2" s="5"/>
-      <c r="F2" s="5"/>
-      <c r="G2" s="5"/>
-      <c r="H2" s="5"/>
-      <c r="I2" s="5"/>
-      <c r="J2" s="5"/>
-      <c r="N2" s="5"/>
-      <c r="O2" s="5"/>
-      <c r="P2" s="5"/>
-      <c r="AP2" s="5"/>
-      <c r="AQ2" s="5"/>
-      <c r="AR2" s="5"/>
-      <c r="AV2" s="5"/>
-      <c r="AW2" s="5"/>
-      <c r="AX2" s="5"/>
+      <c r="A2" s="5"/>
+      <c r="B2" s="5"/>
+      <c r="C2" s="5"/>
+      <c r="D2" s="5"/>
+      <c r="E2" s="6"/>
+      <c r="F2" s="6"/>
+      <c r="G2" s="6"/>
+      <c r="H2" s="6"/>
+      <c r="I2" s="6"/>
+      <c r="J2" s="6"/>
+      <c r="N2" s="6"/>
+      <c r="O2" s="6"/>
+      <c r="P2" s="6"/>
+      <c r="AP2" s="6"/>
+      <c r="AQ2" s="6"/>
+      <c r="AR2" s="6"/>
+      <c r="AV2" s="6"/>
+      <c r="AW2" s="6"/>
+      <c r="AX2" s="6"/>
     </row>
     <row r="3" spans="1:50">
-      <c r="A3" s="4"/>
-      <c r="B3" s="4"/>
-      <c r="C3" s="4"/>
-      <c r="D3" s="4"/>
-      <c r="E3" s="5"/>
-      <c r="F3" s="5"/>
-      <c r="G3" s="5"/>
-      <c r="H3" s="5"/>
-      <c r="I3" s="5"/>
-      <c r="J3" s="5"/>
-      <c r="N3" s="5"/>
-      <c r="O3" s="5"/>
-      <c r="P3" s="5"/>
-      <c r="AP3" s="5"/>
-      <c r="AQ3" s="5"/>
-      <c r="AR3" s="5"/>
-      <c r="AV3" s="5"/>
-      <c r="AW3" s="5"/>
-      <c r="AX3" s="5"/>
+      <c r="A3" s="5"/>
+      <c r="B3" s="5"/>
+      <c r="C3" s="5"/>
+      <c r="D3" s="5"/>
+      <c r="E3" s="6"/>
+      <c r="F3" s="6"/>
+      <c r="G3" s="6"/>
+      <c r="H3" s="6"/>
+      <c r="I3" s="6"/>
+      <c r="J3" s="6"/>
+      <c r="N3" s="6"/>
+      <c r="O3" s="6"/>
+      <c r="P3" s="6"/>
+      <c r="AP3" s="6"/>
+      <c r="AQ3" s="6"/>
+      <c r="AR3" s="6"/>
+      <c r="AV3" s="6"/>
+      <c r="AW3" s="6"/>
+      <c r="AX3" s="6"/>
     </row>
     <row r="4" ht="45" customHeight="1" spans="1:5">
-      <c r="A4" t="s">
+      <c r="A4" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="B4" s="6" t="str">
+      <c r="B4" s="7" t="str">
         <f>IF(_metadata!B2="","",_metadata!B2)</f>
         <v/>
       </c>
-      <c r="C4" s="6"/>
-      <c r="D4" s="6"/>
-      <c r="E4" s="7" t="s">
+      <c r="C4" s="7"/>
+      <c r="D4" s="7"/>
+      <c r="E4" s="8" t="s">
         <v>2</v>
       </c>
     </row>
     <row r="5" ht="38.25" customHeight="1" spans="1:92">
-      <c r="A5" t="s">
+      <c r="A5" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="B5" s="8" t="str">
-        <f>IF(_acsReportGas_day_all!A2="","",SUM(_acsReportGas_day_all!A2:E2))</f>
-        <v/>
-      </c>
-      <c r="C5" s="9"/>
-      <c r="D5" s="10"/>
-      <c r="E5" s="7" t="s">
+      <c r="B5" s="9" t="str">
+        <f>IF(_acsReportGas_day_all!A2="","",SUM(_acsReportGas_day_all!A2:E2)/3600)</f>
+        <v/>
+      </c>
+      <c r="C5" s="10"/>
+      <c r="D5" s="11"/>
+      <c r="E5" s="8" t="s">
         <v>4</v>
       </c>
-      <c r="H5" s="4" t="s">
+      <c r="H5" s="12" t="s">
         <v>5</v>
       </c>
-      <c r="I5" s="4"/>
-      <c r="J5" s="4"/>
-      <c r="K5" s="4" t="s">
+      <c r="I5" s="12"/>
+      <c r="J5" s="12"/>
+      <c r="K5" s="12" t="s">
         <v>6</v>
       </c>
-      <c r="L5" s="4"/>
-      <c r="M5" s="4"/>
-      <c r="N5" s="4" t="s">
+      <c r="L5" s="12"/>
+      <c r="M5" s="12"/>
+      <c r="N5" s="12" t="s">
         <v>7</v>
       </c>
-      <c r="O5" s="4"/>
-      <c r="P5" s="4"/>
-      <c r="Q5" s="4"/>
-      <c r="R5" s="4"/>
-      <c r="S5" s="4" t="s">
+      <c r="O5" s="12"/>
+      <c r="P5" s="12"/>
+      <c r="Q5" s="12"/>
+      <c r="R5" s="12"/>
+      <c r="S5" s="12" t="s">
         <v>8</v>
       </c>
-      <c r="T5" s="4"/>
-      <c r="U5" s="4"/>
-      <c r="V5" s="4"/>
-      <c r="W5" s="4"/>
-      <c r="X5" s="4" t="s">
+      <c r="T5" s="12"/>
+      <c r="U5" s="12"/>
+      <c r="V5" s="12"/>
+      <c r="W5" s="12"/>
+      <c r="X5" s="12" t="s">
         <v>9</v>
       </c>
-      <c r="Y5" s="4"/>
-      <c r="Z5" s="4"/>
-      <c r="AA5" s="4"/>
-      <c r="AB5" s="4" t="s">
+      <c r="Y5" s="12"/>
+      <c r="Z5" s="12"/>
+      <c r="AA5" s="12"/>
+      <c r="AB5" s="12" t="s">
         <v>10</v>
       </c>
-      <c r="AC5" s="4"/>
-      <c r="AD5" s="4"/>
-      <c r="AE5" s="4"/>
-      <c r="AF5" s="4" t="s">
+      <c r="AC5" s="12"/>
+      <c r="AD5" s="12"/>
+      <c r="AE5" s="12"/>
+      <c r="AF5" s="12" t="s">
         <v>11</v>
       </c>
-      <c r="AG5" s="4"/>
-      <c r="AH5" s="4"/>
-      <c r="AI5" s="4"/>
-      <c r="AJ5" s="4"/>
-      <c r="AK5" s="4" t="s">
+      <c r="AG5" s="12"/>
+      <c r="AH5" s="12"/>
+      <c r="AI5" s="12"/>
+      <c r="AJ5" s="12"/>
+      <c r="AK5" s="12" t="s">
         <v>12</v>
       </c>
-      <c r="AL5" s="4"/>
-      <c r="AM5" s="4"/>
-      <c r="AN5" s="4"/>
-      <c r="AO5" s="4"/>
-      <c r="AP5" s="4" t="s">
+      <c r="AL5" s="12"/>
+      <c r="AM5" s="12"/>
+      <c r="AN5" s="12"/>
+      <c r="AO5" s="12"/>
+      <c r="AP5" s="12" t="s">
         <v>13</v>
       </c>
-      <c r="AQ5" s="4"/>
-      <c r="AR5" s="4"/>
-      <c r="AS5" s="4" t="s">
+      <c r="AQ5" s="12"/>
+      <c r="AR5" s="12"/>
+      <c r="AS5" s="12" t="s">
         <v>14</v>
       </c>
-      <c r="AT5" s="4"/>
-      <c r="AU5" s="4"/>
-      <c r="AV5" s="4" t="s">
+      <c r="AT5" s="12"/>
+      <c r="AU5" s="12"/>
+      <c r="AV5" s="12" t="s">
         <v>15</v>
       </c>
-      <c r="AW5" s="4"/>
-      <c r="AX5" s="4"/>
-      <c r="AY5" s="4"/>
-      <c r="AZ5" s="4"/>
-      <c r="BA5" s="4" t="s">
+      <c r="AW5" s="12"/>
+      <c r="AX5" s="12"/>
+      <c r="AY5" s="12"/>
+      <c r="AZ5" s="12"/>
+      <c r="BA5" s="12" t="s">
         <v>16</v>
       </c>
-      <c r="BB5" s="4"/>
-      <c r="BC5" s="4"/>
-      <c r="BD5" s="4"/>
-      <c r="BE5" s="4"/>
-      <c r="BF5" s="4" t="s">
+      <c r="BB5" s="12"/>
+      <c r="BC5" s="12"/>
+      <c r="BD5" s="12"/>
+      <c r="BE5" s="12"/>
+      <c r="BF5" s="12" t="s">
         <v>17</v>
       </c>
-      <c r="BG5" s="4"/>
-      <c r="BH5" s="4"/>
-      <c r="BI5" s="4"/>
-      <c r="BJ5" s="4" t="s">
+      <c r="BG5" s="12"/>
+      <c r="BH5" s="12"/>
+      <c r="BI5" s="12"/>
+      <c r="BJ5" s="12" t="s">
         <v>18</v>
       </c>
-      <c r="BK5" s="4"/>
-      <c r="BL5" s="4"/>
-      <c r="BM5" s="4"/>
-      <c r="BN5" s="4" t="s">
+      <c r="BK5" s="12"/>
+      <c r="BL5" s="12"/>
+      <c r="BM5" s="12"/>
+      <c r="BN5" s="12" t="s">
         <v>19</v>
       </c>
-      <c r="BO5" s="4"/>
-      <c r="BP5" s="4"/>
-      <c r="BQ5" s="4"/>
-      <c r="BR5" s="4"/>
-      <c r="BS5" s="4" t="s">
+      <c r="BO5" s="12"/>
+      <c r="BP5" s="12"/>
+      <c r="BQ5" s="12"/>
+      <c r="BR5" s="12"/>
+      <c r="BS5" s="12" t="s">
         <v>20</v>
       </c>
-      <c r="BT5" s="4"/>
-      <c r="BU5" s="4"/>
-      <c r="BV5" s="4"/>
-      <c r="BW5" s="4"/>
-      <c r="BX5" s="4" t="s">
+      <c r="BT5" s="12"/>
+      <c r="BU5" s="12"/>
+      <c r="BV5" s="12"/>
+      <c r="BW5" s="12"/>
+      <c r="BX5" s="12" t="s">
         <v>21</v>
       </c>
-      <c r="BY5" s="4"/>
-      <c r="BZ5" s="4"/>
-      <c r="CA5" s="4" t="s">
+      <c r="BY5" s="12"/>
+      <c r="BZ5" s="12"/>
+      <c r="CA5" s="12" t="s">
         <v>22</v>
       </c>
-      <c r="CB5" s="4"/>
-      <c r="CC5" s="4"/>
-      <c r="CD5" s="4"/>
-      <c r="CE5" s="4"/>
-      <c r="CF5" s="4" t="s">
+      <c r="CB5" s="12"/>
+      <c r="CC5" s="12"/>
+      <c r="CD5" s="12"/>
+      <c r="CE5" s="12"/>
+      <c r="CF5" s="12" t="s">
         <v>23</v>
       </c>
-      <c r="CG5" s="4"/>
-      <c r="CH5" s="4"/>
-      <c r="CI5" s="4"/>
-      <c r="CJ5" s="4" t="s">
+      <c r="CG5" s="12"/>
+      <c r="CH5" s="12"/>
+      <c r="CI5" s="12"/>
+      <c r="CJ5" s="12" t="s">
         <v>24</v>
       </c>
-      <c r="CK5" s="4"/>
-      <c r="CL5" s="4"/>
-      <c r="CM5" s="4"/>
-      <c r="CN5" s="4"/>
+      <c r="CK5" s="12"/>
+      <c r="CL5" s="12"/>
+      <c r="CM5" s="12"/>
+      <c r="CN5" s="12"/>
     </row>
     <row r="6" s="3" customFormat="1" ht="29.25" customHeight="1" spans="1:92">
       <c r="A6" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="B6" t="s">
+      <c r="B6" s="4" t="s">
         <v>26</v>
       </c>
-      <c r="C6" t="s">
+      <c r="C6" s="4" t="s">
         <v>27</v>
       </c>
-      <c r="D6" t="s">
+      <c r="D6" s="4" t="s">
         <v>28</v>
       </c>
       <c r="E6" s="3" t="s">
@@ -1870,441 +1898,441 @@
         <v>34</v>
       </c>
     </row>
-    <row r="7" ht="21.75" customHeight="1" spans="1:92">
-      <c r="A7" t="s">
+    <row r="7" ht="32" customHeight="1" spans="1:92">
+      <c r="A7" s="4" t="s">
         <v>35</v>
       </c>
-      <c r="B7">
+      <c r="B7" s="4">
         <f>SUM(BX7:BZ7)</f>
         <v>0</v>
       </c>
-      <c r="C7">
+      <c r="C7" s="4">
         <f>SUM(H7:M7)</f>
         <v>0</v>
       </c>
-      <c r="D7">
+      <c r="D7" s="4">
         <f>SUM(AP7:AU7)</f>
         <v>0</v>
       </c>
-      <c r="E7" t="s">
+      <c r="E7" s="4" t="s">
         <v>36</v>
       </c>
-      <c r="H7" t="str">
+      <c r="H7" s="4" t="str">
         <f>IF(_acsReportStrtStp_day_all!A2="","",_acsReportStrtStp_day_all!A2)</f>
         <v/>
       </c>
-      <c r="I7" t="str">
+      <c r="I7" s="4" t="str">
         <f>IF(_acsReportStrtStp_day_all!B2="","",_acsReportStrtStp_day_all!B2)</f>
         <v/>
       </c>
-      <c r="J7" t="str">
+      <c r="J7" s="4" t="str">
         <f>IF(_acsReportStrtStp_day_all!C2="","",_acsReportStrtStp_day_all!C2)</f>
         <v/>
       </c>
-      <c r="K7" t="str">
+      <c r="K7" s="4" t="str">
         <f>IF(_acsReportStrtStp_day_all!D2="","",_acsReportStrtStp_day_all!D2)</f>
         <v/>
       </c>
-      <c r="L7" t="str">
+      <c r="L7" s="4" t="str">
         <f>IF(_acsReportStrtStp_day_all!E2="","",_acsReportStrtStp_day_all!E2)</f>
         <v/>
       </c>
-      <c r="M7" t="str">
+      <c r="M7" s="4" t="str">
         <f>IF(_acsReportStrtStp_day_all!F2="","",_acsReportStrtStp_day_all!F2)</f>
         <v/>
       </c>
-      <c r="N7" t="str">
+      <c r="N7" s="4" t="str">
         <f>IF(_acsReportStrtStp_day_all!G2="","",_acsReportStrtStp_day_all!G2)</f>
         <v/>
       </c>
-      <c r="O7" t="str">
+      <c r="O7" s="4" t="str">
         <f>IF(_acsReportStrtStp_day_all!H2="","",_acsReportStrtStp_day_all!H2)</f>
         <v/>
       </c>
-      <c r="P7" t="str">
+      <c r="P7" s="4" t="str">
         <f>IF(_acsReportStrtStp_day_all!I2="","",_acsReportStrtStp_day_all!I2)</f>
         <v/>
       </c>
-      <c r="Q7" t="str">
+      <c r="Q7" s="4" t="str">
         <f>IF(_acsReportStrtStp_day_all!J2="","",_acsReportStrtStp_day_all!J2)</f>
         <v/>
       </c>
-      <c r="R7" t="str">
+      <c r="R7" s="4" t="str">
         <f>IF(_acsReportStrtStp_day_all!K2="","",_acsReportStrtStp_day_all!K2)</f>
         <v/>
       </c>
-      <c r="S7" t="str">
+      <c r="S7" s="4" t="str">
         <f>IF(_acsReportStrtStp_day_all!L2="","",_acsReportStrtStp_day_all!L2)</f>
         <v/>
       </c>
-      <c r="T7" t="str">
+      <c r="T7" s="4" t="str">
         <f>IF(_acsReportStrtStp_day_all!M2="","",_acsReportStrtStp_day_all!M2)</f>
         <v/>
       </c>
-      <c r="U7" t="str">
+      <c r="U7" s="4" t="str">
         <f>IF(_acsReportStrtStp_day_all!N2="","",_acsReportStrtStp_day_all!N2)</f>
         <v/>
       </c>
-      <c r="V7" t="str">
+      <c r="V7" s="4" t="str">
         <f>IF(_acsReportStrtStp_day_all!O2="","",_acsReportStrtStp_day_all!O2)</f>
         <v/>
       </c>
-      <c r="W7" t="str">
+      <c r="W7" s="4" t="str">
         <f>IF(_acsReportStrtStp_day_all!P2="","",_acsReportStrtStp_day_all!P2)</f>
         <v/>
       </c>
-      <c r="X7" t="str">
+      <c r="X7" s="4" t="str">
         <f>IF(_acsReportStrtStp_day_all!Q2="","",_acsReportStrtStp_day_all!Q2)</f>
         <v/>
       </c>
-      <c r="Y7" t="str">
+      <c r="Y7" s="4" t="str">
         <f>IF(_acsReportStrtStp_day_all!R2="","",_acsReportStrtStp_day_all!R2)</f>
         <v/>
       </c>
-      <c r="Z7" t="str">
+      <c r="Z7" s="4" t="str">
         <f>IF(_acsReportStrtStp_day_all!S2="","",_acsReportStrtStp_day_all!S2)</f>
         <v/>
       </c>
-      <c r="AA7" t="str">
+      <c r="AA7" s="4" t="str">
         <f>IF(_acsReportStrtStp_day_all!T2="","",_acsReportStrtStp_day_all!T2)</f>
         <v/>
       </c>
-      <c r="AB7" t="str">
+      <c r="AB7" s="4" t="str">
         <f>IF(_acsReportStrtStp_day_all!U2="","",_acsReportStrtStp_day_all!U2)</f>
         <v/>
       </c>
-      <c r="AC7" t="str">
+      <c r="AC7" s="4" t="str">
         <f>IF(_acsReportStrtStp_day_all!V2="","",_acsReportStrtStp_day_all!V2)</f>
         <v/>
       </c>
-      <c r="AD7" t="str">
+      <c r="AD7" s="4" t="str">
         <f>IF(_acsReportStrtStp_day_all!W2="","",_acsReportStrtStp_day_all!W2)</f>
         <v/>
       </c>
-      <c r="AE7" t="str">
+      <c r="AE7" s="4" t="str">
         <f>IF(_acsReportStrtStp_day_all!X2="","",_acsReportStrtStp_day_all!X2)</f>
         <v/>
       </c>
-      <c r="AF7" t="str">
+      <c r="AF7" s="4" t="str">
         <f>IF(_acsReportStrtStp_day_all!Y2="","",_acsReportStrtStp_day_all!Y2)</f>
         <v/>
       </c>
-      <c r="AG7" t="str">
+      <c r="AG7" s="4" t="str">
         <f>IF(_acsReportStrtStp_day_all!Z2="","",_acsReportStrtStp_day_all!Z2)</f>
         <v/>
       </c>
-      <c r="AH7" t="str">
+      <c r="AH7" s="4" t="str">
         <f>IF(_acsReportStrtStp_day_all!AA2="","",_acsReportStrtStp_day_all!AA2)</f>
         <v/>
       </c>
-      <c r="AI7" t="str">
+      <c r="AI7" s="4" t="str">
         <f>IF(_acsReportStrtStp_day_all!AB2="","",_acsReportStrtStp_day_all!AB2)</f>
         <v/>
       </c>
-      <c r="AJ7" t="str">
+      <c r="AJ7" s="4" t="str">
         <f>IF(_acsReportStrtStp_day_all!AC2="","",_acsReportStrtStp_day_all!AC2)</f>
         <v/>
       </c>
-      <c r="AK7" t="str">
+      <c r="AK7" s="4" t="str">
         <f>IF(_acsReportStrtStp_day_all!AD2="","",_acsReportStrtStp_day_all!AD2)</f>
         <v/>
       </c>
-      <c r="AL7" t="str">
+      <c r="AL7" s="4" t="str">
         <f>IF(_acsReportStrtStp_day_all!AE2="","",_acsReportStrtStp_day_all!AE2)</f>
         <v/>
       </c>
-      <c r="AM7" t="str">
+      <c r="AM7" s="4" t="str">
         <f>IF(_acsReportStrtStp_day_all!AF2="","",_acsReportStrtStp_day_all!AF2)</f>
         <v/>
       </c>
-      <c r="AN7" t="str">
+      <c r="AN7" s="4" t="str">
         <f>IF(_acsReportStrtStp_day_all!AG2="","",_acsReportStrtStp_day_all!AG2)</f>
         <v/>
       </c>
-      <c r="AO7" t="str">
+      <c r="AO7" s="4" t="str">
         <f>IF(_acsReportStrtStp_day_all!AH2="","",_acsReportStrtStp_day_all!AH2)</f>
         <v/>
       </c>
-      <c r="AP7" t="str">
-        <f>IF(_acsReportStrtStp_month_day!A2="","",_acsReportStrtStp_month_day!A2)</f>
-        <v/>
-      </c>
-      <c r="AQ7" t="str">
-        <f>IF(_acsReportStrtStp_month_day!B2="","",_acsReportStrtStp_month_day!B2)</f>
-        <v/>
-      </c>
-      <c r="AR7" t="str">
-        <f>IF(_acsReportStrtStp_month_day!C2="","",_acsReportStrtStp_month_day!C2)</f>
-        <v/>
-      </c>
-      <c r="AS7" t="str">
-        <f>IF(_acsReportStrtStp_month_day!D2="","",_acsReportStrtStp_month_day!D2)</f>
-        <v/>
-      </c>
-      <c r="AT7" t="str">
-        <f>IF(_acsReportStrtStp_month_day!E2="","",_acsReportStrtStp_month_day!E2)</f>
-        <v/>
-      </c>
-      <c r="AU7" t="str">
-        <f>IF(_acsReportStrtStp_month_day!F2="","",_acsReportStrtStp_month_day!F2)</f>
-        <v/>
-      </c>
-      <c r="AV7" t="str">
-        <f>IF(_acsReportStrtStp_month_day!G2="","",_acsReportStrtStp_month_day!G2)</f>
-        <v/>
-      </c>
-      <c r="AW7" t="str">
-        <f>IF(_acsReportStrtStp_month_day!H2="","",_acsReportStrtStp_month_day!H2)</f>
-        <v/>
-      </c>
-      <c r="AX7" t="str">
-        <f>IF(_acsReportStrtStp_month_day!I2="","",_acsReportStrtStp_month_day!I2)</f>
-        <v/>
-      </c>
-      <c r="AY7" t="str">
-        <f>IF(_acsReportStrtStp_month_day!J2="","",_acsReportStrtStp_month_day!J2)</f>
-        <v/>
-      </c>
-      <c r="AZ7" t="str">
-        <f>IF(_acsReportStrtStp_month_day!K2="","",_acsReportStrtStp_month_day!K2)</f>
-        <v/>
-      </c>
-      <c r="BA7" t="str">
-        <f>IF(_acsReportStrtStp_month_day!L2="","",_acsReportStrtStp_month_day!L2)</f>
-        <v/>
-      </c>
-      <c r="BB7" t="str">
-        <f>IF(_acsReportStrtStp_month_day!M2="","",_acsReportStrtStp_month_day!M2)</f>
-        <v/>
-      </c>
-      <c r="BC7" t="str">
-        <f>IF(_acsReportStrtStp_month_day!N2="","",_acsReportStrtStp_month_day!N2)</f>
-        <v/>
-      </c>
-      <c r="BD7" t="str">
-        <f>IF(_acsReportStrtStp_month_day!O2="","",_acsReportStrtStp_month_day!O2)</f>
-        <v/>
-      </c>
-      <c r="BE7" t="str">
-        <f>IF(_acsReportStrtStp_month_day!P2="","",_acsReportStrtStp_month_day!P2)</f>
-        <v/>
-      </c>
-      <c r="BF7" t="str">
-        <f>IF(_acsReportStrtStp_month_day!Q2="","",_acsReportStrtStp_month_day!Q2)</f>
-        <v/>
-      </c>
-      <c r="BG7" t="str">
-        <f>IF(_acsReportStrtStp_month_day!R2="","",_acsReportStrtStp_month_day!R2)</f>
-        <v/>
-      </c>
-      <c r="BH7" t="str">
-        <f>IF(_acsReportStrtStp_month_day!S2="","",_acsReportStrtStp_month_day!S2)</f>
-        <v/>
-      </c>
-      <c r="BI7" t="str">
-        <f>IF(_acsReportStrtStp_month_day!T2="","",_acsReportStrtStp_month_day!T2)</f>
-        <v/>
-      </c>
-      <c r="BJ7" t="str">
-        <f>IF(_acsReportStrtStp_month_day!U2="","",_acsReportStrtStp_month_day!U2)</f>
-        <v/>
-      </c>
-      <c r="BK7" t="str">
-        <f>IF(_acsReportStrtStp_month_day!V2="","",_acsReportStrtStp_month_day!V2)</f>
-        <v/>
-      </c>
-      <c r="BL7" t="str">
-        <f>IF(_acsReportStrtStp_month_day!W2="","",_acsReportStrtStp_month_day!W2)</f>
-        <v/>
-      </c>
-      <c r="BM7" t="str">
-        <f>IF(_acsReportStrtStp_month_day!X2="","",_acsReportStrtStp_month_day!X2)</f>
-        <v/>
-      </c>
-      <c r="BN7" t="str">
-        <f>IF(_acsReportStrtStp_month_day!Y2="","",_acsReportStrtStp_month_day!Y2)</f>
-        <v/>
-      </c>
-      <c r="BO7" t="str">
-        <f>IF(_acsReportStrtStp_month_day!Z2="","",_acsReportStrtStp_month_day!Z2)</f>
-        <v/>
-      </c>
-      <c r="BP7" t="str">
-        <f>IF(_acsReportStrtStp_month_day!AA2="","",_acsReportStrtStp_month_day!AA2)</f>
-        <v/>
-      </c>
-      <c r="BQ7" t="str">
-        <f>IF(_acsReportStrtStp_month_day!AB2="","",_acsReportStrtStp_month_day!AB2)</f>
-        <v/>
-      </c>
-      <c r="BR7" t="str">
-        <f>IF(_acsReportStrtStp_month_day!AC2="","",_acsReportStrtStp_month_day!AC2)</f>
-        <v/>
-      </c>
-      <c r="BS7" t="str">
-        <f>IF(_acsReportStrtStp_month_day!AD2="","",_acsReportStrtStp_month_day!AD2)</f>
-        <v/>
-      </c>
-      <c r="BT7" t="str">
-        <f>IF(_acsReportStrtStp_month_day!AE2="","",_acsReportStrtStp_month_day!AE2)</f>
-        <v/>
-      </c>
-      <c r="BU7" t="str">
-        <f>IF(_acsReportStrtStp_month_day!AF2="","",_acsReportStrtStp_month_day!AF2)</f>
-        <v/>
-      </c>
-      <c r="BV7" t="str">
-        <f>IF(_acsReportStrtStp_month_day!AG2="","",_acsReportStrtStp_month_day!AG2)</f>
-        <v/>
-      </c>
-      <c r="BW7" t="str">
-        <f>IF(_acsReportStrtStp_month_day!AH2="","",_acsReportStrtStp_month_day!AH2)</f>
-        <v/>
-      </c>
-      <c r="BX7" t="str">
+      <c r="AP7" s="4" t="str">
+        <f>IF(_acsReportStrtStp_month_all!A2="","",_acsReportStrtStp_month_all!A2)</f>
+        <v/>
+      </c>
+      <c r="AQ7" s="4" t="str">
+        <f>IF(_acsReportStrtStp_month_all!B2="","",_acsReportStrtStp_month_all!B2)</f>
+        <v/>
+      </c>
+      <c r="AR7" s="4" t="str">
+        <f>IF(_acsReportStrtStp_month_all!C2="","",_acsReportStrtStp_month_all!C2)</f>
+        <v/>
+      </c>
+      <c r="AS7" s="4" t="str">
+        <f>IF(_acsReportStrtStp_month_all!D2="","",_acsReportStrtStp_month_all!D2)</f>
+        <v/>
+      </c>
+      <c r="AT7" s="4" t="str">
+        <f>IF(_acsReportStrtStp_month_all!E2="","",_acsReportStrtStp_month_all!E2)</f>
+        <v/>
+      </c>
+      <c r="AU7" s="4" t="str">
+        <f>IF(_acsReportStrtStp_month_all!F2="","",_acsReportStrtStp_month_all!F2)</f>
+        <v/>
+      </c>
+      <c r="AV7" s="4" t="str">
+        <f>IF(_acsReportStrtStp_month_all!G2="","",_acsReportStrtStp_month_all!G2)</f>
+        <v/>
+      </c>
+      <c r="AW7" s="4" t="str">
+        <f>IF(_acsReportStrtStp_month_all!H2="","",_acsReportStrtStp_month_all!H2)</f>
+        <v/>
+      </c>
+      <c r="AX7" s="4" t="str">
+        <f>IF(_acsReportStrtStp_month_all!I2="","",_acsReportStrtStp_month_all!I2)</f>
+        <v/>
+      </c>
+      <c r="AY7" s="4" t="str">
+        <f>IF(_acsReportStrtStp_month_all!J2="","",_acsReportStrtStp_month_all!J2)</f>
+        <v/>
+      </c>
+      <c r="AZ7" s="4" t="str">
+        <f>IF(_acsReportStrtStp_month_all!K2="","",_acsReportStrtStp_month_all!K2)</f>
+        <v/>
+      </c>
+      <c r="BA7" s="4" t="str">
+        <f>IF(_acsReportStrtStp_month_all!L2="","",_acsReportStrtStp_month_all!L2)</f>
+        <v/>
+      </c>
+      <c r="BB7" s="4" t="str">
+        <f>IF(_acsReportStrtStp_month_all!M2="","",_acsReportStrtStp_month_all!M2)</f>
+        <v/>
+      </c>
+      <c r="BC7" s="4" t="str">
+        <f>IF(_acsReportStrtStp_month_all!N2="","",_acsReportStrtStp_month_all!N2)</f>
+        <v/>
+      </c>
+      <c r="BD7" s="4" t="str">
+        <f>IF(_acsReportStrtStp_month_all!O2="","",_acsReportStrtStp_month_all!O2)</f>
+        <v/>
+      </c>
+      <c r="BE7" s="4" t="str">
+        <f>IF(_acsReportStrtStp_month_all!P2="","",_acsReportStrtStp_month_all!P2)</f>
+        <v/>
+      </c>
+      <c r="BF7" s="4" t="str">
+        <f>IF(_acsReportStrtStp_month_all!Q2="","",_acsReportStrtStp_month_all!Q2)</f>
+        <v/>
+      </c>
+      <c r="BG7" s="4" t="str">
+        <f>IF(_acsReportStrtStp_month_all!R2="","",_acsReportStrtStp_month_all!R2)</f>
+        <v/>
+      </c>
+      <c r="BH7" s="4" t="str">
+        <f>IF(_acsReportStrtStp_month_all!S2="","",_acsReportStrtStp_month_all!S2)</f>
+        <v/>
+      </c>
+      <c r="BI7" s="4" t="str">
+        <f>IF(_acsReportStrtStp_month_all!T2="","",_acsReportStrtStp_month_all!T2)</f>
+        <v/>
+      </c>
+      <c r="BJ7" s="4" t="str">
+        <f>IF(_acsReportStrtStp_month_all!U2="","",_acsReportStrtStp_month_all!U2)</f>
+        <v/>
+      </c>
+      <c r="BK7" s="4" t="str">
+        <f>IF(_acsReportStrtStp_month_all!V2="","",_acsReportStrtStp_month_all!V2)</f>
+        <v/>
+      </c>
+      <c r="BL7" s="4" t="str">
+        <f>IF(_acsReportStrtStp_month_all!W2="","",_acsReportStrtStp_month_all!W2)</f>
+        <v/>
+      </c>
+      <c r="BM7" s="4" t="str">
+        <f>IF(_acsReportStrtStp_month_all!X2="","",_acsReportStrtStp_month_all!X2)</f>
+        <v/>
+      </c>
+      <c r="BN7" s="4" t="str">
+        <f>IF(_acsReportStrtStp_month_all!Y2="","",_acsReportStrtStp_month_all!Y2)</f>
+        <v/>
+      </c>
+      <c r="BO7" s="4" t="str">
+        <f>IF(_acsReportStrtStp_month_all!Z2="","",_acsReportStrtStp_month_all!Z2)</f>
+        <v/>
+      </c>
+      <c r="BP7" s="4" t="str">
+        <f>IF(_acsReportStrtStp_month_all!AA2="","",_acsReportStrtStp_month_all!AA2)</f>
+        <v/>
+      </c>
+      <c r="BQ7" s="4" t="str">
+        <f>IF(_acsReportStrtStp_month_all!AB2="","",_acsReportStrtStp_month_all!AB2)</f>
+        <v/>
+      </c>
+      <c r="BR7" s="4" t="str">
+        <f>IF(_acsReportStrtStp_month_all!AC2="","",_acsReportStrtStp_month_all!AC2)</f>
+        <v/>
+      </c>
+      <c r="BS7" s="4" t="str">
+        <f>IF(_acsReportStrtStp_month_all!AD2="","",_acsReportStrtStp_month_all!AD2)</f>
+        <v/>
+      </c>
+      <c r="BT7" s="4" t="str">
+        <f>IF(_acsReportStrtStp_month_all!AE2="","",_acsReportStrtStp_month_all!AE2)</f>
+        <v/>
+      </c>
+      <c r="BU7" s="4" t="str">
+        <f>IF(_acsReportStrtStp_month_all!AF2="","",_acsReportStrtStp_month_all!AF2)</f>
+        <v/>
+      </c>
+      <c r="BV7" s="4" t="str">
+        <f>IF(_acsReportStrtStp_month_all!AG2="","",_acsReportStrtStp_month_all!AG2)</f>
+        <v/>
+      </c>
+      <c r="BW7" s="4" t="str">
+        <f>IF(_acsReportStrtStp_month_all!AH2="","",_acsReportStrtStp_month_all!AH2)</f>
+        <v/>
+      </c>
+      <c r="BX7" s="4" t="str">
         <f>IF(_acsReportRuntime_day_all!A2="","",IF(_acsReportRuntime_day_all!A2&gt;0,1,0))</f>
         <v/>
       </c>
-      <c r="BY7" t="str">
+      <c r="BY7" s="4" t="str">
         <f>IF(_acsReportRuntime_day_all!B2="","",IF(_acsReportRuntime_day_all!B2&gt;0,1,0))</f>
         <v/>
       </c>
-      <c r="BZ7" t="str">
+      <c r="BZ7" s="4" t="str">
         <f>IF(_acsReportRuntime_day_all!C2="","",IF(_acsReportRuntime_day_all!C2&gt;0,1,0))</f>
         <v/>
       </c>
-      <c r="CA7" t="str">
+      <c r="CA7" s="4" t="str">
         <f>IF(_acsReportRuntime_day_all!D2="","",IF(_acsReportRuntime_day_all!D2&gt;0,1,0))</f>
         <v/>
       </c>
-      <c r="CB7" t="str">
+      <c r="CB7" s="4" t="str">
         <f>IF(_acsReportRuntime_day_all!E2="","",IF(_acsReportRuntime_day_all!E2&gt;0,1,0))</f>
         <v/>
       </c>
-      <c r="CC7" t="str">
+      <c r="CC7" s="4" t="str">
         <f>IF(_acsReportRuntime_day_all!F2="","",IF(_acsReportRuntime_day_all!F2&gt;0,1,0))</f>
         <v/>
       </c>
-      <c r="CD7" t="str">
+      <c r="CD7" s="4" t="str">
         <f>IF(_acsReportRuntime_day_all!G2="","",IF(_acsReportRuntime_day_all!G2&gt;0,1,0))</f>
         <v/>
       </c>
-      <c r="CE7" t="str">
+      <c r="CE7" s="4" t="str">
         <f>IF(_acsReportRuntime_day_all!H2="","",IF(_acsReportRuntime_day_all!H2&gt;0,1,0))</f>
         <v/>
       </c>
-      <c r="CF7" t="str">
+      <c r="CF7" s="4" t="str">
         <f>IF(_acsReportRuntime_day_all!I2="","",IF(_acsReportRuntime_day_all!I2&gt;0,1,0))</f>
         <v/>
       </c>
-      <c r="CG7" t="str">
+      <c r="CG7" s="4" t="str">
         <f>IF(_acsReportRuntime_day_all!J2="","",IF(_acsReportRuntime_day_all!J2&gt;0,1,0))</f>
         <v/>
       </c>
-      <c r="CH7" t="str">
+      <c r="CH7" s="4" t="str">
         <f>IF(_acsReportRuntime_day_all!K2="","",IF(_acsReportRuntime_day_all!K2&gt;0,1,0))</f>
         <v/>
       </c>
-      <c r="CI7" t="str">
+      <c r="CI7" s="4" t="str">
         <f>IF(_acsReportRuntime_day_all!L2="","",IF(_acsReportRuntime_day_all!L2&gt;0,1,0))</f>
         <v/>
       </c>
-      <c r="CJ7" t="str">
+      <c r="CJ7" s="4" t="str">
         <f>IF(_acsReportRuntime_day_all!M2="","",IF(_acsReportRuntime_day_all!M2&gt;0,1,0))</f>
         <v/>
       </c>
-      <c r="CK7" t="str">
+      <c r="CK7" s="4" t="str">
         <f>IF(_acsReportRuntime_day_all!N2="","",IF(_acsReportRuntime_day_all!N2&gt;0,1,0))</f>
         <v/>
       </c>
-      <c r="CL7" t="str">
+      <c r="CL7" s="4" t="str">
         <f>IF(_acsReportRuntime_day_all!O2="","",IF(_acsReportRuntime_day_all!O2&gt;0,1,0))</f>
         <v/>
       </c>
-      <c r="CM7" t="str">
+      <c r="CM7" s="4" t="str">
         <f>IF(_acsReportRuntime_day_all!P2="","",IF(_acsReportRuntime_day_all!P2&gt;0,1,0))</f>
         <v/>
       </c>
-      <c r="CN7" t="str">
+      <c r="CN7" s="4" t="str">
         <f>IF(_acsReportRuntime_day_all!Q2="","",IF(_acsReportRuntime_day_all!Q2&gt;0,1,0))</f>
         <v/>
       </c>
     </row>
-    <row r="8" ht="26.25" customHeight="1" spans="1:4">
-      <c r="A8" t="s">
+    <row r="8" ht="42" customHeight="1" spans="1:4">
+      <c r="A8" s="4" t="s">
         <v>37</v>
       </c>
-      <c r="B8">
+      <c r="B8" s="4">
         <f>SUM(CA7:CE7)</f>
         <v>0</v>
       </c>
-      <c r="C8">
+      <c r="C8" s="4">
         <f>SUM(N7:W7)</f>
         <v>0</v>
       </c>
-      <c r="D8">
+      <c r="D8" s="4">
         <f>SUM(AV7:BE7)</f>
         <v>0</v>
       </c>
     </row>
-    <row r="9" ht="26.25" customHeight="1" spans="1:4">
-      <c r="A9" t="s">
+    <row r="9" ht="37.5" customHeight="1" spans="1:4">
+      <c r="A9" s="4" t="s">
         <v>38</v>
       </c>
-      <c r="B9">
+      <c r="B9" s="4">
         <f>SUM(CF7:CI7)</f>
         <v>0</v>
       </c>
-      <c r="C9">
+      <c r="C9" s="4">
         <f>SUM(X7:AE7)</f>
         <v>0</v>
       </c>
-      <c r="D9">
+      <c r="D9" s="4">
         <f>SUM(BF7:BM7)</f>
         <v>0</v>
       </c>
     </row>
-    <row r="10" ht="33" customHeight="1" spans="1:4">
-      <c r="A10" t="s">
+    <row r="10" ht="41.5" customHeight="1" spans="1:4">
+      <c r="A10" s="4" t="s">
         <v>39</v>
       </c>
-      <c r="B10">
+      <c r="B10" s="4">
         <f>SUM(CJ7:CN7)</f>
         <v>0</v>
       </c>
-      <c r="C10">
+      <c r="C10" s="4">
         <f>SUM(AF7:AO7)</f>
         <v>0</v>
       </c>
-      <c r="D10">
+      <c r="D10" s="4">
         <f>SUM(BN7:BW7)</f>
         <v>0</v>
       </c>
     </row>
-    <row r="11" ht="24.75" customHeight="1" spans="1:4">
-      <c r="A11" t="s">
+    <row r="11" ht="44" customHeight="1" spans="1:4">
+      <c r="A11" s="4" t="s">
         <v>40</v>
       </c>
-      <c r="B11">
+      <c r="B11" s="4">
         <f>SUM(B7:B10)</f>
         <v>0</v>
       </c>
-      <c r="C11">
+      <c r="C11" s="4">
         <f>SUM(C7:C10)</f>
         <v>0</v>
       </c>
-      <c r="D11">
+      <c r="D11" s="4">
         <f>SUM(D7:D10)</f>
         <v>0</v>
       </c>
     </row>
     <row r="12" ht="35.25" customHeight="1" spans="1:4">
-      <c r="A12" t="s">
+      <c r="A12" s="4" t="s">
         <v>41</v>
       </c>
-      <c r="B12" s="11"/>
-      <c r="C12" s="11"/>
-      <c r="D12" s="11"/>
+      <c r="B12" s="13"/>
+      <c r="C12" s="13"/>
+      <c r="D12" s="13"/>
     </row>
   </sheetData>
   <mergeCells count="24">
@@ -2345,7 +2373,7 @@
   <dimension ref="A1:E1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C1" sqref="A1:E1"/>
+      <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="4"/>
@@ -2644,7 +2672,7 @@
   <dimension ref="A1:AH1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B20" sqref="$A1:$XFD1048576"/>
+      <selection activeCell="C28" sqref="C28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>

--- a/excel/finished/能介/压缩空气生产情况汇总表.xlsx
+++ b/excel/finished/能介/压缩空气生产情况汇总表.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="98">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="212" uniqueCount="98">
   <si>
     <t>压缩空气生产情况汇总表</t>
   </si>
@@ -266,55 +266,55 @@
     <t>ES_L2C_ACS4_ACM5_Stp_Times_1day_sum</t>
   </si>
   <si>
-    <t>ES_L2C_ACS1_ACM1_Run_1d_sum</t>
-  </si>
-  <si>
-    <t>ES_L2C_ACS1_ACM2_Run_1d_sum</t>
-  </si>
-  <si>
-    <t>ES_L2C_ACS1_ACM3_Run_1d_sum</t>
-  </si>
-  <si>
-    <t>ES_L2C_ACS2_ACM1_Run_1d_sum</t>
-  </si>
-  <si>
-    <t>ES_L2C_ACS2_ACM2_Run_1d_sum</t>
-  </si>
-  <si>
-    <t>ES_L2C_ACS2_ACM3_Run_1d_sum</t>
-  </si>
-  <si>
-    <t>ES_L2C_ACS2_ACM4_Run_1d_sum</t>
-  </si>
-  <si>
-    <t>ES_L2C_ACS2_ACM5_Run_1d_sum</t>
-  </si>
-  <si>
-    <t>ES_L2C_ACS3_ACM1_Run_1d_sum</t>
-  </si>
-  <si>
-    <t>ES_L2C_ACS3_ACM2_Run_1d_sum</t>
-  </si>
-  <si>
-    <t>ES_L2C_ACS3_ACM3_Run_1d_sum</t>
-  </si>
-  <si>
-    <t>ES_L2C_ACS3_ACM4_Run_1d_sum</t>
-  </si>
-  <si>
-    <t>ES_L2C_ACS4_ACM1_Run_1d_sum</t>
-  </si>
-  <si>
-    <t>ES_L2C_ACS4_ACM2_Run_1d_sum</t>
-  </si>
-  <si>
-    <t>ES_L2C_ACS4_ACM3_Run_1d_sum</t>
-  </si>
-  <si>
-    <t>ES_L2C_ACS4_ACM4_Run_1d_sum</t>
-  </si>
-  <si>
-    <t>ES_L2C_ACS4_ACM5_Run_1d_sum</t>
+    <t>ES_L2C_ACS1_ACM1_Cur_1d_avg</t>
+  </si>
+  <si>
+    <t>ES_L2C_ACS1_ACM2_Cur_1d_avg</t>
+  </si>
+  <si>
+    <t>ES_L2C_ACS1_ACM3_Cur_1d_avg</t>
+  </si>
+  <si>
+    <t>ES_L2C_ACS2_ACM1_Cur_1d_avg</t>
+  </si>
+  <si>
+    <t>ES_L2C_ACS2_ACM2_Cur_1d_avg</t>
+  </si>
+  <si>
+    <t>ES_L2C_ACS2_ACM3_Cur_1d_avg</t>
+  </si>
+  <si>
+    <t>ES_L2C_ACS2_ACM4_Cur_1d_avg</t>
+  </si>
+  <si>
+    <t>ES_L2C_ACS2_ACM5_Cur_1d_avg</t>
+  </si>
+  <si>
+    <t>ES_L2C_ACS3_ACM1_Cur_1d_avg</t>
+  </si>
+  <si>
+    <t>ES_L2C_ACS3_ACM2_Cur_1d_avg</t>
+  </si>
+  <si>
+    <t>ES_L2C_ACS3_ACM3_Cur_1d_avg</t>
+  </si>
+  <si>
+    <t>ES_L2C_ACS3_ACM4_Cur_1d_avg</t>
+  </si>
+  <si>
+    <t>ES_L2C_ACS4_ACM1_Cur_1d_avg</t>
+  </si>
+  <si>
+    <t>ES_L2C_ACS4_ACM2_Cur_1d_avg</t>
+  </si>
+  <si>
+    <t>ES_L2C_ACS4_ACM3_Cur_1d_avg</t>
+  </si>
+  <si>
+    <t>ES_L2C_ACS4_ACM4_Cur_1d_avg</t>
+  </si>
+  <si>
+    <t>ES_L2C_ACS4_ACM5_Cur_1d_avg</t>
   </si>
 </sst>
 </file>
@@ -322,17 +322,17 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="5">
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="176" formatCode="yyyy&quot;年&quot;m&quot;月&quot;d&quot;日&quot;;@"/>
   </numFmts>
-  <fonts count="24">
+  <fonts count="22">
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="宋体"/>
+      <name val="Arial"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
@@ -340,14 +340,14 @@
       <b/>
       <sz val="16"/>
       <color theme="1"/>
-      <name val="宋体"/>
+      <name val="Arial"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="16"/>
       <color theme="1"/>
-      <name val="宋体"/>
+      <name val="Arial"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
@@ -355,163 +355,149 @@
       <b/>
       <sz val="18"/>
       <color theme="1"/>
-      <name val="宋体"/>
+      <name val="Arial"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="Arial"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="Arial"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
+      <color indexed="2"/>
+      <name val="Arial"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
+      <color rgb="FF3F3F76"/>
+      <name val="Arial"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="Arial"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="Arial"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Arial"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="Arial"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="Arial"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Arial"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color indexed="20"/>
+      <name val="Arial"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color indexed="4"/>
+      <name val="Arial"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Arial"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
       <sz val="11"/>
       <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
+      <name val="Arial"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color indexed="65"/>
+      <name val="Arial"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
       <sz val="13"/>
       <color theme="3"/>
-      <name val="宋体"/>
+      <name val="Arial"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
+      <color rgb="FF006100"/>
+      <name val="Arial"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
-  <fills count="34">
+  <fills count="33">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -520,198 +506,192 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="0"/>
-        <bgColor indexed="64"/>
+        <fgColor indexed="47"/>
+        <bgColor indexed="47"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor theme="4" tint="0.599993896298105"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor theme="4" tint="0.399975585192419"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor rgb="FFFFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor theme="5" tint="0.799981688894314"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor rgb="FFFFEB9C"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor theme="6" tint="0.599993896298105"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor theme="4" tint="0.799981688894314"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor theme="6" tint="0.799981688894314"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor theme="7" tint="0.599993896298105"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor theme="7" tint="0.799981688894314"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor theme="6" tint="0.399975585192419"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor rgb="FFF2F2F2"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="26"/>
+        <bgColor indexed="26"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor theme="8" tint="0.399975585192419"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor theme="6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor theme="5" tint="0.399975585192419"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor rgb="FFA5A5A5"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor rgb="FFC6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor theme="8"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
+        <bgColor theme="5" tint="0.599993896298105"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor theme="7" tint="0.399975585192419"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor theme="9" tint="0.799981688894314"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor theme="7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor theme="4"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor theme="5"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor theme="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor theme="8" tint="0.599993896298105"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
+        <bgColor theme="8" tint="0.799981688894314"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
+        <bgColor theme="9" tint="0.599993896298105"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
+        <bgColor theme="9" tint="0.399975585192419"/>
       </patternFill>
     </fill>
   </fills>
-  <borders count="12">
+  <borders count="9">
     <border>
       <left/>
       <right/>
@@ -721,38 +701,34 @@
     </border>
     <border>
       <left style="thin">
-        <color auto="1"/>
+        <color rgb="FF7F7F7F"/>
       </left>
-      <right/>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
       <top style="thin">
-        <color auto="1"/>
+        <color rgb="FF7F7F7F"/>
       </top>
       <bottom style="thin">
-        <color auto="1"/>
+        <color rgb="FF7F7F7F"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
       <left/>
       <right/>
-      <top style="thin">
-        <color auto="1"/>
-      </top>
-      <bottom style="thin">
-        <color auto="1"/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
       <left/>
-      <right style="thin">
-        <color auto="1"/>
-      </right>
-      <top style="thin">
-        <color auto="1"/>
-      </top>
-      <bottom style="thin">
-        <color auto="1"/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -772,30 +748,6 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
         <color rgb="FFB2B2B2"/>
       </left>
@@ -807,6 +759,17 @@
       </top>
       <bottom style="thin">
         <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -828,26 +791,6 @@
     <border>
       <left/>
       <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
       <top/>
       <bottom style="medium">
         <color theme="4" tint="0.499984740745262"/>
@@ -857,158 +800,157 @@
   </borders>
   <cellStyleXfs count="50">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="8" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="12" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="5" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="17" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="5" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="13" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="15" borderId="5">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="18" borderId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="2">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="2">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="4" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="8">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="23" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="14" borderId="4">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="14" borderId="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="19" borderId="7">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="24" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="27" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="3">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="6">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="20" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="7" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="30" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="26" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="22" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="17" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="25" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="21" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="29" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="16" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="28" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="31" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="32" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="49" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="49" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -1027,13 +969,7 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="2" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -1148,73 +1084,13 @@
     <a:fontScheme name="Office">
       <a:majorFont>
         <a:latin typeface="Cambria"/>
-        <a:ea typeface=""/>
-        <a:cs typeface=""/>
-        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
-        <a:font script="Hang" typeface="맑은 고딕"/>
-        <a:font script="Hans" typeface="宋体"/>
-        <a:font script="Hant" typeface="新細明體"/>
-        <a:font script="Arab" typeface="Times New Roman"/>
-        <a:font script="Hebr" typeface="Times New Roman"/>
-        <a:font script="Thai" typeface="Tahoma"/>
-        <a:font script="Ethi" typeface="Nyala"/>
-        <a:font script="Beng" typeface="Vrinda"/>
-        <a:font script="Gujr" typeface="Shruti"/>
-        <a:font script="Khmr" typeface="MoolBoran"/>
-        <a:font script="Knda" typeface="Tunga"/>
-        <a:font script="Guru" typeface="Raavi"/>
-        <a:font script="Cans" typeface="Euphemia"/>
-        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
-        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
-        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
-        <a:font script="Thaa" typeface="MV Boli"/>
-        <a:font script="Deva" typeface="Mangal"/>
-        <a:font script="Telu" typeface="Gautami"/>
-        <a:font script="Taml" typeface="Latha"/>
-        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
-        <a:font script="Orya" typeface="Kalinga"/>
-        <a:font script="Mlym" typeface="Kartika"/>
-        <a:font script="Laoo" typeface="DokChampa"/>
-        <a:font script="Sinh" typeface="Iskoola Pota"/>
-        <a:font script="Mong" typeface="Mongolian Baiti"/>
-        <a:font script="Viet" typeface="Times New Roman"/>
-        <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:ea typeface="Arial"/>
+        <a:cs typeface="Arial"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri"/>
-        <a:ea typeface=""/>
-        <a:cs typeface=""/>
-        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
-        <a:font script="Hang" typeface="맑은 고딕"/>
-        <a:font script="Hans" typeface="宋体"/>
-        <a:font script="Hant" typeface="新細明體"/>
-        <a:font script="Arab" typeface="Arial"/>
-        <a:font script="Hebr" typeface="Arial"/>
-        <a:font script="Thai" typeface="Tahoma"/>
-        <a:font script="Ethi" typeface="Nyala"/>
-        <a:font script="Beng" typeface="Vrinda"/>
-        <a:font script="Gujr" typeface="Shruti"/>
-        <a:font script="Khmr" typeface="DaunPenh"/>
-        <a:font script="Knda" typeface="Tunga"/>
-        <a:font script="Guru" typeface="Raavi"/>
-        <a:font script="Cans" typeface="Euphemia"/>
-        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
-        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
-        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
-        <a:font script="Thaa" typeface="MV Boli"/>
-        <a:font script="Deva" typeface="Mangal"/>
-        <a:font script="Telu" typeface="Gautami"/>
-        <a:font script="Taml" typeface="Latha"/>
-        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
-        <a:font script="Orya" typeface="Kalinga"/>
-        <a:font script="Mlym" typeface="Kartika"/>
-        <a:font script="Laoo" typeface="DokChampa"/>
-        <a:font script="Sinh" typeface="Iskoola Pota"/>
-        <a:font script="Mong" typeface="Mongolian Baiti"/>
-        <a:font script="Viet" typeface="Arial"/>
-        <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:ea typeface="Arial"/>
+        <a:cs typeface="Arial"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -1222,7 +1098,7 @@
         <a:solidFill>
           <a:schemeClr val="phClr"/>
         </a:solidFill>
-        <a:gradFill rotWithShape="1">
+        <a:gradFill>
           <a:gsLst>
             <a:gs pos="0">
               <a:schemeClr val="phClr">
@@ -1245,7 +1121,7 @@
           </a:gsLst>
           <a:lin ang="16200000" scaled="1"/>
         </a:gradFill>
-        <a:gradFill rotWithShape="1">
+        <a:gradFill>
           <a:gsLst>
             <a:gs pos="0">
               <a:schemeClr val="phClr">
@@ -1319,24 +1195,13 @@
               </a:srgbClr>
             </a:outerShdw>
           </a:effectLst>
-          <a:scene3d>
-            <a:camera prst="orthographicFront">
-              <a:rot lat="0" lon="0" rev="0"/>
-            </a:camera>
-            <a:lightRig rig="threePt" dir="t">
-              <a:rot lat="0" lon="0" rev="1200000"/>
-            </a:lightRig>
-          </a:scene3d>
-          <a:sp3d>
-            <a:bevelT w="63500" h="25400"/>
-          </a:sp3d>
         </a:effectStyle>
       </a:effectStyleLst>
       <a:bgFillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
         </a:solidFill>
-        <a:gradFill rotWithShape="1">
+        <a:gradFill>
           <a:gsLst>
             <a:gs pos="0">
               <a:schemeClr val="phClr">
@@ -1358,11 +1223,9 @@
               </a:schemeClr>
             </a:gs>
           </a:gsLst>
-          <a:path path="circle">
-            <a:fillToRect l="50000" t="-80000" r="50000" b="180000"/>
-          </a:path>
+          <a:path path="circle"/>
         </a:gradFill>
-        <a:gradFill rotWithShape="1">
+        <a:gradFill>
           <a:gsLst>
             <a:gs pos="0">
               <a:schemeClr val="phClr">
@@ -1377,9 +1240,7 @@
               </a:schemeClr>
             </a:gs>
           </a:gsLst>
-          <a:path path="circle">
-            <a:fillToRect l="50000" t="50000" r="50000" b="50000"/>
-          </a:path>
+          <a:path path="circle"/>
         </a:gradFill>
       </a:bgFillStyleLst>
     </a:fmtScheme>
@@ -1394,945 +1255,945 @@
   <dimension ref="A1:CN12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B6" sqref="B6"/>
+      <selection activeCell="B5" sqref="B5:D5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="20.25"/>
   <cols>
-    <col min="1" max="1" width="19.6333333333333" style="4" customWidth="1"/>
-    <col min="2" max="2" width="21.725" style="4" customWidth="1"/>
-    <col min="3" max="3" width="16.725" style="4" customWidth="1"/>
-    <col min="4" max="4" width="24.6333333333333" style="4" customWidth="1"/>
-    <col min="5" max="5" width="68.45" style="4" hidden="1" customWidth="1"/>
-    <col min="6" max="92" width="9" style="4" hidden="1" customWidth="1"/>
-    <col min="93" max="16384" width="9" style="4"/>
+    <col min="1" max="1" width="19.6333333333333" style="3" customWidth="1"/>
+    <col min="2" max="2" width="21.725" style="3" customWidth="1"/>
+    <col min="3" max="3" width="16.725" style="3" customWidth="1"/>
+    <col min="4" max="4" width="24.6333333333333" style="3" customWidth="1"/>
+    <col min="5" max="5" width="68.45" style="3" hidden="1" customWidth="1"/>
+    <col min="6" max="92" width="9" style="3" hidden="1" customWidth="1"/>
+    <col min="93" max="16384" width="9" style="3"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:50">
-      <c r="A1" s="5" t="s">
+      <c r="A1" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="5"/>
-      <c r="C1" s="5"/>
-      <c r="D1" s="5"/>
-      <c r="E1" s="6"/>
-      <c r="F1" s="6"/>
-      <c r="G1" s="6"/>
-      <c r="H1" s="6"/>
-      <c r="I1" s="6"/>
-      <c r="J1" s="6"/>
-      <c r="N1" s="6"/>
-      <c r="O1" s="6"/>
-      <c r="P1" s="6"/>
-      <c r="AP1" s="6"/>
-      <c r="AQ1" s="6"/>
-      <c r="AR1" s="6"/>
-      <c r="AV1" s="6"/>
-      <c r="AW1" s="6"/>
-      <c r="AX1" s="6"/>
+      <c r="B1" s="4"/>
+      <c r="C1" s="4"/>
+      <c r="D1" s="4"/>
+      <c r="E1" s="5"/>
+      <c r="F1" s="5"/>
+      <c r="G1" s="5"/>
+      <c r="H1" s="5"/>
+      <c r="I1" s="5"/>
+      <c r="J1" s="5"/>
+      <c r="N1" s="5"/>
+      <c r="O1" s="5"/>
+      <c r="P1" s="5"/>
+      <c r="AP1" s="5"/>
+      <c r="AQ1" s="5"/>
+      <c r="AR1" s="5"/>
+      <c r="AV1" s="5"/>
+      <c r="AW1" s="5"/>
+      <c r="AX1" s="5"/>
     </row>
     <row r="2" spans="1:50">
-      <c r="A2" s="5"/>
-      <c r="B2" s="5"/>
-      <c r="C2" s="5"/>
-      <c r="D2" s="5"/>
-      <c r="E2" s="6"/>
-      <c r="F2" s="6"/>
-      <c r="G2" s="6"/>
-      <c r="H2" s="6"/>
-      <c r="I2" s="6"/>
-      <c r="J2" s="6"/>
-      <c r="N2" s="6"/>
-      <c r="O2" s="6"/>
-      <c r="P2" s="6"/>
-      <c r="AP2" s="6"/>
-      <c r="AQ2" s="6"/>
-      <c r="AR2" s="6"/>
-      <c r="AV2" s="6"/>
-      <c r="AW2" s="6"/>
-      <c r="AX2" s="6"/>
+      <c r="A2" s="4"/>
+      <c r="B2" s="4"/>
+      <c r="C2" s="4"/>
+      <c r="D2" s="4"/>
+      <c r="E2" s="5"/>
+      <c r="F2" s="5"/>
+      <c r="G2" s="5"/>
+      <c r="H2" s="5"/>
+      <c r="I2" s="5"/>
+      <c r="J2" s="5"/>
+      <c r="N2" s="5"/>
+      <c r="O2" s="5"/>
+      <c r="P2" s="5"/>
+      <c r="AP2" s="5"/>
+      <c r="AQ2" s="5"/>
+      <c r="AR2" s="5"/>
+      <c r="AV2" s="5"/>
+      <c r="AW2" s="5"/>
+      <c r="AX2" s="5"/>
     </row>
     <row r="3" spans="1:50">
-      <c r="A3" s="5"/>
-      <c r="B3" s="5"/>
-      <c r="C3" s="5"/>
-      <c r="D3" s="5"/>
-      <c r="E3" s="6"/>
-      <c r="F3" s="6"/>
-      <c r="G3" s="6"/>
-      <c r="H3" s="6"/>
-      <c r="I3" s="6"/>
-      <c r="J3" s="6"/>
-      <c r="N3" s="6"/>
-      <c r="O3" s="6"/>
-      <c r="P3" s="6"/>
-      <c r="AP3" s="6"/>
-      <c r="AQ3" s="6"/>
-      <c r="AR3" s="6"/>
-      <c r="AV3" s="6"/>
-      <c r="AW3" s="6"/>
-      <c r="AX3" s="6"/>
+      <c r="A3" s="4"/>
+      <c r="B3" s="4"/>
+      <c r="C3" s="4"/>
+      <c r="D3" s="4"/>
+      <c r="E3" s="5"/>
+      <c r="F3" s="5"/>
+      <c r="G3" s="5"/>
+      <c r="H3" s="5"/>
+      <c r="I3" s="5"/>
+      <c r="J3" s="5"/>
+      <c r="N3" s="5"/>
+      <c r="O3" s="5"/>
+      <c r="P3" s="5"/>
+      <c r="AP3" s="5"/>
+      <c r="AQ3" s="5"/>
+      <c r="AR3" s="5"/>
+      <c r="AV3" s="5"/>
+      <c r="AW3" s="5"/>
+      <c r="AX3" s="5"/>
     </row>
     <row r="4" ht="45" customHeight="1" spans="1:5">
-      <c r="A4" s="4" t="s">
+      <c r="A4" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="B4" s="7" t="str">
+      <c r="B4" s="6" t="str">
         <f>IF(_metadata!B2="","",_metadata!B2)</f>
         <v/>
       </c>
-      <c r="C4" s="7"/>
-      <c r="D4" s="7"/>
-      <c r="E4" s="8" t="s">
+      <c r="C4" s="6"/>
+      <c r="D4" s="6"/>
+      <c r="E4" s="7" t="s">
         <v>2</v>
       </c>
     </row>
     <row r="5" ht="38.25" customHeight="1" spans="1:92">
-      <c r="A5" s="4" t="s">
+      <c r="A5" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="B5" s="9" t="str">
-        <f>IF(_acsReportGas_day_all!A2="","",SUM(_acsReportGas_day_all!A2:E2)/3600)</f>
-        <v/>
-      </c>
-      <c r="C5" s="10"/>
-      <c r="D5" s="11"/>
-      <c r="E5" s="8" t="s">
+      <c r="B5" s="8" t="str">
+        <f>IF(SUM(_acsReportGas_day_all!A2:E2),SUM(_acsReportGas_day_all!A2:E2)/3600,"")</f>
+        <v/>
+      </c>
+      <c r="C5" s="8"/>
+      <c r="D5" s="8"/>
+      <c r="E5" s="7" t="s">
         <v>4</v>
       </c>
-      <c r="H5" s="12" t="s">
+      <c r="H5" s="9" t="s">
         <v>5</v>
       </c>
-      <c r="I5" s="12"/>
-      <c r="J5" s="12"/>
-      <c r="K5" s="12" t="s">
+      <c r="I5" s="9"/>
+      <c r="J5" s="9"/>
+      <c r="K5" s="9" t="s">
         <v>6</v>
       </c>
-      <c r="L5" s="12"/>
-      <c r="M5" s="12"/>
-      <c r="N5" s="12" t="s">
+      <c r="L5" s="9"/>
+      <c r="M5" s="9"/>
+      <c r="N5" s="9" t="s">
         <v>7</v>
       </c>
-      <c r="O5" s="12"/>
-      <c r="P5" s="12"/>
-      <c r="Q5" s="12"/>
-      <c r="R5" s="12"/>
-      <c r="S5" s="12" t="s">
+      <c r="O5" s="9"/>
+      <c r="P5" s="9"/>
+      <c r="Q5" s="9"/>
+      <c r="R5" s="9"/>
+      <c r="S5" s="9" t="s">
         <v>8</v>
       </c>
-      <c r="T5" s="12"/>
-      <c r="U5" s="12"/>
-      <c r="V5" s="12"/>
-      <c r="W5" s="12"/>
-      <c r="X5" s="12" t="s">
+      <c r="T5" s="9"/>
+      <c r="U5" s="9"/>
+      <c r="V5" s="9"/>
+      <c r="W5" s="9"/>
+      <c r="X5" s="9" t="s">
         <v>9</v>
       </c>
-      <c r="Y5" s="12"/>
-      <c r="Z5" s="12"/>
-      <c r="AA5" s="12"/>
-      <c r="AB5" s="12" t="s">
+      <c r="Y5" s="9"/>
+      <c r="Z5" s="9"/>
+      <c r="AA5" s="9"/>
+      <c r="AB5" s="9" t="s">
         <v>10</v>
       </c>
-      <c r="AC5" s="12"/>
-      <c r="AD5" s="12"/>
-      <c r="AE5" s="12"/>
-      <c r="AF5" s="12" t="s">
+      <c r="AC5" s="9"/>
+      <c r="AD5" s="9"/>
+      <c r="AE5" s="9"/>
+      <c r="AF5" s="9" t="s">
         <v>11</v>
       </c>
-      <c r="AG5" s="12"/>
-      <c r="AH5" s="12"/>
-      <c r="AI5" s="12"/>
-      <c r="AJ5" s="12"/>
-      <c r="AK5" s="12" t="s">
+      <c r="AG5" s="9"/>
+      <c r="AH5" s="9"/>
+      <c r="AI5" s="9"/>
+      <c r="AJ5" s="9"/>
+      <c r="AK5" s="9" t="s">
         <v>12</v>
       </c>
-      <c r="AL5" s="12"/>
-      <c r="AM5" s="12"/>
-      <c r="AN5" s="12"/>
-      <c r="AO5" s="12"/>
-      <c r="AP5" s="12" t="s">
+      <c r="AL5" s="9"/>
+      <c r="AM5" s="9"/>
+      <c r="AN5" s="9"/>
+      <c r="AO5" s="9"/>
+      <c r="AP5" s="9" t="s">
         <v>13</v>
       </c>
-      <c r="AQ5" s="12"/>
-      <c r="AR5" s="12"/>
-      <c r="AS5" s="12" t="s">
+      <c r="AQ5" s="9"/>
+      <c r="AR5" s="9"/>
+      <c r="AS5" s="9" t="s">
         <v>14</v>
       </c>
-      <c r="AT5" s="12"/>
-      <c r="AU5" s="12"/>
-      <c r="AV5" s="12" t="s">
+      <c r="AT5" s="9"/>
+      <c r="AU5" s="9"/>
+      <c r="AV5" s="9" t="s">
         <v>15</v>
       </c>
-      <c r="AW5" s="12"/>
-      <c r="AX5" s="12"/>
-      <c r="AY5" s="12"/>
-      <c r="AZ5" s="12"/>
-      <c r="BA5" s="12" t="s">
+      <c r="AW5" s="9"/>
+      <c r="AX5" s="9"/>
+      <c r="AY5" s="9"/>
+      <c r="AZ5" s="9"/>
+      <c r="BA5" s="9" t="s">
         <v>16</v>
       </c>
-      <c r="BB5" s="12"/>
-      <c r="BC5" s="12"/>
-      <c r="BD5" s="12"/>
-      <c r="BE5" s="12"/>
-      <c r="BF5" s="12" t="s">
+      <c r="BB5" s="9"/>
+      <c r="BC5" s="9"/>
+      <c r="BD5" s="9"/>
+      <c r="BE5" s="9"/>
+      <c r="BF5" s="9" t="s">
         <v>17</v>
       </c>
-      <c r="BG5" s="12"/>
-      <c r="BH5" s="12"/>
-      <c r="BI5" s="12"/>
-      <c r="BJ5" s="12" t="s">
+      <c r="BG5" s="9"/>
+      <c r="BH5" s="9"/>
+      <c r="BI5" s="9"/>
+      <c r="BJ5" s="9" t="s">
         <v>18</v>
       </c>
-      <c r="BK5" s="12"/>
-      <c r="BL5" s="12"/>
-      <c r="BM5" s="12"/>
-      <c r="BN5" s="12" t="s">
+      <c r="BK5" s="9"/>
+      <c r="BL5" s="9"/>
+      <c r="BM5" s="9"/>
+      <c r="BN5" s="9" t="s">
         <v>19</v>
       </c>
-      <c r="BO5" s="12"/>
-      <c r="BP5" s="12"/>
-      <c r="BQ5" s="12"/>
-      <c r="BR5" s="12"/>
-      <c r="BS5" s="12" t="s">
+      <c r="BO5" s="9"/>
+      <c r="BP5" s="9"/>
+      <c r="BQ5" s="9"/>
+      <c r="BR5" s="9"/>
+      <c r="BS5" s="9" t="s">
         <v>20</v>
       </c>
-      <c r="BT5" s="12"/>
-      <c r="BU5" s="12"/>
-      <c r="BV5" s="12"/>
-      <c r="BW5" s="12"/>
-      <c r="BX5" s="12" t="s">
+      <c r="BT5" s="9"/>
+      <c r="BU5" s="9"/>
+      <c r="BV5" s="9"/>
+      <c r="BW5" s="9"/>
+      <c r="BX5" s="9" t="s">
         <v>21</v>
       </c>
-      <c r="BY5" s="12"/>
-      <c r="BZ5" s="12"/>
-      <c r="CA5" s="12" t="s">
+      <c r="BY5" s="9"/>
+      <c r="BZ5" s="9"/>
+      <c r="CA5" s="9" t="s">
         <v>22</v>
       </c>
-      <c r="CB5" s="12"/>
-      <c r="CC5" s="12"/>
-      <c r="CD5" s="12"/>
-      <c r="CE5" s="12"/>
-      <c r="CF5" s="12" t="s">
+      <c r="CB5" s="9"/>
+      <c r="CC5" s="9"/>
+      <c r="CD5" s="9"/>
+      <c r="CE5" s="9"/>
+      <c r="CF5" s="9" t="s">
         <v>23</v>
       </c>
-      <c r="CG5" s="12"/>
-      <c r="CH5" s="12"/>
-      <c r="CI5" s="12"/>
-      <c r="CJ5" s="12" t="s">
+      <c r="CG5" s="9"/>
+      <c r="CH5" s="9"/>
+      <c r="CI5" s="9"/>
+      <c r="CJ5" s="9" t="s">
         <v>24</v>
       </c>
-      <c r="CK5" s="12"/>
-      <c r="CL5" s="12"/>
-      <c r="CM5" s="12"/>
-      <c r="CN5" s="12"/>
+      <c r="CK5" s="9"/>
+      <c r="CL5" s="9"/>
+      <c r="CM5" s="9"/>
+      <c r="CN5" s="9"/>
     </row>
-    <row r="6" s="3" customFormat="1" ht="29.25" customHeight="1" spans="1:92">
-      <c r="A6" s="3" t="s">
+    <row r="6" s="2" customFormat="1" ht="29.25" customHeight="1" spans="1:92">
+      <c r="A6" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="B6" s="4" t="s">
+      <c r="B6" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="C6" s="4" t="s">
+      <c r="C6" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="D6" s="4" t="s">
+      <c r="D6" s="3" t="s">
         <v>28</v>
       </c>
-      <c r="E6" s="3" t="s">
+      <c r="E6" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="H6" s="3" t="s">
+      <c r="H6" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="I6" s="3" t="s">
+      <c r="I6" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="J6" s="3" t="s">
+      <c r="J6" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="K6" s="3" t="s">
+      <c r="K6" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="L6" s="3" t="s">
+      <c r="L6" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="M6" s="3" t="s">
+      <c r="M6" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="N6" s="3" t="s">
+      <c r="N6" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="O6" s="3" t="s">
+      <c r="O6" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="P6" s="3" t="s">
+      <c r="P6" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="Q6" s="3" t="s">
+      <c r="Q6" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="R6" s="3" t="s">
+      <c r="R6" s="2" t="s">
         <v>34</v>
       </c>
-      <c r="S6" s="3" t="s">
+      <c r="S6" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="T6" s="3" t="s">
+      <c r="T6" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="U6" s="3" t="s">
+      <c r="U6" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="V6" s="3" t="s">
+      <c r="V6" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="W6" s="3" t="s">
+      <c r="W6" s="2" t="s">
         <v>34</v>
       </c>
-      <c r="X6" s="3" t="s">
+      <c r="X6" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="Y6" s="3" t="s">
+      <c r="Y6" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="Z6" s="3" t="s">
+      <c r="Z6" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="AA6" s="3" t="s">
+      <c r="AA6" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="AB6" s="3" t="s">
+      <c r="AB6" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="AC6" s="3" t="s">
+      <c r="AC6" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="AD6" s="3" t="s">
+      <c r="AD6" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="AE6" s="3" t="s">
+      <c r="AE6" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="AF6" s="3" t="s">
+      <c r="AF6" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="AG6" s="3" t="s">
+      <c r="AG6" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="AH6" s="3" t="s">
+      <c r="AH6" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="AI6" s="3" t="s">
+      <c r="AI6" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="AJ6" s="3" t="s">
+      <c r="AJ6" s="2" t="s">
         <v>34</v>
       </c>
-      <c r="AK6" s="3" t="s">
+      <c r="AK6" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="AL6" s="3" t="s">
+      <c r="AL6" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="AM6" s="3" t="s">
+      <c r="AM6" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="AN6" s="3" t="s">
+      <c r="AN6" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="AO6" s="3" t="s">
+      <c r="AO6" s="2" t="s">
         <v>34</v>
       </c>
-      <c r="AP6" s="3" t="s">
+      <c r="AP6" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="AQ6" s="3" t="s">
+      <c r="AQ6" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="AR6" s="3" t="s">
+      <c r="AR6" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="AS6" s="3" t="s">
+      <c r="AS6" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="AT6" s="3" t="s">
+      <c r="AT6" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="AU6" s="3" t="s">
+      <c r="AU6" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="AV6" s="3" t="s">
+      <c r="AV6" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="AW6" s="3" t="s">
+      <c r="AW6" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="AX6" s="3" t="s">
+      <c r="AX6" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="AY6" s="3" t="s">
+      <c r="AY6" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="AZ6" s="3" t="s">
+      <c r="AZ6" s="2" t="s">
         <v>34</v>
       </c>
-      <c r="BA6" s="3" t="s">
+      <c r="BA6" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="BB6" s="3" t="s">
+      <c r="BB6" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="BC6" s="3" t="s">
+      <c r="BC6" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="BD6" s="3" t="s">
+      <c r="BD6" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="BE6" s="3" t="s">
+      <c r="BE6" s="2" t="s">
         <v>34</v>
       </c>
-      <c r="BF6" s="3" t="s">
+      <c r="BF6" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="BG6" s="3" t="s">
+      <c r="BG6" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="BH6" s="3" t="s">
+      <c r="BH6" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="BI6" s="3" t="s">
+      <c r="BI6" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="BJ6" s="3" t="s">
+      <c r="BJ6" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="BK6" s="3" t="s">
+      <c r="BK6" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="BL6" s="3" t="s">
+      <c r="BL6" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="BM6" s="3" t="s">
+      <c r="BM6" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="BN6" s="3" t="s">
+      <c r="BN6" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="BO6" s="3" t="s">
+      <c r="BO6" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="BP6" s="3" t="s">
+      <c r="BP6" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="BQ6" s="3" t="s">
+      <c r="BQ6" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="BR6" s="3" t="s">
+      <c r="BR6" s="2" t="s">
         <v>34</v>
       </c>
-      <c r="BS6" s="3" t="s">
+      <c r="BS6" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="BT6" s="3" t="s">
+      <c r="BT6" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="BU6" s="3" t="s">
+      <c r="BU6" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="BV6" s="3" t="s">
+      <c r="BV6" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="BW6" s="3" t="s">
+      <c r="BW6" s="2" t="s">
         <v>34</v>
       </c>
-      <c r="BX6" s="3" t="s">
+      <c r="BX6" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="BY6" s="3" t="s">
+      <c r="BY6" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="BZ6" s="3" t="s">
+      <c r="BZ6" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="CA6" s="3" t="s">
+      <c r="CA6" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="CB6" s="3" t="s">
+      <c r="CB6" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="CC6" s="3" t="s">
+      <c r="CC6" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="CD6" s="3" t="s">
+      <c r="CD6" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="CE6" s="3" t="s">
+      <c r="CE6" s="2" t="s">
         <v>34</v>
       </c>
-      <c r="CF6" s="3" t="s">
+      <c r="CF6" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="CG6" s="3" t="s">
+      <c r="CG6" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="CH6" s="3" t="s">
+      <c r="CH6" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="CI6" s="3" t="s">
+      <c r="CI6" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="CJ6" s="3" t="s">
+      <c r="CJ6" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="CK6" s="3" t="s">
+      <c r="CK6" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="CL6" s="3" t="s">
+      <c r="CL6" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="CM6" s="3" t="s">
+      <c r="CM6" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="CN6" s="3" t="s">
+      <c r="CN6" s="2" t="s">
         <v>34</v>
       </c>
     </row>
     <row r="7" ht="32" customHeight="1" spans="1:92">
-      <c r="A7" s="4" t="s">
+      <c r="A7" s="3" t="s">
         <v>35</v>
       </c>
-      <c r="B7" s="4">
+      <c r="B7" s="3">
         <f>SUM(BX7:BZ7)</f>
         <v>0</v>
       </c>
-      <c r="C7" s="4">
+      <c r="C7" s="3">
         <f>SUM(H7:M7)</f>
         <v>0</v>
       </c>
-      <c r="D7" s="4">
+      <c r="D7" s="3">
         <f>SUM(AP7:AU7)</f>
         <v>0</v>
       </c>
-      <c r="E7" s="4" t="s">
+      <c r="E7" s="3" t="s">
         <v>36</v>
       </c>
-      <c r="H7" s="4" t="str">
+      <c r="H7" s="3" t="str">
         <f>IF(_acsReportStrtStp_day_all!A2="","",_acsReportStrtStp_day_all!A2)</f>
         <v/>
       </c>
-      <c r="I7" s="4" t="str">
+      <c r="I7" s="3" t="str">
         <f>IF(_acsReportStrtStp_day_all!B2="","",_acsReportStrtStp_day_all!B2)</f>
         <v/>
       </c>
-      <c r="J7" s="4" t="str">
+      <c r="J7" s="3" t="str">
         <f>IF(_acsReportStrtStp_day_all!C2="","",_acsReportStrtStp_day_all!C2)</f>
         <v/>
       </c>
-      <c r="K7" s="4" t="str">
+      <c r="K7" s="3" t="str">
         <f>IF(_acsReportStrtStp_day_all!D2="","",_acsReportStrtStp_day_all!D2)</f>
         <v/>
       </c>
-      <c r="L7" s="4" t="str">
+      <c r="L7" s="3" t="str">
         <f>IF(_acsReportStrtStp_day_all!E2="","",_acsReportStrtStp_day_all!E2)</f>
         <v/>
       </c>
-      <c r="M7" s="4" t="str">
+      <c r="M7" s="3" t="str">
         <f>IF(_acsReportStrtStp_day_all!F2="","",_acsReportStrtStp_day_all!F2)</f>
         <v/>
       </c>
-      <c r="N7" s="4" t="str">
+      <c r="N7" s="3" t="str">
         <f>IF(_acsReportStrtStp_day_all!G2="","",_acsReportStrtStp_day_all!G2)</f>
         <v/>
       </c>
-      <c r="O7" s="4" t="str">
+      <c r="O7" s="3" t="str">
         <f>IF(_acsReportStrtStp_day_all!H2="","",_acsReportStrtStp_day_all!H2)</f>
         <v/>
       </c>
-      <c r="P7" s="4" t="str">
+      <c r="P7" s="3" t="str">
         <f>IF(_acsReportStrtStp_day_all!I2="","",_acsReportStrtStp_day_all!I2)</f>
         <v/>
       </c>
-      <c r="Q7" s="4" t="str">
+      <c r="Q7" s="3" t="str">
         <f>IF(_acsReportStrtStp_day_all!J2="","",_acsReportStrtStp_day_all!J2)</f>
         <v/>
       </c>
-      <c r="R7" s="4" t="str">
+      <c r="R7" s="3" t="str">
         <f>IF(_acsReportStrtStp_day_all!K2="","",_acsReportStrtStp_day_all!K2)</f>
         <v/>
       </c>
-      <c r="S7" s="4" t="str">
+      <c r="S7" s="3" t="str">
         <f>IF(_acsReportStrtStp_day_all!L2="","",_acsReportStrtStp_day_all!L2)</f>
         <v/>
       </c>
-      <c r="T7" s="4" t="str">
+      <c r="T7" s="3" t="str">
         <f>IF(_acsReportStrtStp_day_all!M2="","",_acsReportStrtStp_day_all!M2)</f>
         <v/>
       </c>
-      <c r="U7" s="4" t="str">
+      <c r="U7" s="3" t="str">
         <f>IF(_acsReportStrtStp_day_all!N2="","",_acsReportStrtStp_day_all!N2)</f>
         <v/>
       </c>
-      <c r="V7" s="4" t="str">
+      <c r="V7" s="3" t="str">
         <f>IF(_acsReportStrtStp_day_all!O2="","",_acsReportStrtStp_day_all!O2)</f>
         <v/>
       </c>
-      <c r="W7" s="4" t="str">
+      <c r="W7" s="3" t="str">
         <f>IF(_acsReportStrtStp_day_all!P2="","",_acsReportStrtStp_day_all!P2)</f>
         <v/>
       </c>
-      <c r="X7" s="4" t="str">
+      <c r="X7" s="3" t="str">
         <f>IF(_acsReportStrtStp_day_all!Q2="","",_acsReportStrtStp_day_all!Q2)</f>
         <v/>
       </c>
-      <c r="Y7" s="4" t="str">
+      <c r="Y7" s="3" t="str">
         <f>IF(_acsReportStrtStp_day_all!R2="","",_acsReportStrtStp_day_all!R2)</f>
         <v/>
       </c>
-      <c r="Z7" s="4" t="str">
+      <c r="Z7" s="3" t="str">
         <f>IF(_acsReportStrtStp_day_all!S2="","",_acsReportStrtStp_day_all!S2)</f>
         <v/>
       </c>
-      <c r="AA7" s="4" t="str">
+      <c r="AA7" s="3" t="str">
         <f>IF(_acsReportStrtStp_day_all!T2="","",_acsReportStrtStp_day_all!T2)</f>
         <v/>
       </c>
-      <c r="AB7" s="4" t="str">
+      <c r="AB7" s="3" t="str">
         <f>IF(_acsReportStrtStp_day_all!U2="","",_acsReportStrtStp_day_all!U2)</f>
         <v/>
       </c>
-      <c r="AC7" s="4" t="str">
+      <c r="AC7" s="3" t="str">
         <f>IF(_acsReportStrtStp_day_all!V2="","",_acsReportStrtStp_day_all!V2)</f>
         <v/>
       </c>
-      <c r="AD7" s="4" t="str">
+      <c r="AD7" s="3" t="str">
         <f>IF(_acsReportStrtStp_day_all!W2="","",_acsReportStrtStp_day_all!W2)</f>
         <v/>
       </c>
-      <c r="AE7" s="4" t="str">
+      <c r="AE7" s="3" t="str">
         <f>IF(_acsReportStrtStp_day_all!X2="","",_acsReportStrtStp_day_all!X2)</f>
         <v/>
       </c>
-      <c r="AF7" s="4" t="str">
+      <c r="AF7" s="3" t="str">
         <f>IF(_acsReportStrtStp_day_all!Y2="","",_acsReportStrtStp_day_all!Y2)</f>
         <v/>
       </c>
-      <c r="AG7" s="4" t="str">
+      <c r="AG7" s="3" t="str">
         <f>IF(_acsReportStrtStp_day_all!Z2="","",_acsReportStrtStp_day_all!Z2)</f>
         <v/>
       </c>
-      <c r="AH7" s="4" t="str">
+      <c r="AH7" s="3" t="str">
         <f>IF(_acsReportStrtStp_day_all!AA2="","",_acsReportStrtStp_day_all!AA2)</f>
         <v/>
       </c>
-      <c r="AI7" s="4" t="str">
+      <c r="AI7" s="3" t="str">
         <f>IF(_acsReportStrtStp_day_all!AB2="","",_acsReportStrtStp_day_all!AB2)</f>
         <v/>
       </c>
-      <c r="AJ7" s="4" t="str">
+      <c r="AJ7" s="3" t="str">
         <f>IF(_acsReportStrtStp_day_all!AC2="","",_acsReportStrtStp_day_all!AC2)</f>
         <v/>
       </c>
-      <c r="AK7" s="4" t="str">
+      <c r="AK7" s="3" t="str">
         <f>IF(_acsReportStrtStp_day_all!AD2="","",_acsReportStrtStp_day_all!AD2)</f>
         <v/>
       </c>
-      <c r="AL7" s="4" t="str">
+      <c r="AL7" s="3" t="str">
         <f>IF(_acsReportStrtStp_day_all!AE2="","",_acsReportStrtStp_day_all!AE2)</f>
         <v/>
       </c>
-      <c r="AM7" s="4" t="str">
+      <c r="AM7" s="3" t="str">
         <f>IF(_acsReportStrtStp_day_all!AF2="","",_acsReportStrtStp_day_all!AF2)</f>
         <v/>
       </c>
-      <c r="AN7" s="4" t="str">
+      <c r="AN7" s="3" t="str">
         <f>IF(_acsReportStrtStp_day_all!AG2="","",_acsReportStrtStp_day_all!AG2)</f>
         <v/>
       </c>
-      <c r="AO7" s="4" t="str">
+      <c r="AO7" s="3" t="str">
         <f>IF(_acsReportStrtStp_day_all!AH2="","",_acsReportStrtStp_day_all!AH2)</f>
         <v/>
       </c>
-      <c r="AP7" s="4" t="str">
+      <c r="AP7" s="3" t="str">
         <f>IF(_acsReportStrtStp_month_all!A2="","",_acsReportStrtStp_month_all!A2)</f>
         <v/>
       </c>
-      <c r="AQ7" s="4" t="str">
+      <c r="AQ7" s="3" t="str">
         <f>IF(_acsReportStrtStp_month_all!B2="","",_acsReportStrtStp_month_all!B2)</f>
         <v/>
       </c>
-      <c r="AR7" s="4" t="str">
+      <c r="AR7" s="3" t="str">
         <f>IF(_acsReportStrtStp_month_all!C2="","",_acsReportStrtStp_month_all!C2)</f>
         <v/>
       </c>
-      <c r="AS7" s="4" t="str">
+      <c r="AS7" s="3" t="str">
         <f>IF(_acsReportStrtStp_month_all!D2="","",_acsReportStrtStp_month_all!D2)</f>
         <v/>
       </c>
-      <c r="AT7" s="4" t="str">
+      <c r="AT7" s="3" t="str">
         <f>IF(_acsReportStrtStp_month_all!E2="","",_acsReportStrtStp_month_all!E2)</f>
         <v/>
       </c>
-      <c r="AU7" s="4" t="str">
+      <c r="AU7" s="3" t="str">
         <f>IF(_acsReportStrtStp_month_all!F2="","",_acsReportStrtStp_month_all!F2)</f>
         <v/>
       </c>
-      <c r="AV7" s="4" t="str">
+      <c r="AV7" s="3" t="str">
         <f>IF(_acsReportStrtStp_month_all!G2="","",_acsReportStrtStp_month_all!G2)</f>
         <v/>
       </c>
-      <c r="AW7" s="4" t="str">
+      <c r="AW7" s="3" t="str">
         <f>IF(_acsReportStrtStp_month_all!H2="","",_acsReportStrtStp_month_all!H2)</f>
         <v/>
       </c>
-      <c r="AX7" s="4" t="str">
+      <c r="AX7" s="3" t="str">
         <f>IF(_acsReportStrtStp_month_all!I2="","",_acsReportStrtStp_month_all!I2)</f>
         <v/>
       </c>
-      <c r="AY7" s="4" t="str">
+      <c r="AY7" s="3" t="str">
         <f>IF(_acsReportStrtStp_month_all!J2="","",_acsReportStrtStp_month_all!J2)</f>
         <v/>
       </c>
-      <c r="AZ7" s="4" t="str">
+      <c r="AZ7" s="3" t="str">
         <f>IF(_acsReportStrtStp_month_all!K2="","",_acsReportStrtStp_month_all!K2)</f>
         <v/>
       </c>
-      <c r="BA7" s="4" t="str">
+      <c r="BA7" s="3" t="str">
         <f>IF(_acsReportStrtStp_month_all!L2="","",_acsReportStrtStp_month_all!L2)</f>
         <v/>
       </c>
-      <c r="BB7" s="4" t="str">
+      <c r="BB7" s="3" t="str">
         <f>IF(_acsReportStrtStp_month_all!M2="","",_acsReportStrtStp_month_all!M2)</f>
         <v/>
       </c>
-      <c r="BC7" s="4" t="str">
+      <c r="BC7" s="3" t="str">
         <f>IF(_acsReportStrtStp_month_all!N2="","",_acsReportStrtStp_month_all!N2)</f>
         <v/>
       </c>
-      <c r="BD7" s="4" t="str">
+      <c r="BD7" s="3" t="str">
         <f>IF(_acsReportStrtStp_month_all!O2="","",_acsReportStrtStp_month_all!O2)</f>
         <v/>
       </c>
-      <c r="BE7" s="4" t="str">
+      <c r="BE7" s="3" t="str">
         <f>IF(_acsReportStrtStp_month_all!P2="","",_acsReportStrtStp_month_all!P2)</f>
         <v/>
       </c>
-      <c r="BF7" s="4" t="str">
+      <c r="BF7" s="3" t="str">
         <f>IF(_acsReportStrtStp_month_all!Q2="","",_acsReportStrtStp_month_all!Q2)</f>
         <v/>
       </c>
-      <c r="BG7" s="4" t="str">
+      <c r="BG7" s="3" t="str">
         <f>IF(_acsReportStrtStp_month_all!R2="","",_acsReportStrtStp_month_all!R2)</f>
         <v/>
       </c>
-      <c r="BH7" s="4" t="str">
+      <c r="BH7" s="3" t="str">
         <f>IF(_acsReportStrtStp_month_all!S2="","",_acsReportStrtStp_month_all!S2)</f>
         <v/>
       </c>
-      <c r="BI7" s="4" t="str">
+      <c r="BI7" s="3" t="str">
         <f>IF(_acsReportStrtStp_month_all!T2="","",_acsReportStrtStp_month_all!T2)</f>
         <v/>
       </c>
-      <c r="BJ7" s="4" t="str">
+      <c r="BJ7" s="3" t="str">
         <f>IF(_acsReportStrtStp_month_all!U2="","",_acsReportStrtStp_month_all!U2)</f>
         <v/>
       </c>
-      <c r="BK7" s="4" t="str">
+      <c r="BK7" s="3" t="str">
         <f>IF(_acsReportStrtStp_month_all!V2="","",_acsReportStrtStp_month_all!V2)</f>
         <v/>
       </c>
-      <c r="BL7" s="4" t="str">
+      <c r="BL7" s="3" t="str">
         <f>IF(_acsReportStrtStp_month_all!W2="","",_acsReportStrtStp_month_all!W2)</f>
         <v/>
       </c>
-      <c r="BM7" s="4" t="str">
+      <c r="BM7" s="3" t="str">
         <f>IF(_acsReportStrtStp_month_all!X2="","",_acsReportStrtStp_month_all!X2)</f>
         <v/>
       </c>
-      <c r="BN7" s="4" t="str">
+      <c r="BN7" s="3" t="str">
         <f>IF(_acsReportStrtStp_month_all!Y2="","",_acsReportStrtStp_month_all!Y2)</f>
         <v/>
       </c>
-      <c r="BO7" s="4" t="str">
+      <c r="BO7" s="3" t="str">
         <f>IF(_acsReportStrtStp_month_all!Z2="","",_acsReportStrtStp_month_all!Z2)</f>
         <v/>
       </c>
-      <c r="BP7" s="4" t="str">
+      <c r="BP7" s="3" t="str">
         <f>IF(_acsReportStrtStp_month_all!AA2="","",_acsReportStrtStp_month_all!AA2)</f>
         <v/>
       </c>
-      <c r="BQ7" s="4" t="str">
+      <c r="BQ7" s="3" t="str">
         <f>IF(_acsReportStrtStp_month_all!AB2="","",_acsReportStrtStp_month_all!AB2)</f>
         <v/>
       </c>
-      <c r="BR7" s="4" t="str">
+      <c r="BR7" s="3" t="str">
         <f>IF(_acsReportStrtStp_month_all!AC2="","",_acsReportStrtStp_month_all!AC2)</f>
         <v/>
       </c>
-      <c r="BS7" s="4" t="str">
+      <c r="BS7" s="3" t="str">
         <f>IF(_acsReportStrtStp_month_all!AD2="","",_acsReportStrtStp_month_all!AD2)</f>
         <v/>
       </c>
-      <c r="BT7" s="4" t="str">
+      <c r="BT7" s="3" t="str">
         <f>IF(_acsReportStrtStp_month_all!AE2="","",_acsReportStrtStp_month_all!AE2)</f>
         <v/>
       </c>
-      <c r="BU7" s="4" t="str">
+      <c r="BU7" s="3" t="str">
         <f>IF(_acsReportStrtStp_month_all!AF2="","",_acsReportStrtStp_month_all!AF2)</f>
         <v/>
       </c>
-      <c r="BV7" s="4" t="str">
+      <c r="BV7" s="3" t="str">
         <f>IF(_acsReportStrtStp_month_all!AG2="","",_acsReportStrtStp_month_all!AG2)</f>
         <v/>
       </c>
-      <c r="BW7" s="4" t="str">
+      <c r="BW7" s="3" t="str">
         <f>IF(_acsReportStrtStp_month_all!AH2="","",_acsReportStrtStp_month_all!AH2)</f>
         <v/>
       </c>
-      <c r="BX7" s="4" t="str">
+      <c r="BX7" s="3" t="str">
         <f>IF(_acsReportRuntime_day_all!A2="","",IF(_acsReportRuntime_day_all!A2&gt;0,1,0))</f>
         <v/>
       </c>
-      <c r="BY7" s="4" t="str">
+      <c r="BY7" s="3" t="str">
         <f>IF(_acsReportRuntime_day_all!B2="","",IF(_acsReportRuntime_day_all!B2&gt;0,1,0))</f>
         <v/>
       </c>
-      <c r="BZ7" s="4" t="str">
+      <c r="BZ7" s="3" t="str">
         <f>IF(_acsReportRuntime_day_all!C2="","",IF(_acsReportRuntime_day_all!C2&gt;0,1,0))</f>
         <v/>
       </c>
-      <c r="CA7" s="4" t="str">
+      <c r="CA7" s="3" t="str">
         <f>IF(_acsReportRuntime_day_all!D2="","",IF(_acsReportRuntime_day_all!D2&gt;0,1,0))</f>
         <v/>
       </c>
-      <c r="CB7" s="4" t="str">
+      <c r="CB7" s="3" t="str">
         <f>IF(_acsReportRuntime_day_all!E2="","",IF(_acsReportRuntime_day_all!E2&gt;0,1,0))</f>
         <v/>
       </c>
-      <c r="CC7" s="4" t="str">
+      <c r="CC7" s="3" t="str">
         <f>IF(_acsReportRuntime_day_all!F2="","",IF(_acsReportRuntime_day_all!F2&gt;0,1,0))</f>
         <v/>
       </c>
-      <c r="CD7" s="4" t="str">
+      <c r="CD7" s="3" t="str">
         <f>IF(_acsReportRuntime_day_all!G2="","",IF(_acsReportRuntime_day_all!G2&gt;0,1,0))</f>
         <v/>
       </c>
-      <c r="CE7" s="4" t="str">
+      <c r="CE7" s="3" t="str">
         <f>IF(_acsReportRuntime_day_all!H2="","",IF(_acsReportRuntime_day_all!H2&gt;0,1,0))</f>
         <v/>
       </c>
-      <c r="CF7" s="4" t="str">
+      <c r="CF7" s="3" t="str">
         <f>IF(_acsReportRuntime_day_all!I2="","",IF(_acsReportRuntime_day_all!I2&gt;0,1,0))</f>
         <v/>
       </c>
-      <c r="CG7" s="4" t="str">
+      <c r="CG7" s="3" t="str">
         <f>IF(_acsReportRuntime_day_all!J2="","",IF(_acsReportRuntime_day_all!J2&gt;0,1,0))</f>
         <v/>
       </c>
-      <c r="CH7" s="4" t="str">
+      <c r="CH7" s="3" t="str">
         <f>IF(_acsReportRuntime_day_all!K2="","",IF(_acsReportRuntime_day_all!K2&gt;0,1,0))</f>
         <v/>
       </c>
-      <c r="CI7" s="4" t="str">
+      <c r="CI7" s="3" t="str">
         <f>IF(_acsReportRuntime_day_all!L2="","",IF(_acsReportRuntime_day_all!L2&gt;0,1,0))</f>
         <v/>
       </c>
-      <c r="CJ7" s="4" t="str">
+      <c r="CJ7" s="3" t="str">
         <f>IF(_acsReportRuntime_day_all!M2="","",IF(_acsReportRuntime_day_all!M2&gt;0,1,0))</f>
         <v/>
       </c>
-      <c r="CK7" s="4" t="str">
+      <c r="CK7" s="3" t="str">
         <f>IF(_acsReportRuntime_day_all!N2="","",IF(_acsReportRuntime_day_all!N2&gt;0,1,0))</f>
         <v/>
       </c>
-      <c r="CL7" s="4" t="str">
+      <c r="CL7" s="3" t="str">
         <f>IF(_acsReportRuntime_day_all!O2="","",IF(_acsReportRuntime_day_all!O2&gt;0,1,0))</f>
         <v/>
       </c>
-      <c r="CM7" s="4" t="str">
+      <c r="CM7" s="3" t="str">
         <f>IF(_acsReportRuntime_day_all!P2="","",IF(_acsReportRuntime_day_all!P2&gt;0,1,0))</f>
         <v/>
       </c>
-      <c r="CN7" s="4" t="str">
+      <c r="CN7" s="3" t="str">
         <f>IF(_acsReportRuntime_day_all!Q2="","",IF(_acsReportRuntime_day_all!Q2&gt;0,1,0))</f>
         <v/>
       </c>
     </row>
     <row r="8" ht="42" customHeight="1" spans="1:4">
-      <c r="A8" s="4" t="s">
+      <c r="A8" s="3" t="s">
         <v>37</v>
       </c>
-      <c r="B8" s="4">
+      <c r="B8" s="3">
         <f>SUM(CA7:CE7)</f>
         <v>0</v>
       </c>
-      <c r="C8" s="4">
+      <c r="C8" s="3">
         <f>SUM(N7:W7)</f>
         <v>0</v>
       </c>
-      <c r="D8" s="4">
+      <c r="D8" s="3">
         <f>SUM(AV7:BE7)</f>
         <v>0</v>
       </c>
     </row>
     <row r="9" ht="37.5" customHeight="1" spans="1:4">
-      <c r="A9" s="4" t="s">
+      <c r="A9" s="3" t="s">
         <v>38</v>
       </c>
-      <c r="B9" s="4">
+      <c r="B9" s="3">
         <f>SUM(CF7:CI7)</f>
         <v>0</v>
       </c>
-      <c r="C9" s="4">
+      <c r="C9" s="3">
         <f>SUM(X7:AE7)</f>
         <v>0</v>
       </c>
-      <c r="D9" s="4">
+      <c r="D9" s="3">
         <f>SUM(BF7:BM7)</f>
         <v>0</v>
       </c>
     </row>
     <row r="10" ht="41.5" customHeight="1" spans="1:4">
-      <c r="A10" s="4" t="s">
+      <c r="A10" s="3" t="s">
         <v>39</v>
       </c>
-      <c r="B10" s="4">
+      <c r="B10" s="3">
         <f>SUM(CJ7:CN7)</f>
         <v>0</v>
       </c>
-      <c r="C10" s="4">
+      <c r="C10" s="3">
         <f>SUM(AF7:AO7)</f>
         <v>0</v>
       </c>
-      <c r="D10" s="4">
+      <c r="D10" s="3">
         <f>SUM(BN7:BW7)</f>
         <v>0</v>
       </c>
     </row>
     <row r="11" ht="44" customHeight="1" spans="1:4">
-      <c r="A11" s="4" t="s">
+      <c r="A11" s="3" t="s">
         <v>40</v>
       </c>
-      <c r="B11" s="4">
+      <c r="B11" s="3">
         <f>SUM(B7:B10)</f>
         <v>0</v>
       </c>
-      <c r="C11" s="4">
+      <c r="C11" s="3">
         <f>SUM(C7:C10)</f>
         <v>0</v>
       </c>
-      <c r="D11" s="4">
+      <c r="D11" s="3">
         <f>SUM(D7:D10)</f>
         <v>0</v>
       </c>
     </row>
     <row r="12" ht="35.25" customHeight="1" spans="1:4">
-      <c r="A12" s="4" t="s">
+      <c r="A12" s="3" t="s">
         <v>41</v>
       </c>
-      <c r="B12" s="13"/>
-      <c r="C12" s="13"/>
-      <c r="D12" s="13"/>
+      <c r="B12" s="10"/>
+      <c r="C12" s="10"/>
+      <c r="D12" s="10"/>
     </row>
   </sheetData>
   <mergeCells count="24">
@@ -2361,7 +2222,7 @@
     <mergeCell ref="B12:D12"/>
     <mergeCell ref="A1:D3"/>
   </mergeCells>
-  <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.5" footer="0.5"/>
   <pageSetup paperSize="9" orientation="portrait"/>
   <headerFooter/>
 </worksheet>
@@ -2376,7 +2237,7 @@
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="4"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelCol="4"/>
   <cols>
     <col min="1" max="2" width="32.725" customWidth="1"/>
     <col min="3" max="4" width="37.0916666666667" customWidth="1"/>
@@ -2384,24 +2245,25 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:5">
-      <c r="A1" s="1" t="s">
+      <c r="A1" t="s">
         <v>42</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B1" t="s">
         <v>43</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="C1" t="s">
         <v>44</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="D1" t="s">
         <v>45</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="E1" t="s">
         <v>46</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.5" footer="0.5"/>
+  <pageSetup paperSize="9" orientation="portrait"/>
   <headerFooter/>
 </worksheet>
 </file>
@@ -2415,179 +2277,179 @@
       <selection activeCell="B8" sqref="B8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
   <cols>
-    <col min="1" max="4" width="40.45" style="1" customWidth="1"/>
-    <col min="5" max="6" width="39.3666666666667" style="1" customWidth="1"/>
-    <col min="7" max="11" width="40.45" style="1" customWidth="1"/>
-    <col min="12" max="16" width="39.3666666666667" style="1" customWidth="1"/>
-    <col min="17" max="20" width="40.45" style="1" customWidth="1"/>
-    <col min="21" max="24" width="39.3666666666667" style="1" customWidth="1"/>
-    <col min="25" max="29" width="40.45" style="1" customWidth="1"/>
-    <col min="30" max="34" width="39.3666666666667" style="1" customWidth="1"/>
-    <col min="35" max="16384" width="9" style="1"/>
+    <col min="1" max="4" width="40.45" customWidth="1"/>
+    <col min="5" max="6" width="39.3666666666667" customWidth="1"/>
+    <col min="7" max="11" width="40.45" customWidth="1"/>
+    <col min="12" max="16" width="39.3666666666667" customWidth="1"/>
+    <col min="17" max="20" width="40.45" customWidth="1"/>
+    <col min="21" max="24" width="39.3666666666667" customWidth="1"/>
+    <col min="25" max="29" width="40.45" customWidth="1"/>
+    <col min="30" max="34" width="39.3666666666667" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:34">
-      <c r="A1" s="2" t="s">
+      <c r="A1" s="1" t="s">
         <v>47</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="B1" s="1" t="s">
         <v>48</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="C1" s="1" t="s">
         <v>49</v>
       </c>
-      <c r="D1" s="2" t="s">
+      <c r="D1" s="1" t="s">
         <v>50</v>
       </c>
-      <c r="E1" s="2" t="s">
+      <c r="E1" s="1" t="s">
         <v>51</v>
       </c>
-      <c r="F1" s="2" t="s">
+      <c r="F1" s="1" t="s">
         <v>52</v>
       </c>
-      <c r="G1" s="2" t="s">
+      <c r="G1" s="1" t="s">
         <v>53</v>
       </c>
-      <c r="H1" s="2" t="s">
+      <c r="H1" s="1" t="s">
         <v>54</v>
       </c>
-      <c r="I1" s="2" t="s">
+      <c r="I1" s="1" t="s">
         <v>55</v>
       </c>
-      <c r="J1" s="2" t="s">
+      <c r="J1" s="1" t="s">
         <v>56</v>
       </c>
-      <c r="K1" s="2" t="s">
+      <c r="K1" s="1" t="s">
         <v>57</v>
       </c>
-      <c r="L1" s="2" t="s">
+      <c r="L1" s="1" t="s">
         <v>58</v>
       </c>
-      <c r="M1" s="2" t="s">
+      <c r="M1" s="1" t="s">
         <v>59</v>
       </c>
-      <c r="N1" s="2" t="s">
+      <c r="N1" s="1" t="s">
         <v>60</v>
       </c>
-      <c r="O1" s="2" t="s">
+      <c r="O1" s="1" t="s">
         <v>61</v>
       </c>
-      <c r="P1" s="2" t="s">
+      <c r="P1" s="1" t="s">
         <v>62</v>
       </c>
-      <c r="Q1" s="2" t="s">
+      <c r="Q1" s="1" t="s">
         <v>63</v>
       </c>
-      <c r="R1" s="2" t="s">
+      <c r="R1" s="1" t="s">
         <v>64</v>
       </c>
-      <c r="S1" s="2" t="s">
+      <c r="S1" s="1" t="s">
         <v>65</v>
       </c>
-      <c r="T1" s="2" t="s">
+      <c r="T1" s="1" t="s">
         <v>66</v>
       </c>
-      <c r="U1" s="2" t="s">
+      <c r="U1" s="1" t="s">
         <v>67</v>
       </c>
-      <c r="V1" s="2" t="s">
+      <c r="V1" s="1" t="s">
         <v>68</v>
       </c>
-      <c r="W1" s="2" t="s">
+      <c r="W1" s="1" t="s">
         <v>69</v>
       </c>
-      <c r="X1" s="2" t="s">
+      <c r="X1" s="1" t="s">
         <v>70</v>
       </c>
-      <c r="Y1" s="2" t="s">
+      <c r="Y1" s="1" t="s">
         <v>71</v>
       </c>
-      <c r="Z1" s="2" t="s">
+      <c r="Z1" s="1" t="s">
         <v>72</v>
       </c>
-      <c r="AA1" s="2" t="s">
+      <c r="AA1" s="1" t="s">
         <v>73</v>
       </c>
-      <c r="AB1" s="2" t="s">
+      <c r="AB1" s="1" t="s">
         <v>74</v>
       </c>
-      <c r="AC1" s="2" t="s">
+      <c r="AC1" s="1" t="s">
         <v>75</v>
       </c>
-      <c r="AD1" s="2" t="s">
+      <c r="AD1" s="1" t="s">
         <v>76</v>
       </c>
-      <c r="AE1" s="2" t="s">
+      <c r="AE1" s="1" t="s">
         <v>77</v>
       </c>
-      <c r="AF1" s="2" t="s">
+      <c r="AF1" s="1" t="s">
         <v>78</v>
       </c>
-      <c r="AG1" s="2" t="s">
+      <c r="AG1" s="1" t="s">
         <v>79</v>
       </c>
-      <c r="AH1" s="2" t="s">
+      <c r="AH1" s="1" t="s">
         <v>80</v>
       </c>
     </row>
     <row r="8" spans="1:4">
-      <c r="A8" s="2"/>
-      <c r="B8" s="2"/>
-      <c r="C8" s="2"/>
-      <c r="D8" s="2"/>
+      <c r="A8" s="1"/>
+      <c r="B8" s="1"/>
+      <c r="C8" s="1"/>
+      <c r="D8" s="1"/>
     </row>
     <row r="9" spans="1:4">
-      <c r="A9" s="2"/>
-      <c r="B9" s="2"/>
-      <c r="C9" s="2"/>
-      <c r="D9" s="2"/>
+      <c r="A9" s="1"/>
+      <c r="B9" s="1"/>
+      <c r="C9" s="1"/>
+      <c r="D9" s="1"/>
     </row>
     <row r="10" spans="1:4">
-      <c r="A10" s="2"/>
-      <c r="B10" s="2"/>
-      <c r="C10" s="2"/>
-      <c r="D10" s="2"/>
+      <c r="A10" s="1"/>
+      <c r="B10" s="1"/>
+      <c r="C10" s="1"/>
+      <c r="D10" s="1"/>
     </row>
     <row r="11" spans="1:4">
-      <c r="A11" s="2"/>
-      <c r="B11" s="2"/>
-      <c r="C11" s="2"/>
-      <c r="D11" s="2"/>
+      <c r="A11" s="1"/>
+      <c r="B11" s="1"/>
+      <c r="C11" s="1"/>
+      <c r="D11" s="1"/>
     </row>
     <row r="12" spans="1:4">
-      <c r="A12" s="2"/>
-      <c r="B12" s="2"/>
-      <c r="C12" s="2"/>
-      <c r="D12" s="2"/>
+      <c r="A12" s="1"/>
+      <c r="B12" s="1"/>
+      <c r="C12" s="1"/>
+      <c r="D12" s="1"/>
     </row>
     <row r="13" spans="1:4">
-      <c r="A13" s="2"/>
-      <c r="B13" s="2"/>
-      <c r="C13" s="2"/>
-      <c r="D13" s="2"/>
+      <c r="A13" s="1"/>
+      <c r="B13" s="1"/>
+      <c r="C13" s="1"/>
+      <c r="D13" s="1"/>
     </row>
     <row r="14" spans="2:4">
-      <c r="B14" s="2"/>
-      <c r="C14" s="2"/>
-      <c r="D14" s="2"/>
+      <c r="B14" s="1"/>
+      <c r="C14" s="1"/>
+      <c r="D14" s="1"/>
     </row>
     <row r="15" spans="2:4">
-      <c r="B15" s="2"/>
-      <c r="C15" s="2"/>
-      <c r="D15" s="2"/>
+      <c r="B15" s="1"/>
+      <c r="C15" s="1"/>
+      <c r="D15" s="1"/>
     </row>
     <row r="16" spans="2:4">
-      <c r="B16" s="2"/>
-      <c r="D16" s="2"/>
+      <c r="B16" s="1"/>
+      <c r="D16" s="1"/>
     </row>
     <row r="17" spans="2:4">
-      <c r="B17" s="2"/>
-      <c r="D17" s="2"/>
+      <c r="B17" s="1"/>
+      <c r="D17" s="1"/>
     </row>
   </sheetData>
-  <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.5" footer="0.5"/>
+  <pageSetup paperSize="9" orientation="portrait"/>
   <headerFooter/>
 </worksheet>
 </file>
@@ -2597,71 +2459,71 @@
   <sheetPr/>
   <dimension ref="A1:Q1"/>
   <sheetViews>
-    <sheetView topLeftCell="K1" workbookViewId="0">
-      <selection activeCell="B8" sqref="B8"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="Q1" sqref="Q1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
   <cols>
-    <col min="1" max="17" width="30.45" style="1" customWidth="1"/>
-    <col min="18" max="16384" width="9" style="1"/>
+    <col min="1" max="17" width="30.45" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:17">
-      <c r="A1" s="1" t="s">
+      <c r="A1" t="s">
         <v>81</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B1" t="s">
         <v>82</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="C1" t="s">
         <v>83</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="D1" t="s">
         <v>84</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="E1" t="s">
         <v>85</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="F1" t="s">
         <v>86</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="G1" t="s">
         <v>87</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="H1" t="s">
         <v>88</v>
       </c>
-      <c r="I1" s="1" t="s">
+      <c r="I1" t="s">
         <v>89</v>
       </c>
-      <c r="J1" s="1" t="s">
+      <c r="J1" t="s">
         <v>90</v>
       </c>
-      <c r="K1" s="1" t="s">
+      <c r="K1" t="s">
         <v>91</v>
       </c>
-      <c r="L1" s="1" t="s">
+      <c r="L1" t="s">
         <v>92</v>
       </c>
-      <c r="M1" s="1" t="s">
+      <c r="M1" t="s">
         <v>93</v>
       </c>
-      <c r="N1" s="1" t="s">
+      <c r="N1" t="s">
         <v>94</v>
       </c>
-      <c r="O1" s="1" t="s">
+      <c r="O1" t="s">
         <v>95</v>
       </c>
-      <c r="P1" s="1" t="s">
+      <c r="P1" t="s">
         <v>96</v>
       </c>
-      <c r="Q1" s="1" t="s">
+      <c r="Q1" t="s">
         <v>97</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.5" footer="0.5"/>
+  <pageSetup paperSize="9" orientation="portrait"/>
   <headerFooter/>
 </worksheet>
 </file>
@@ -2675,125 +2537,125 @@
       <selection activeCell="C28" sqref="C28"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
   <cols>
-    <col min="1" max="3" width="40.45" style="1" customWidth="1"/>
-    <col min="4" max="6" width="39.3666666666667" style="1" customWidth="1"/>
-    <col min="7" max="11" width="40.45" style="1" customWidth="1"/>
-    <col min="12" max="16" width="39.3666666666667" style="1" customWidth="1"/>
-    <col min="17" max="20" width="40.45" style="1" customWidth="1"/>
-    <col min="21" max="24" width="39.3666666666667" style="1" customWidth="1"/>
-    <col min="25" max="29" width="40.45" style="1" customWidth="1"/>
-    <col min="30" max="34" width="39.3666666666667" style="1" customWidth="1"/>
-    <col min="35" max="16384" width="9" style="1"/>
+    <col min="1" max="3" width="40.45" customWidth="1"/>
+    <col min="4" max="6" width="39.3666666666667" customWidth="1"/>
+    <col min="7" max="11" width="40.45" customWidth="1"/>
+    <col min="12" max="16" width="39.3666666666667" customWidth="1"/>
+    <col min="17" max="20" width="40.45" customWidth="1"/>
+    <col min="21" max="24" width="39.3666666666667" customWidth="1"/>
+    <col min="25" max="29" width="40.45" customWidth="1"/>
+    <col min="30" max="34" width="39.3666666666667" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:34">
-      <c r="A1" s="2" t="s">
+      <c r="A1" s="1" t="s">
         <v>47</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="B1" s="1" t="s">
         <v>48</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="C1" s="1" t="s">
         <v>49</v>
       </c>
-      <c r="D1" s="2" t="s">
+      <c r="D1" s="1" t="s">
         <v>50</v>
       </c>
-      <c r="E1" s="2" t="s">
+      <c r="E1" s="1" t="s">
         <v>51</v>
       </c>
-      <c r="F1" s="2" t="s">
+      <c r="F1" s="1" t="s">
         <v>52</v>
       </c>
-      <c r="G1" s="2" t="s">
+      <c r="G1" s="1" t="s">
         <v>53</v>
       </c>
-      <c r="H1" s="2" t="s">
+      <c r="H1" s="1" t="s">
         <v>54</v>
       </c>
-      <c r="I1" s="2" t="s">
+      <c r="I1" s="1" t="s">
         <v>55</v>
       </c>
-      <c r="J1" s="2" t="s">
+      <c r="J1" s="1" t="s">
         <v>56</v>
       </c>
-      <c r="K1" s="2" t="s">
+      <c r="K1" s="1" t="s">
         <v>57</v>
       </c>
-      <c r="L1" s="2" t="s">
+      <c r="L1" s="1" t="s">
         <v>58</v>
       </c>
-      <c r="M1" s="2" t="s">
+      <c r="M1" s="1" t="s">
         <v>59</v>
       </c>
-      <c r="N1" s="2" t="s">
+      <c r="N1" s="1" t="s">
         <v>60</v>
       </c>
-      <c r="O1" s="2" t="s">
+      <c r="O1" s="1" t="s">
         <v>61</v>
       </c>
-      <c r="P1" s="2" t="s">
+      <c r="P1" s="1" t="s">
         <v>62</v>
       </c>
-      <c r="Q1" s="2" t="s">
+      <c r="Q1" s="1" t="s">
         <v>63</v>
       </c>
-      <c r="R1" s="2" t="s">
+      <c r="R1" s="1" t="s">
         <v>64</v>
       </c>
-      <c r="S1" s="2" t="s">
+      <c r="S1" s="1" t="s">
         <v>65</v>
       </c>
-      <c r="T1" s="2" t="s">
+      <c r="T1" s="1" t="s">
         <v>66</v>
       </c>
-      <c r="U1" s="2" t="s">
+      <c r="U1" s="1" t="s">
         <v>67</v>
       </c>
-      <c r="V1" s="2" t="s">
+      <c r="V1" s="1" t="s">
         <v>68</v>
       </c>
-      <c r="W1" s="2" t="s">
+      <c r="W1" s="1" t="s">
         <v>69</v>
       </c>
-      <c r="X1" s="2" t="s">
+      <c r="X1" s="1" t="s">
         <v>70</v>
       </c>
-      <c r="Y1" s="2" t="s">
+      <c r="Y1" s="1" t="s">
         <v>71</v>
       </c>
-      <c r="Z1" s="2" t="s">
+      <c r="Z1" s="1" t="s">
         <v>72</v>
       </c>
-      <c r="AA1" s="2" t="s">
+      <c r="AA1" s="1" t="s">
         <v>73</v>
       </c>
-      <c r="AB1" s="2" t="s">
+      <c r="AB1" s="1" t="s">
         <v>74</v>
       </c>
-      <c r="AC1" s="2" t="s">
+      <c r="AC1" s="1" t="s">
         <v>75</v>
       </c>
-      <c r="AD1" s="2" t="s">
+      <c r="AD1" s="1" t="s">
         <v>76</v>
       </c>
-      <c r="AE1" s="2" t="s">
+      <c r="AE1" s="1" t="s">
         <v>77</v>
       </c>
-      <c r="AF1" s="2" t="s">
+      <c r="AF1" s="1" t="s">
         <v>78</v>
       </c>
-      <c r="AG1" s="2" t="s">
+      <c r="AG1" s="1" t="s">
         <v>79</v>
       </c>
-      <c r="AH1" s="2" t="s">
+      <c r="AH1" s="1" t="s">
         <v>80</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.5" footer="0.5"/>
+  <pageSetup paperSize="9" orientation="portrait"/>
   <headerFooter/>
 </worksheet>
 </file>
@@ -2807,9 +2669,10 @@
       <selection activeCell="K25" sqref="K25"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
   <sheetData/>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555556" footer="0.511805555555556"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageSetup paperSize="9" orientation="portrait"/>
   <headerFooter/>
 </worksheet>
 </file>
--- a/excel/finished/能介/压缩空气生产情况汇总表.xlsx
+++ b/excel/finished/能介/压缩空气生产情况汇总表.xlsx
@@ -8,18 +8,19 @@
   </bookViews>
   <sheets>
     <sheet name="ACSalldaymain" sheetId="1" r:id="rId1"/>
-    <sheet name="_acsReportGas_day_all" sheetId="2" state="hidden" r:id="rId2"/>
-    <sheet name="_acsReportStrtStp_day_all" sheetId="3" state="hidden" r:id="rId3"/>
-    <sheet name="_acsReportRuntime_day_all" sheetId="4" state="hidden" r:id="rId4"/>
-    <sheet name="_acsReportStrtStp_month_all" sheetId="5" state="hidden" r:id="rId5"/>
-    <sheet name="_metadata" sheetId="6" state="hidden" r:id="rId6"/>
+    <sheet name="_acsReportGas_day_all" sheetId="2" r:id="rId2"/>
+    <sheet name="_acsReportStrtStp_day_all" sheetId="3" r:id="rId3"/>
+    <sheet name="_acsReportRuntime_day_all" sheetId="4" r:id="rId4"/>
+    <sheet name="_acsReportStrtStp_month_all" sheetId="5" r:id="rId5"/>
+    <sheet name="_metadata" sheetId="6" r:id="rId6"/>
+    <sheet name="_acsMonthTagValue_month_all" sheetId="7" r:id="rId7"/>
   </sheets>
   <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="212" uniqueCount="98">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="218" uniqueCount="99">
   <si>
     <t>压缩空气生产情况汇总表</t>
   </si>
@@ -34,8 +35,27 @@
     <t>日产气量</t>
   </si>
   <si>
-    <t xml:space="preserve">
-acs-report-controller/acsReportDayGasProd 黄色标记部分</t>
+    <r>
+      <rPr>
+        <sz val="16"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+acs-report-controller/acsReportDayGasProd </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="16"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>黄色标记部分</t>
+    </r>
   </si>
   <si>
     <t>一空压站启动次数</t>
@@ -96,6 +116,9 @@
   </si>
   <si>
     <t>四空压站开机台数</t>
+  </si>
+  <si>
+    <t>月产气量</t>
   </si>
   <si>
     <t>岗位</t>
@@ -324,11 +347,11 @@
   <numFmts count="5">
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="176" formatCode="yyyy&quot;年&quot;m&quot;月&quot;d&quot;日&quot;;@"/>
   </numFmts>
-  <fonts count="22">
+  <fonts count="23">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -360,6 +383,36 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Arial"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="Arial"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
       <color theme="3"/>
@@ -368,93 +421,18 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
+      <u/>
       <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
+      <color rgb="FF800080"/>
       <name val="Arial"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color indexed="2"/>
-      <name val="Arial"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="Arial"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="Arial"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="Arial"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="Arial"/>
-      <charset val="134"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
       <color rgb="FF9C0006"/>
       <name val="Arial"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="Arial"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Arial"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color indexed="20"/>
-      <name val="Arial"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color indexed="4"/>
-      <name val="Arial"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Arial"/>
-      <charset val="134"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -462,23 +440,36 @@
       <sz val="11"/>
       <color rgb="FF3F3F3F"/>
       <name val="Arial"/>
-      <charset val="134"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="Arial"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="Arial"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="Arial"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FFFFFFFF"/>
       <name val="Arial"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color indexed="65"/>
-      <name val="Arial"/>
-      <charset val="134"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -491,7 +482,46 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color rgb="FFFF0000"/>
+      <name val="Arial"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Arial"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="Arial"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="Arial"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Arial"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
       <name val="Arial"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -506,188 +536,188 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor indexed="47"/>
-        <bgColor indexed="47"/>
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor theme="4" tint="0.399975585192419"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor rgb="FFFFC7CE"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor theme="5" tint="0.799981688894314"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor rgb="FFFFEB9C"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor theme="4" tint="0.799981688894314"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor theme="6" tint="0.799981688894314"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor theme="7" tint="0.799981688894314"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor theme="6" tint="0.399975585192419"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor rgb="FFF2F2F2"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="26"/>
-        <bgColor indexed="26"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor theme="8" tint="0.399975585192419"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor theme="6"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor theme="5" tint="0.399975585192419"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor rgb="FFA5A5A5"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor rgb="FFC6EFCE"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor theme="8"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor theme="5" tint="0.599993896298105"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor theme="9" tint="0.799981688894314"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor theme="7"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor theme="4"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor theme="5"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor theme="9"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor theme="8" tint="0.599993896298105"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor theme="8" tint="0.799981688894314"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor theme="9" tint="0.599993896298105"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
       </patternFill>
     </fill>
   </fills>
@@ -700,35 +730,13 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right/>
-      <top/>
-      <bottom style="medium">
+      <top style="thin">
         <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
+      </top>
       <bottom style="double">
-        <color rgb="FFFF8001"/>
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -749,27 +757,16 @@
     </border>
     <border>
       <left style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color rgb="FF7F7F7F"/>
       </left>
       <right style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color rgb="FF7F7F7F"/>
       </right>
       <top style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color rgb="FF7F7F7F"/>
       </top>
       <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
+        <color rgb="FF7F7F7F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -793,163 +790,202 @@
       <right/>
       <top/>
       <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
         <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="50">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="42" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="5" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="13" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="15" borderId="5">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="18" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="2">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="2">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="4" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="8">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="23" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="14" borderId="4">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="14" borderId="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="19" borderId="7">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="24" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="27" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="3">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="6">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="20" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="7" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="30" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="26" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="22" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="17" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="25" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="12" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="21" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="29" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="16" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="28" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="31" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="32" borderId="0">
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="11" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="32" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="9" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="9" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="18" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="distributed"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="distributed"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="49" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
@@ -1252,948 +1288,957 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:CN12"/>
+  <dimension ref="A1:CP12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B5" sqref="B5:D5"/>
+      <selection activeCell="CP5" sqref="CP5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="20.25"/>
   <cols>
-    <col min="1" max="1" width="19.6333333333333" style="3" customWidth="1"/>
-    <col min="2" max="2" width="21.725" style="3" customWidth="1"/>
-    <col min="3" max="3" width="16.725" style="3" customWidth="1"/>
-    <col min="4" max="4" width="24.6333333333333" style="3" customWidth="1"/>
-    <col min="5" max="5" width="68.45" style="3" hidden="1" customWidth="1"/>
-    <col min="6" max="92" width="9" style="3" hidden="1" customWidth="1"/>
-    <col min="93" max="16384" width="9" style="3"/>
+    <col min="1" max="1" width="19.6666666666667" style="5" customWidth="1"/>
+    <col min="2" max="2" width="21.75" style="5" customWidth="1"/>
+    <col min="3" max="3" width="16.75" style="5" customWidth="1"/>
+    <col min="4" max="4" width="24.6666666666667" style="5" customWidth="1"/>
+    <col min="5" max="5" width="68.4166666666667" style="5" hidden="1" customWidth="1"/>
+    <col min="6" max="92" width="9" style="5" hidden="1" customWidth="1"/>
+    <col min="93" max="93" width="12.3333333333333" style="5" customWidth="1"/>
+    <col min="94" max="94" width="26.625" style="5" customWidth="1"/>
+    <col min="95" max="16384" width="9" style="5"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:50">
-      <c r="A1" s="4" t="s">
+      <c r="A1" s="6" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="4"/>
-      <c r="C1" s="4"/>
-      <c r="D1" s="4"/>
-      <c r="E1" s="5"/>
-      <c r="F1" s="5"/>
-      <c r="G1" s="5"/>
-      <c r="H1" s="5"/>
-      <c r="I1" s="5"/>
-      <c r="J1" s="5"/>
-      <c r="N1" s="5"/>
-      <c r="O1" s="5"/>
-      <c r="P1" s="5"/>
-      <c r="AP1" s="5"/>
-      <c r="AQ1" s="5"/>
-      <c r="AR1" s="5"/>
-      <c r="AV1" s="5"/>
-      <c r="AW1" s="5"/>
-      <c r="AX1" s="5"/>
+      <c r="B1" s="6"/>
+      <c r="C1" s="6"/>
+      <c r="D1" s="6"/>
+      <c r="E1" s="7"/>
+      <c r="F1" s="7"/>
+      <c r="G1" s="7"/>
+      <c r="H1" s="7"/>
+      <c r="I1" s="7"/>
+      <c r="J1" s="7"/>
+      <c r="N1" s="7"/>
+      <c r="O1" s="7"/>
+      <c r="P1" s="7"/>
+      <c r="AP1" s="7"/>
+      <c r="AQ1" s="7"/>
+      <c r="AR1" s="7"/>
+      <c r="AV1" s="7"/>
+      <c r="AW1" s="7"/>
+      <c r="AX1" s="7"/>
     </row>
     <row r="2" spans="1:50">
-      <c r="A2" s="4"/>
-      <c r="B2" s="4"/>
-      <c r="C2" s="4"/>
-      <c r="D2" s="4"/>
-      <c r="E2" s="5"/>
-      <c r="F2" s="5"/>
-      <c r="G2" s="5"/>
-      <c r="H2" s="5"/>
-      <c r="I2" s="5"/>
-      <c r="J2" s="5"/>
-      <c r="N2" s="5"/>
-      <c r="O2" s="5"/>
-      <c r="P2" s="5"/>
-      <c r="AP2" s="5"/>
-      <c r="AQ2" s="5"/>
-      <c r="AR2" s="5"/>
-      <c r="AV2" s="5"/>
-      <c r="AW2" s="5"/>
-      <c r="AX2" s="5"/>
+      <c r="A2" s="6"/>
+      <c r="B2" s="6"/>
+      <c r="C2" s="6"/>
+      <c r="D2" s="6"/>
+      <c r="E2" s="7"/>
+      <c r="F2" s="7"/>
+      <c r="G2" s="7"/>
+      <c r="H2" s="7"/>
+      <c r="I2" s="7"/>
+      <c r="J2" s="7"/>
+      <c r="N2" s="7"/>
+      <c r="O2" s="7"/>
+      <c r="P2" s="7"/>
+      <c r="AP2" s="7"/>
+      <c r="AQ2" s="7"/>
+      <c r="AR2" s="7"/>
+      <c r="AV2" s="7"/>
+      <c r="AW2" s="7"/>
+      <c r="AX2" s="7"/>
     </row>
     <row r="3" spans="1:50">
-      <c r="A3" s="4"/>
-      <c r="B3" s="4"/>
-      <c r="C3" s="4"/>
-      <c r="D3" s="4"/>
-      <c r="E3" s="5"/>
-      <c r="F3" s="5"/>
-      <c r="G3" s="5"/>
-      <c r="H3" s="5"/>
-      <c r="I3" s="5"/>
-      <c r="J3" s="5"/>
-      <c r="N3" s="5"/>
-      <c r="O3" s="5"/>
-      <c r="P3" s="5"/>
-      <c r="AP3" s="5"/>
-      <c r="AQ3" s="5"/>
-      <c r="AR3" s="5"/>
-      <c r="AV3" s="5"/>
-      <c r="AW3" s="5"/>
-      <c r="AX3" s="5"/>
+      <c r="A3" s="6"/>
+      <c r="B3" s="6"/>
+      <c r="C3" s="6"/>
+      <c r="D3" s="6"/>
+      <c r="E3" s="7"/>
+      <c r="F3" s="7"/>
+      <c r="G3" s="7"/>
+      <c r="H3" s="7"/>
+      <c r="I3" s="7"/>
+      <c r="J3" s="7"/>
+      <c r="N3" s="7"/>
+      <c r="O3" s="7"/>
+      <c r="P3" s="7"/>
+      <c r="AP3" s="7"/>
+      <c r="AQ3" s="7"/>
+      <c r="AR3" s="7"/>
+      <c r="AV3" s="7"/>
+      <c r="AW3" s="7"/>
+      <c r="AX3" s="7"/>
     </row>
     <row r="4" ht="45" customHeight="1" spans="1:5">
-      <c r="A4" s="3" t="s">
+      <c r="A4" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="B4" s="6" t="str">
+      <c r="B4" s="8" t="str">
         <f>IF(_metadata!B2="","",_metadata!B2)</f>
         <v/>
       </c>
-      <c r="C4" s="6"/>
-      <c r="D4" s="6"/>
-      <c r="E4" s="7" t="s">
+      <c r="C4" s="8"/>
+      <c r="D4" s="8"/>
+      <c r="E4" s="9" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="5" ht="38.25" customHeight="1" spans="1:92">
-      <c r="A5" s="3" t="s">
+    <row r="5" ht="38.25" customHeight="1" spans="1:94">
+      <c r="A5" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="B5" s="8" t="str">
+      <c r="B5" s="10" t="str">
         <f>IF(SUM(_acsReportGas_day_all!A2:E2),SUM(_acsReportGas_day_all!A2:E2)/3600,"")</f>
         <v/>
       </c>
-      <c r="C5" s="8"/>
-      <c r="D5" s="8"/>
-      <c r="E5" s="7" t="s">
+      <c r="C5" s="10"/>
+      <c r="D5" s="10"/>
+      <c r="E5" s="9" t="s">
         <v>4</v>
       </c>
-      <c r="H5" s="9" t="s">
+      <c r="H5" s="11" t="s">
         <v>5</v>
       </c>
-      <c r="I5" s="9"/>
-      <c r="J5" s="9"/>
-      <c r="K5" s="9" t="s">
+      <c r="I5" s="11"/>
+      <c r="J5" s="11"/>
+      <c r="K5" s="11" t="s">
         <v>6</v>
       </c>
-      <c r="L5" s="9"/>
-      <c r="M5" s="9"/>
-      <c r="N5" s="9" t="s">
+      <c r="L5" s="11"/>
+      <c r="M5" s="11"/>
+      <c r="N5" s="11" t="s">
         <v>7</v>
       </c>
-      <c r="O5" s="9"/>
-      <c r="P5" s="9"/>
-      <c r="Q5" s="9"/>
-      <c r="R5" s="9"/>
-      <c r="S5" s="9" t="s">
+      <c r="O5" s="11"/>
+      <c r="P5" s="11"/>
+      <c r="Q5" s="11"/>
+      <c r="R5" s="11"/>
+      <c r="S5" s="11" t="s">
         <v>8</v>
       </c>
-      <c r="T5" s="9"/>
-      <c r="U5" s="9"/>
-      <c r="V5" s="9"/>
-      <c r="W5" s="9"/>
-      <c r="X5" s="9" t="s">
+      <c r="T5" s="11"/>
+      <c r="U5" s="11"/>
+      <c r="V5" s="11"/>
+      <c r="W5" s="11"/>
+      <c r="X5" s="11" t="s">
         <v>9</v>
       </c>
-      <c r="Y5" s="9"/>
-      <c r="Z5" s="9"/>
-      <c r="AA5" s="9"/>
-      <c r="AB5" s="9" t="s">
+      <c r="Y5" s="11"/>
+      <c r="Z5" s="11"/>
+      <c r="AA5" s="11"/>
+      <c r="AB5" s="11" t="s">
         <v>10</v>
       </c>
-      <c r="AC5" s="9"/>
-      <c r="AD5" s="9"/>
-      <c r="AE5" s="9"/>
-      <c r="AF5" s="9" t="s">
+      <c r="AC5" s="11"/>
+      <c r="AD5" s="11"/>
+      <c r="AE5" s="11"/>
+      <c r="AF5" s="11" t="s">
         <v>11</v>
       </c>
-      <c r="AG5" s="9"/>
-      <c r="AH5" s="9"/>
-      <c r="AI5" s="9"/>
-      <c r="AJ5" s="9"/>
-      <c r="AK5" s="9" t="s">
+      <c r="AG5" s="11"/>
+      <c r="AH5" s="11"/>
+      <c r="AI5" s="11"/>
+      <c r="AJ5" s="11"/>
+      <c r="AK5" s="11" t="s">
         <v>12</v>
       </c>
-      <c r="AL5" s="9"/>
-      <c r="AM5" s="9"/>
-      <c r="AN5" s="9"/>
-      <c r="AO5" s="9"/>
-      <c r="AP5" s="9" t="s">
+      <c r="AL5" s="11"/>
+      <c r="AM5" s="11"/>
+      <c r="AN5" s="11"/>
+      <c r="AO5" s="11"/>
+      <c r="AP5" s="11" t="s">
         <v>13</v>
       </c>
-      <c r="AQ5" s="9"/>
-      <c r="AR5" s="9"/>
-      <c r="AS5" s="9" t="s">
+      <c r="AQ5" s="11"/>
+      <c r="AR5" s="11"/>
+      <c r="AS5" s="11" t="s">
         <v>14</v>
       </c>
-      <c r="AT5" s="9"/>
-      <c r="AU5" s="9"/>
-      <c r="AV5" s="9" t="s">
+      <c r="AT5" s="11"/>
+      <c r="AU5" s="11"/>
+      <c r="AV5" s="11" t="s">
         <v>15</v>
       </c>
-      <c r="AW5" s="9"/>
-      <c r="AX5" s="9"/>
-      <c r="AY5" s="9"/>
-      <c r="AZ5" s="9"/>
-      <c r="BA5" s="9" t="s">
+      <c r="AW5" s="11"/>
+      <c r="AX5" s="11"/>
+      <c r="AY5" s="11"/>
+      <c r="AZ5" s="11"/>
+      <c r="BA5" s="11" t="s">
         <v>16</v>
       </c>
-      <c r="BB5" s="9"/>
-      <c r="BC5" s="9"/>
-      <c r="BD5" s="9"/>
-      <c r="BE5" s="9"/>
-      <c r="BF5" s="9" t="s">
+      <c r="BB5" s="11"/>
+      <c r="BC5" s="11"/>
+      <c r="BD5" s="11"/>
+      <c r="BE5" s="11"/>
+      <c r="BF5" s="11" t="s">
         <v>17</v>
       </c>
-      <c r="BG5" s="9"/>
-      <c r="BH5" s="9"/>
-      <c r="BI5" s="9"/>
-      <c r="BJ5" s="9" t="s">
+      <c r="BG5" s="11"/>
+      <c r="BH5" s="11"/>
+      <c r="BI5" s="11"/>
+      <c r="BJ5" s="11" t="s">
         <v>18</v>
       </c>
-      <c r="BK5" s="9"/>
-      <c r="BL5" s="9"/>
-      <c r="BM5" s="9"/>
-      <c r="BN5" s="9" t="s">
+      <c r="BK5" s="11"/>
+      <c r="BL5" s="11"/>
+      <c r="BM5" s="11"/>
+      <c r="BN5" s="11" t="s">
         <v>19</v>
       </c>
-      <c r="BO5" s="9"/>
-      <c r="BP5" s="9"/>
-      <c r="BQ5" s="9"/>
-      <c r="BR5" s="9"/>
-      <c r="BS5" s="9" t="s">
+      <c r="BO5" s="11"/>
+      <c r="BP5" s="11"/>
+      <c r="BQ5" s="11"/>
+      <c r="BR5" s="11"/>
+      <c r="BS5" s="11" t="s">
         <v>20</v>
       </c>
-      <c r="BT5" s="9"/>
-      <c r="BU5" s="9"/>
-      <c r="BV5" s="9"/>
-      <c r="BW5" s="9"/>
-      <c r="BX5" s="9" t="s">
+      <c r="BT5" s="11"/>
+      <c r="BU5" s="11"/>
+      <c r="BV5" s="11"/>
+      <c r="BW5" s="11"/>
+      <c r="BX5" s="11" t="s">
         <v>21</v>
       </c>
-      <c r="BY5" s="9"/>
-      <c r="BZ5" s="9"/>
-      <c r="CA5" s="9" t="s">
+      <c r="BY5" s="11"/>
+      <c r="BZ5" s="11"/>
+      <c r="CA5" s="11" t="s">
         <v>22</v>
       </c>
-      <c r="CB5" s="9"/>
-      <c r="CC5" s="9"/>
-      <c r="CD5" s="9"/>
-      <c r="CE5" s="9"/>
-      <c r="CF5" s="9" t="s">
+      <c r="CB5" s="11"/>
+      <c r="CC5" s="11"/>
+      <c r="CD5" s="11"/>
+      <c r="CE5" s="11"/>
+      <c r="CF5" s="11" t="s">
         <v>23</v>
       </c>
-      <c r="CG5" s="9"/>
-      <c r="CH5" s="9"/>
-      <c r="CI5" s="9"/>
-      <c r="CJ5" s="9" t="s">
+      <c r="CG5" s="11"/>
+      <c r="CH5" s="11"/>
+      <c r="CI5" s="11"/>
+      <c r="CJ5" s="11" t="s">
         <v>24</v>
       </c>
-      <c r="CK5" s="9"/>
-      <c r="CL5" s="9"/>
-      <c r="CM5" s="9"/>
-      <c r="CN5" s="9"/>
+      <c r="CK5" s="11"/>
+      <c r="CL5" s="11"/>
+      <c r="CM5" s="11"/>
+      <c r="CN5" s="11"/>
+      <c r="CO5" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="CP5" s="5" t="str">
+        <f>IF(SUM(_acsMonthTagValue_month_all!A2:E2),SUM(_acsMonthTagValue_month_all!A2:E2)/3600,"")</f>
+        <v/>
+      </c>
     </row>
-    <row r="6" s="2" customFormat="1" ht="29.25" customHeight="1" spans="1:92">
-      <c r="A6" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="B6" s="3" t="s">
+    <row r="6" s="4" customFormat="1" ht="29.25" customHeight="1" spans="1:92">
+      <c r="A6" s="4" t="s">
         <v>26</v>
       </c>
-      <c r="C6" s="3" t="s">
+      <c r="B6" s="5" t="s">
         <v>27</v>
       </c>
-      <c r="D6" s="3" t="s">
+      <c r="C6" s="5" t="s">
         <v>28</v>
       </c>
-      <c r="E6" s="2" t="s">
+      <c r="D6" s="5" t="s">
         <v>29</v>
       </c>
-      <c r="H6" s="2" t="s">
+      <c r="E6" s="4" t="s">
         <v>30</v>
       </c>
-      <c r="I6" s="2" t="s">
+      <c r="H6" s="4" t="s">
         <v>31</v>
       </c>
-      <c r="J6" s="2" t="s">
+      <c r="I6" s="4" t="s">
         <v>32</v>
       </c>
-      <c r="K6" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="L6" s="2" t="s">
+      <c r="J6" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="K6" s="4" t="s">
         <v>31</v>
       </c>
-      <c r="M6" s="2" t="s">
+      <c r="L6" s="4" t="s">
         <v>32</v>
       </c>
-      <c r="N6" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="O6" s="2" t="s">
+      <c r="M6" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="N6" s="4" t="s">
         <v>31</v>
       </c>
-      <c r="P6" s="2" t="s">
+      <c r="O6" s="4" t="s">
         <v>32</v>
       </c>
-      <c r="Q6" s="2" t="s">
+      <c r="P6" s="4" t="s">
         <v>33</v>
       </c>
-      <c r="R6" s="2" t="s">
+      <c r="Q6" s="4" t="s">
         <v>34</v>
       </c>
-      <c r="S6" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="T6" s="2" t="s">
+      <c r="R6" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="S6" s="4" t="s">
         <v>31</v>
       </c>
-      <c r="U6" s="2" t="s">
+      <c r="T6" s="4" t="s">
         <v>32</v>
       </c>
-      <c r="V6" s="2" t="s">
+      <c r="U6" s="4" t="s">
         <v>33</v>
       </c>
-      <c r="W6" s="2" t="s">
+      <c r="V6" s="4" t="s">
         <v>34</v>
       </c>
-      <c r="X6" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="Y6" s="2" t="s">
+      <c r="W6" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="X6" s="4" t="s">
         <v>31</v>
       </c>
-      <c r="Z6" s="2" t="s">
+      <c r="Y6" s="4" t="s">
         <v>32</v>
       </c>
-      <c r="AA6" s="2" t="s">
+      <c r="Z6" s="4" t="s">
         <v>33</v>
       </c>
-      <c r="AB6" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="AC6" s="2" t="s">
+      <c r="AA6" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="AB6" s="4" t="s">
         <v>31</v>
       </c>
-      <c r="AD6" s="2" t="s">
+      <c r="AC6" s="4" t="s">
         <v>32</v>
       </c>
-      <c r="AE6" s="2" t="s">
+      <c r="AD6" s="4" t="s">
         <v>33</v>
       </c>
-      <c r="AF6" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="AG6" s="2" t="s">
+      <c r="AE6" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="AF6" s="4" t="s">
         <v>31</v>
       </c>
-      <c r="AH6" s="2" t="s">
+      <c r="AG6" s="4" t="s">
         <v>32</v>
       </c>
-      <c r="AI6" s="2" t="s">
+      <c r="AH6" s="4" t="s">
         <v>33</v>
       </c>
-      <c r="AJ6" s="2" t="s">
+      <c r="AI6" s="4" t="s">
         <v>34</v>
       </c>
-      <c r="AK6" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="AL6" s="2" t="s">
+      <c r="AJ6" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="AK6" s="4" t="s">
         <v>31</v>
       </c>
-      <c r="AM6" s="2" t="s">
+      <c r="AL6" s="4" t="s">
         <v>32</v>
       </c>
-      <c r="AN6" s="2" t="s">
+      <c r="AM6" s="4" t="s">
         <v>33</v>
       </c>
-      <c r="AO6" s="2" t="s">
+      <c r="AN6" s="4" t="s">
         <v>34</v>
       </c>
-      <c r="AP6" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="AQ6" s="2" t="s">
+      <c r="AO6" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="AP6" s="4" t="s">
         <v>31</v>
       </c>
-      <c r="AR6" s="2" t="s">
+      <c r="AQ6" s="4" t="s">
         <v>32</v>
       </c>
-      <c r="AS6" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="AT6" s="2" t="s">
+      <c r="AR6" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="AS6" s="4" t="s">
         <v>31</v>
       </c>
-      <c r="AU6" s="2" t="s">
+      <c r="AT6" s="4" t="s">
         <v>32</v>
       </c>
-      <c r="AV6" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="AW6" s="2" t="s">
+      <c r="AU6" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="AV6" s="4" t="s">
         <v>31</v>
       </c>
-      <c r="AX6" s="2" t="s">
+      <c r="AW6" s="4" t="s">
         <v>32</v>
       </c>
-      <c r="AY6" s="2" t="s">
+      <c r="AX6" s="4" t="s">
         <v>33</v>
       </c>
-      <c r="AZ6" s="2" t="s">
+      <c r="AY6" s="4" t="s">
         <v>34</v>
       </c>
-      <c r="BA6" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="BB6" s="2" t="s">
+      <c r="AZ6" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="BA6" s="4" t="s">
         <v>31</v>
       </c>
-      <c r="BC6" s="2" t="s">
+      <c r="BB6" s="4" t="s">
         <v>32</v>
       </c>
-      <c r="BD6" s="2" t="s">
+      <c r="BC6" s="4" t="s">
         <v>33</v>
       </c>
-      <c r="BE6" s="2" t="s">
+      <c r="BD6" s="4" t="s">
         <v>34</v>
       </c>
-      <c r="BF6" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="BG6" s="2" t="s">
+      <c r="BE6" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="BF6" s="4" t="s">
         <v>31</v>
       </c>
-      <c r="BH6" s="2" t="s">
+      <c r="BG6" s="4" t="s">
         <v>32</v>
       </c>
-      <c r="BI6" s="2" t="s">
+      <c r="BH6" s="4" t="s">
         <v>33</v>
       </c>
-      <c r="BJ6" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="BK6" s="2" t="s">
+      <c r="BI6" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="BJ6" s="4" t="s">
         <v>31</v>
       </c>
-      <c r="BL6" s="2" t="s">
+      <c r="BK6" s="4" t="s">
         <v>32</v>
       </c>
-      <c r="BM6" s="2" t="s">
+      <c r="BL6" s="4" t="s">
         <v>33</v>
       </c>
-      <c r="BN6" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="BO6" s="2" t="s">
+      <c r="BM6" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="BN6" s="4" t="s">
         <v>31</v>
       </c>
-      <c r="BP6" s="2" t="s">
+      <c r="BO6" s="4" t="s">
         <v>32</v>
       </c>
-      <c r="BQ6" s="2" t="s">
+      <c r="BP6" s="4" t="s">
         <v>33</v>
       </c>
-      <c r="BR6" s="2" t="s">
+      <c r="BQ6" s="4" t="s">
         <v>34</v>
       </c>
-      <c r="BS6" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="BT6" s="2" t="s">
+      <c r="BR6" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="BS6" s="4" t="s">
         <v>31</v>
       </c>
-      <c r="BU6" s="2" t="s">
+      <c r="BT6" s="4" t="s">
         <v>32</v>
       </c>
-      <c r="BV6" s="2" t="s">
+      <c r="BU6" s="4" t="s">
         <v>33</v>
       </c>
-      <c r="BW6" s="2" t="s">
+      <c r="BV6" s="4" t="s">
         <v>34</v>
       </c>
-      <c r="BX6" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="BY6" s="2" t="s">
+      <c r="BW6" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="BX6" s="4" t="s">
         <v>31</v>
       </c>
-      <c r="BZ6" s="2" t="s">
+      <c r="BY6" s="4" t="s">
         <v>32</v>
       </c>
-      <c r="CA6" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="CB6" s="2" t="s">
+      <c r="BZ6" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="CA6" s="4" t="s">
         <v>31</v>
       </c>
-      <c r="CC6" s="2" t="s">
+      <c r="CB6" s="4" t="s">
         <v>32</v>
       </c>
-      <c r="CD6" s="2" t="s">
+      <c r="CC6" s="4" t="s">
         <v>33</v>
       </c>
-      <c r="CE6" s="2" t="s">
+      <c r="CD6" s="4" t="s">
         <v>34</v>
       </c>
-      <c r="CF6" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="CG6" s="2" t="s">
+      <c r="CE6" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="CF6" s="4" t="s">
         <v>31</v>
       </c>
-      <c r="CH6" s="2" t="s">
+      <c r="CG6" s="4" t="s">
         <v>32</v>
       </c>
-      <c r="CI6" s="2" t="s">
+      <c r="CH6" s="4" t="s">
         <v>33</v>
       </c>
-      <c r="CJ6" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="CK6" s="2" t="s">
+      <c r="CI6" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="CJ6" s="4" t="s">
         <v>31</v>
       </c>
-      <c r="CL6" s="2" t="s">
+      <c r="CK6" s="4" t="s">
         <v>32</v>
       </c>
-      <c r="CM6" s="2" t="s">
+      <c r="CL6" s="4" t="s">
         <v>33</v>
       </c>
-      <c r="CN6" s="2" t="s">
+      <c r="CM6" s="4" t="s">
         <v>34</v>
+      </c>
+      <c r="CN6" s="4" t="s">
+        <v>35</v>
       </c>
     </row>
     <row r="7" ht="32" customHeight="1" spans="1:92">
-      <c r="A7" s="3" t="s">
-        <v>35</v>
-      </c>
-      <c r="B7" s="3">
+      <c r="A7" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="B7" s="5">
         <f>SUM(BX7:BZ7)</f>
         <v>0</v>
       </c>
-      <c r="C7" s="3">
+      <c r="C7" s="5">
         <f>SUM(H7:M7)</f>
         <v>0</v>
       </c>
-      <c r="D7" s="3">
+      <c r="D7" s="5">
         <f>SUM(AP7:AU7)</f>
         <v>0</v>
       </c>
-      <c r="E7" s="3" t="s">
-        <v>36</v>
-      </c>
-      <c r="H7" s="3" t="str">
+      <c r="E7" s="5" t="s">
+        <v>37</v>
+      </c>
+      <c r="H7" s="5" t="str">
         <f>IF(_acsReportStrtStp_day_all!A2="","",_acsReportStrtStp_day_all!A2)</f>
         <v/>
       </c>
-      <c r="I7" s="3" t="str">
+      <c r="I7" s="5" t="str">
         <f>IF(_acsReportStrtStp_day_all!B2="","",_acsReportStrtStp_day_all!B2)</f>
         <v/>
       </c>
-      <c r="J7" s="3" t="str">
+      <c r="J7" s="5" t="str">
         <f>IF(_acsReportStrtStp_day_all!C2="","",_acsReportStrtStp_day_all!C2)</f>
         <v/>
       </c>
-      <c r="K7" s="3" t="str">
+      <c r="K7" s="5" t="str">
         <f>IF(_acsReportStrtStp_day_all!D2="","",_acsReportStrtStp_day_all!D2)</f>
         <v/>
       </c>
-      <c r="L7" s="3" t="str">
+      <c r="L7" s="5" t="str">
         <f>IF(_acsReportStrtStp_day_all!E2="","",_acsReportStrtStp_day_all!E2)</f>
         <v/>
       </c>
-      <c r="M7" s="3" t="str">
+      <c r="M7" s="5" t="str">
         <f>IF(_acsReportStrtStp_day_all!F2="","",_acsReportStrtStp_day_all!F2)</f>
         <v/>
       </c>
-      <c r="N7" s="3" t="str">
+      <c r="N7" s="5" t="str">
         <f>IF(_acsReportStrtStp_day_all!G2="","",_acsReportStrtStp_day_all!G2)</f>
         <v/>
       </c>
-      <c r="O7" s="3" t="str">
+      <c r="O7" s="5" t="str">
         <f>IF(_acsReportStrtStp_day_all!H2="","",_acsReportStrtStp_day_all!H2)</f>
         <v/>
       </c>
-      <c r="P7" s="3" t="str">
+      <c r="P7" s="5" t="str">
         <f>IF(_acsReportStrtStp_day_all!I2="","",_acsReportStrtStp_day_all!I2)</f>
         <v/>
       </c>
-      <c r="Q7" s="3" t="str">
+      <c r="Q7" s="5" t="str">
         <f>IF(_acsReportStrtStp_day_all!J2="","",_acsReportStrtStp_day_all!J2)</f>
         <v/>
       </c>
-      <c r="R7" s="3" t="str">
+      <c r="R7" s="5" t="str">
         <f>IF(_acsReportStrtStp_day_all!K2="","",_acsReportStrtStp_day_all!K2)</f>
         <v/>
       </c>
-      <c r="S7" s="3" t="str">
+      <c r="S7" s="5" t="str">
         <f>IF(_acsReportStrtStp_day_all!L2="","",_acsReportStrtStp_day_all!L2)</f>
         <v/>
       </c>
-      <c r="T7" s="3" t="str">
+      <c r="T7" s="5" t="str">
         <f>IF(_acsReportStrtStp_day_all!M2="","",_acsReportStrtStp_day_all!M2)</f>
         <v/>
       </c>
-      <c r="U7" s="3" t="str">
+      <c r="U7" s="5" t="str">
         <f>IF(_acsReportStrtStp_day_all!N2="","",_acsReportStrtStp_day_all!N2)</f>
         <v/>
       </c>
-      <c r="V7" s="3" t="str">
+      <c r="V7" s="5" t="str">
         <f>IF(_acsReportStrtStp_day_all!O2="","",_acsReportStrtStp_day_all!O2)</f>
         <v/>
       </c>
-      <c r="W7" s="3" t="str">
+      <c r="W7" s="5" t="str">
         <f>IF(_acsReportStrtStp_day_all!P2="","",_acsReportStrtStp_day_all!P2)</f>
         <v/>
       </c>
-      <c r="X7" s="3" t="str">
+      <c r="X7" s="5" t="str">
         <f>IF(_acsReportStrtStp_day_all!Q2="","",_acsReportStrtStp_day_all!Q2)</f>
         <v/>
       </c>
-      <c r="Y7" s="3" t="str">
+      <c r="Y7" s="5" t="str">
         <f>IF(_acsReportStrtStp_day_all!R2="","",_acsReportStrtStp_day_all!R2)</f>
         <v/>
       </c>
-      <c r="Z7" s="3" t="str">
+      <c r="Z7" s="5" t="str">
         <f>IF(_acsReportStrtStp_day_all!S2="","",_acsReportStrtStp_day_all!S2)</f>
         <v/>
       </c>
-      <c r="AA7" s="3" t="str">
+      <c r="AA7" s="5" t="str">
         <f>IF(_acsReportStrtStp_day_all!T2="","",_acsReportStrtStp_day_all!T2)</f>
         <v/>
       </c>
-      <c r="AB7" s="3" t="str">
+      <c r="AB7" s="5" t="str">
         <f>IF(_acsReportStrtStp_day_all!U2="","",_acsReportStrtStp_day_all!U2)</f>
         <v/>
       </c>
-      <c r="AC7" s="3" t="str">
+      <c r="AC7" s="5" t="str">
         <f>IF(_acsReportStrtStp_day_all!V2="","",_acsReportStrtStp_day_all!V2)</f>
         <v/>
       </c>
-      <c r="AD7" s="3" t="str">
+      <c r="AD7" s="5" t="str">
         <f>IF(_acsReportStrtStp_day_all!W2="","",_acsReportStrtStp_day_all!W2)</f>
         <v/>
       </c>
-      <c r="AE7" s="3" t="str">
+      <c r="AE7" s="5" t="str">
         <f>IF(_acsReportStrtStp_day_all!X2="","",_acsReportStrtStp_day_all!X2)</f>
         <v/>
       </c>
-      <c r="AF7" s="3" t="str">
+      <c r="AF7" s="5" t="str">
         <f>IF(_acsReportStrtStp_day_all!Y2="","",_acsReportStrtStp_day_all!Y2)</f>
         <v/>
       </c>
-      <c r="AG7" s="3" t="str">
+      <c r="AG7" s="5" t="str">
         <f>IF(_acsReportStrtStp_day_all!Z2="","",_acsReportStrtStp_day_all!Z2)</f>
         <v/>
       </c>
-      <c r="AH7" s="3" t="str">
+      <c r="AH7" s="5" t="str">
         <f>IF(_acsReportStrtStp_day_all!AA2="","",_acsReportStrtStp_day_all!AA2)</f>
         <v/>
       </c>
-      <c r="AI7" s="3" t="str">
+      <c r="AI7" s="5" t="str">
         <f>IF(_acsReportStrtStp_day_all!AB2="","",_acsReportStrtStp_day_all!AB2)</f>
         <v/>
       </c>
-      <c r="AJ7" s="3" t="str">
+      <c r="AJ7" s="5" t="str">
         <f>IF(_acsReportStrtStp_day_all!AC2="","",_acsReportStrtStp_day_all!AC2)</f>
         <v/>
       </c>
-      <c r="AK7" s="3" t="str">
+      <c r="AK7" s="5" t="str">
         <f>IF(_acsReportStrtStp_day_all!AD2="","",_acsReportStrtStp_day_all!AD2)</f>
         <v/>
       </c>
-      <c r="AL7" s="3" t="str">
+      <c r="AL7" s="5" t="str">
         <f>IF(_acsReportStrtStp_day_all!AE2="","",_acsReportStrtStp_day_all!AE2)</f>
         <v/>
       </c>
-      <c r="AM7" s="3" t="str">
+      <c r="AM7" s="5" t="str">
         <f>IF(_acsReportStrtStp_day_all!AF2="","",_acsReportStrtStp_day_all!AF2)</f>
         <v/>
       </c>
-      <c r="AN7" s="3" t="str">
+      <c r="AN7" s="5" t="str">
         <f>IF(_acsReportStrtStp_day_all!AG2="","",_acsReportStrtStp_day_all!AG2)</f>
         <v/>
       </c>
-      <c r="AO7" s="3" t="str">
+      <c r="AO7" s="5" t="str">
         <f>IF(_acsReportStrtStp_day_all!AH2="","",_acsReportStrtStp_day_all!AH2)</f>
         <v/>
       </c>
-      <c r="AP7" s="3" t="str">
+      <c r="AP7" s="5" t="str">
         <f>IF(_acsReportStrtStp_month_all!A2="","",_acsReportStrtStp_month_all!A2)</f>
         <v/>
       </c>
-      <c r="AQ7" s="3" t="str">
+      <c r="AQ7" s="5" t="str">
         <f>IF(_acsReportStrtStp_month_all!B2="","",_acsReportStrtStp_month_all!B2)</f>
         <v/>
       </c>
-      <c r="AR7" s="3" t="str">
+      <c r="AR7" s="5" t="str">
         <f>IF(_acsReportStrtStp_month_all!C2="","",_acsReportStrtStp_month_all!C2)</f>
         <v/>
       </c>
-      <c r="AS7" s="3" t="str">
+      <c r="AS7" s="5" t="str">
         <f>IF(_acsReportStrtStp_month_all!D2="","",_acsReportStrtStp_month_all!D2)</f>
         <v/>
       </c>
-      <c r="AT7" s="3" t="str">
+      <c r="AT7" s="5" t="str">
         <f>IF(_acsReportStrtStp_month_all!E2="","",_acsReportStrtStp_month_all!E2)</f>
         <v/>
       </c>
-      <c r="AU7" s="3" t="str">
+      <c r="AU7" s="5" t="str">
         <f>IF(_acsReportStrtStp_month_all!F2="","",_acsReportStrtStp_month_all!F2)</f>
         <v/>
       </c>
-      <c r="AV7" s="3" t="str">
+      <c r="AV7" s="5" t="str">
         <f>IF(_acsReportStrtStp_month_all!G2="","",_acsReportStrtStp_month_all!G2)</f>
         <v/>
       </c>
-      <c r="AW7" s="3" t="str">
+      <c r="AW7" s="5" t="str">
         <f>IF(_acsReportStrtStp_month_all!H2="","",_acsReportStrtStp_month_all!H2)</f>
         <v/>
       </c>
-      <c r="AX7" s="3" t="str">
+      <c r="AX7" s="5" t="str">
         <f>IF(_acsReportStrtStp_month_all!I2="","",_acsReportStrtStp_month_all!I2)</f>
         <v/>
       </c>
-      <c r="AY7" s="3" t="str">
+      <c r="AY7" s="5" t="str">
         <f>IF(_acsReportStrtStp_month_all!J2="","",_acsReportStrtStp_month_all!J2)</f>
         <v/>
       </c>
-      <c r="AZ7" s="3" t="str">
+      <c r="AZ7" s="5" t="str">
         <f>IF(_acsReportStrtStp_month_all!K2="","",_acsReportStrtStp_month_all!K2)</f>
         <v/>
       </c>
-      <c r="BA7" s="3" t="str">
+      <c r="BA7" s="5" t="str">
         <f>IF(_acsReportStrtStp_month_all!L2="","",_acsReportStrtStp_month_all!L2)</f>
         <v/>
       </c>
-      <c r="BB7" s="3" t="str">
+      <c r="BB7" s="5" t="str">
         <f>IF(_acsReportStrtStp_month_all!M2="","",_acsReportStrtStp_month_all!M2)</f>
         <v/>
       </c>
-      <c r="BC7" s="3" t="str">
+      <c r="BC7" s="5" t="str">
         <f>IF(_acsReportStrtStp_month_all!N2="","",_acsReportStrtStp_month_all!N2)</f>
         <v/>
       </c>
-      <c r="BD7" s="3" t="str">
+      <c r="BD7" s="5" t="str">
         <f>IF(_acsReportStrtStp_month_all!O2="","",_acsReportStrtStp_month_all!O2)</f>
         <v/>
       </c>
-      <c r="BE7" s="3" t="str">
+      <c r="BE7" s="5" t="str">
         <f>IF(_acsReportStrtStp_month_all!P2="","",_acsReportStrtStp_month_all!P2)</f>
         <v/>
       </c>
-      <c r="BF7" s="3" t="str">
+      <c r="BF7" s="5" t="str">
         <f>IF(_acsReportStrtStp_month_all!Q2="","",_acsReportStrtStp_month_all!Q2)</f>
         <v/>
       </c>
-      <c r="BG7" s="3" t="str">
+      <c r="BG7" s="5" t="str">
         <f>IF(_acsReportStrtStp_month_all!R2="","",_acsReportStrtStp_month_all!R2)</f>
         <v/>
       </c>
-      <c r="BH7" s="3" t="str">
+      <c r="BH7" s="5" t="str">
         <f>IF(_acsReportStrtStp_month_all!S2="","",_acsReportStrtStp_month_all!S2)</f>
         <v/>
       </c>
-      <c r="BI7" s="3" t="str">
+      <c r="BI7" s="5" t="str">
         <f>IF(_acsReportStrtStp_month_all!T2="","",_acsReportStrtStp_month_all!T2)</f>
         <v/>
       </c>
-      <c r="BJ7" s="3" t="str">
+      <c r="BJ7" s="5" t="str">
         <f>IF(_acsReportStrtStp_month_all!U2="","",_acsReportStrtStp_month_all!U2)</f>
         <v/>
       </c>
-      <c r="BK7" s="3" t="str">
+      <c r="BK7" s="5" t="str">
         <f>IF(_acsReportStrtStp_month_all!V2="","",_acsReportStrtStp_month_all!V2)</f>
         <v/>
       </c>
-      <c r="BL7" s="3" t="str">
+      <c r="BL7" s="5" t="str">
         <f>IF(_acsReportStrtStp_month_all!W2="","",_acsReportStrtStp_month_all!W2)</f>
         <v/>
       </c>
-      <c r="BM7" s="3" t="str">
+      <c r="BM7" s="5" t="str">
         <f>IF(_acsReportStrtStp_month_all!X2="","",_acsReportStrtStp_month_all!X2)</f>
         <v/>
       </c>
-      <c r="BN7" s="3" t="str">
+      <c r="BN7" s="5" t="str">
         <f>IF(_acsReportStrtStp_month_all!Y2="","",_acsReportStrtStp_month_all!Y2)</f>
         <v/>
       </c>
-      <c r="BO7" s="3" t="str">
+      <c r="BO7" s="5" t="str">
         <f>IF(_acsReportStrtStp_month_all!Z2="","",_acsReportStrtStp_month_all!Z2)</f>
         <v/>
       </c>
-      <c r="BP7" s="3" t="str">
+      <c r="BP7" s="5" t="str">
         <f>IF(_acsReportStrtStp_month_all!AA2="","",_acsReportStrtStp_month_all!AA2)</f>
         <v/>
       </c>
-      <c r="BQ7" s="3" t="str">
+      <c r="BQ7" s="5" t="str">
         <f>IF(_acsReportStrtStp_month_all!AB2="","",_acsReportStrtStp_month_all!AB2)</f>
         <v/>
       </c>
-      <c r="BR7" s="3" t="str">
+      <c r="BR7" s="5" t="str">
         <f>IF(_acsReportStrtStp_month_all!AC2="","",_acsReportStrtStp_month_all!AC2)</f>
         <v/>
       </c>
-      <c r="BS7" s="3" t="str">
+      <c r="BS7" s="5" t="str">
         <f>IF(_acsReportStrtStp_month_all!AD2="","",_acsReportStrtStp_month_all!AD2)</f>
         <v/>
       </c>
-      <c r="BT7" s="3" t="str">
+      <c r="BT7" s="5" t="str">
         <f>IF(_acsReportStrtStp_month_all!AE2="","",_acsReportStrtStp_month_all!AE2)</f>
         <v/>
       </c>
-      <c r="BU7" s="3" t="str">
+      <c r="BU7" s="5" t="str">
         <f>IF(_acsReportStrtStp_month_all!AF2="","",_acsReportStrtStp_month_all!AF2)</f>
         <v/>
       </c>
-      <c r="BV7" s="3" t="str">
+      <c r="BV7" s="5" t="str">
         <f>IF(_acsReportStrtStp_month_all!AG2="","",_acsReportStrtStp_month_all!AG2)</f>
         <v/>
       </c>
-      <c r="BW7" s="3" t="str">
+      <c r="BW7" s="5" t="str">
         <f>IF(_acsReportStrtStp_month_all!AH2="","",_acsReportStrtStp_month_all!AH2)</f>
         <v/>
       </c>
-      <c r="BX7" s="3" t="str">
+      <c r="BX7" s="5" t="str">
         <f>IF(_acsReportRuntime_day_all!A2="","",IF(_acsReportRuntime_day_all!A2&gt;0,1,0))</f>
         <v/>
       </c>
-      <c r="BY7" s="3" t="str">
+      <c r="BY7" s="5" t="str">
         <f>IF(_acsReportRuntime_day_all!B2="","",IF(_acsReportRuntime_day_all!B2&gt;0,1,0))</f>
         <v/>
       </c>
-      <c r="BZ7" s="3" t="str">
+      <c r="BZ7" s="5" t="str">
         <f>IF(_acsReportRuntime_day_all!C2="","",IF(_acsReportRuntime_day_all!C2&gt;0,1,0))</f>
         <v/>
       </c>
-      <c r="CA7" s="3" t="str">
+      <c r="CA7" s="5" t="str">
         <f>IF(_acsReportRuntime_day_all!D2="","",IF(_acsReportRuntime_day_all!D2&gt;0,1,0))</f>
         <v/>
       </c>
-      <c r="CB7" s="3" t="str">
+      <c r="CB7" s="5" t="str">
         <f>IF(_acsReportRuntime_day_all!E2="","",IF(_acsReportRuntime_day_all!E2&gt;0,1,0))</f>
         <v/>
       </c>
-      <c r="CC7" s="3" t="str">
+      <c r="CC7" s="5" t="str">
         <f>IF(_acsReportRuntime_day_all!F2="","",IF(_acsReportRuntime_day_all!F2&gt;0,1,0))</f>
         <v/>
       </c>
-      <c r="CD7" s="3" t="str">
+      <c r="CD7" s="5" t="str">
         <f>IF(_acsReportRuntime_day_all!G2="","",IF(_acsReportRuntime_day_all!G2&gt;0,1,0))</f>
         <v/>
       </c>
-      <c r="CE7" s="3" t="str">
+      <c r="CE7" s="5" t="str">
         <f>IF(_acsReportRuntime_day_all!H2="","",IF(_acsReportRuntime_day_all!H2&gt;0,1,0))</f>
         <v/>
       </c>
-      <c r="CF7" s="3" t="str">
+      <c r="CF7" s="5" t="str">
         <f>IF(_acsReportRuntime_day_all!I2="","",IF(_acsReportRuntime_day_all!I2&gt;0,1,0))</f>
         <v/>
       </c>
-      <c r="CG7" s="3" t="str">
+      <c r="CG7" s="5" t="str">
         <f>IF(_acsReportRuntime_day_all!J2="","",IF(_acsReportRuntime_day_all!J2&gt;0,1,0))</f>
         <v/>
       </c>
-      <c r="CH7" s="3" t="str">
+      <c r="CH7" s="5" t="str">
         <f>IF(_acsReportRuntime_day_all!K2="","",IF(_acsReportRuntime_day_all!K2&gt;0,1,0))</f>
         <v/>
       </c>
-      <c r="CI7" s="3" t="str">
+      <c r="CI7" s="5" t="str">
         <f>IF(_acsReportRuntime_day_all!L2="","",IF(_acsReportRuntime_day_all!L2&gt;0,1,0))</f>
         <v/>
       </c>
-      <c r="CJ7" s="3" t="str">
+      <c r="CJ7" s="5" t="str">
         <f>IF(_acsReportRuntime_day_all!M2="","",IF(_acsReportRuntime_day_all!M2&gt;0,1,0))</f>
         <v/>
       </c>
-      <c r="CK7" s="3" t="str">
+      <c r="CK7" s="5" t="str">
         <f>IF(_acsReportRuntime_day_all!N2="","",IF(_acsReportRuntime_day_all!N2&gt;0,1,0))</f>
         <v/>
       </c>
-      <c r="CL7" s="3" t="str">
+      <c r="CL7" s="5" t="str">
         <f>IF(_acsReportRuntime_day_all!O2="","",IF(_acsReportRuntime_day_all!O2&gt;0,1,0))</f>
         <v/>
       </c>
-      <c r="CM7" s="3" t="str">
+      <c r="CM7" s="5" t="str">
         <f>IF(_acsReportRuntime_day_all!P2="","",IF(_acsReportRuntime_day_all!P2&gt;0,1,0))</f>
         <v/>
       </c>
-      <c r="CN7" s="3" t="str">
+      <c r="CN7" s="5" t="str">
         <f>IF(_acsReportRuntime_day_all!Q2="","",IF(_acsReportRuntime_day_all!Q2&gt;0,1,0))</f>
         <v/>
       </c>
     </row>
     <row r="8" ht="42" customHeight="1" spans="1:4">
-      <c r="A8" s="3" t="s">
-        <v>37</v>
-      </c>
-      <c r="B8" s="3">
+      <c r="A8" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="B8" s="5">
         <f>SUM(CA7:CE7)</f>
         <v>0</v>
       </c>
-      <c r="C8" s="3">
+      <c r="C8" s="5">
         <f>SUM(N7:W7)</f>
         <v>0</v>
       </c>
-      <c r="D8" s="3">
+      <c r="D8" s="5">
         <f>SUM(AV7:BE7)</f>
         <v>0</v>
       </c>
     </row>
     <row r="9" ht="37.5" customHeight="1" spans="1:4">
-      <c r="A9" s="3" t="s">
-        <v>38</v>
-      </c>
-      <c r="B9" s="3">
+      <c r="A9" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="B9" s="5">
         <f>SUM(CF7:CI7)</f>
         <v>0</v>
       </c>
-      <c r="C9" s="3">
+      <c r="C9" s="5">
         <f>SUM(X7:AE7)</f>
         <v>0</v>
       </c>
-      <c r="D9" s="3">
+      <c r="D9" s="5">
         <f>SUM(BF7:BM7)</f>
         <v>0</v>
       </c>
     </row>
     <row r="10" ht="41.5" customHeight="1" spans="1:4">
-      <c r="A10" s="3" t="s">
-        <v>39</v>
-      </c>
-      <c r="B10" s="3">
+      <c r="A10" s="5" t="s">
+        <v>40</v>
+      </c>
+      <c r="B10" s="5">
         <f>SUM(CJ7:CN7)</f>
         <v>0</v>
       </c>
-      <c r="C10" s="3">
+      <c r="C10" s="5">
         <f>SUM(AF7:AO7)</f>
         <v>0</v>
       </c>
-      <c r="D10" s="3">
+      <c r="D10" s="5">
         <f>SUM(BN7:BW7)</f>
         <v>0</v>
       </c>
     </row>
     <row r="11" ht="44" customHeight="1" spans="1:4">
-      <c r="A11" s="3" t="s">
-        <v>40</v>
-      </c>
-      <c r="B11" s="3">
+      <c r="A11" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="B11" s="5">
         <f>SUM(B7:B10)</f>
         <v>0</v>
       </c>
-      <c r="C11" s="3">
+      <c r="C11" s="5">
         <f>SUM(C7:C10)</f>
         <v>0</v>
       </c>
-      <c r="D11" s="3">
+      <c r="D11" s="5">
         <f>SUM(D7:D10)</f>
         <v>0</v>
       </c>
     </row>
     <row r="12" ht="35.25" customHeight="1" spans="1:4">
-      <c r="A12" s="3" t="s">
-        <v>41</v>
-      </c>
-      <c r="B12" s="10"/>
-      <c r="C12" s="10"/>
-      <c r="D12" s="10"/>
+      <c r="A12" s="5" t="s">
+        <v>42</v>
+      </c>
+      <c r="B12" s="12"/>
+      <c r="C12" s="12"/>
+      <c r="D12" s="12"/>
     </row>
   </sheetData>
   <mergeCells count="24">
@@ -2234,31 +2279,31 @@
   <dimension ref="A1:E1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
+      <selection activeCell="A1" sqref="A1:E1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelCol="4"/>
   <cols>
-    <col min="1" max="2" width="32.725" customWidth="1"/>
-    <col min="3" max="4" width="37.0916666666667" customWidth="1"/>
-    <col min="5" max="5" width="32.725" customWidth="1"/>
+    <col min="1" max="2" width="32.75" customWidth="1"/>
+    <col min="3" max="4" width="37.0833333333333" customWidth="1"/>
+    <col min="5" max="5" width="32.75" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="B1" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="C1" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="D1" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="E1" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
     </row>
   </sheetData>
@@ -2279,173 +2324,173 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
   <cols>
-    <col min="1" max="4" width="40.45" customWidth="1"/>
-    <col min="5" max="6" width="39.3666666666667" customWidth="1"/>
-    <col min="7" max="11" width="40.45" customWidth="1"/>
-    <col min="12" max="16" width="39.3666666666667" customWidth="1"/>
-    <col min="17" max="20" width="40.45" customWidth="1"/>
-    <col min="21" max="24" width="39.3666666666667" customWidth="1"/>
-    <col min="25" max="29" width="40.45" customWidth="1"/>
-    <col min="30" max="34" width="39.3666666666667" customWidth="1"/>
+    <col min="1" max="4" width="40.4166666666667" customWidth="1"/>
+    <col min="5" max="6" width="39.3333333333333" customWidth="1"/>
+    <col min="7" max="11" width="40.4166666666667" customWidth="1"/>
+    <col min="12" max="16" width="39.3333333333333" customWidth="1"/>
+    <col min="17" max="20" width="40.4166666666667" customWidth="1"/>
+    <col min="21" max="24" width="39.3333333333333" customWidth="1"/>
+    <col min="25" max="29" width="40.4166666666667" customWidth="1"/>
+    <col min="30" max="34" width="39.3333333333333" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:34">
-      <c r="A1" s="1" t="s">
-        <v>47</v>
-      </c>
-      <c r="B1" s="1" t="s">
+      <c r="A1" s="3" t="s">
         <v>48</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="B1" s="3" t="s">
         <v>49</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="C1" s="3" t="s">
         <v>50</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="D1" s="3" t="s">
         <v>51</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="E1" s="3" t="s">
         <v>52</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="F1" s="3" t="s">
         <v>53</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="G1" s="3" t="s">
         <v>54</v>
       </c>
-      <c r="I1" s="1" t="s">
+      <c r="H1" s="3" t="s">
         <v>55</v>
       </c>
-      <c r="J1" s="1" t="s">
+      <c r="I1" s="3" t="s">
         <v>56</v>
       </c>
-      <c r="K1" s="1" t="s">
+      <c r="J1" s="3" t="s">
         <v>57</v>
       </c>
-      <c r="L1" s="1" t="s">
+      <c r="K1" s="3" t="s">
         <v>58</v>
       </c>
-      <c r="M1" s="1" t="s">
+      <c r="L1" s="3" t="s">
         <v>59</v>
       </c>
-      <c r="N1" s="1" t="s">
+      <c r="M1" s="3" t="s">
         <v>60</v>
       </c>
-      <c r="O1" s="1" t="s">
+      <c r="N1" s="3" t="s">
         <v>61</v>
       </c>
-      <c r="P1" s="1" t="s">
+      <c r="O1" s="3" t="s">
         <v>62</v>
       </c>
-      <c r="Q1" s="1" t="s">
+      <c r="P1" s="3" t="s">
         <v>63</v>
       </c>
-      <c r="R1" s="1" t="s">
+      <c r="Q1" s="3" t="s">
         <v>64</v>
       </c>
-      <c r="S1" s="1" t="s">
+      <c r="R1" s="3" t="s">
         <v>65</v>
       </c>
-      <c r="T1" s="1" t="s">
+      <c r="S1" s="3" t="s">
         <v>66</v>
       </c>
-      <c r="U1" s="1" t="s">
+      <c r="T1" s="3" t="s">
         <v>67</v>
       </c>
-      <c r="V1" s="1" t="s">
+      <c r="U1" s="3" t="s">
         <v>68</v>
       </c>
-      <c r="W1" s="1" t="s">
+      <c r="V1" s="3" t="s">
         <v>69</v>
       </c>
-      <c r="X1" s="1" t="s">
+      <c r="W1" s="3" t="s">
         <v>70</v>
       </c>
-      <c r="Y1" s="1" t="s">
+      <c r="X1" s="3" t="s">
         <v>71</v>
       </c>
-      <c r="Z1" s="1" t="s">
+      <c r="Y1" s="3" t="s">
         <v>72</v>
       </c>
-      <c r="AA1" s="1" t="s">
+      <c r="Z1" s="3" t="s">
         <v>73</v>
       </c>
-      <c r="AB1" s="1" t="s">
+      <c r="AA1" s="3" t="s">
         <v>74</v>
       </c>
-      <c r="AC1" s="1" t="s">
+      <c r="AB1" s="3" t="s">
         <v>75</v>
       </c>
-      <c r="AD1" s="1" t="s">
+      <c r="AC1" s="3" t="s">
         <v>76</v>
       </c>
-      <c r="AE1" s="1" t="s">
+      <c r="AD1" s="3" t="s">
         <v>77</v>
       </c>
-      <c r="AF1" s="1" t="s">
+      <c r="AE1" s="3" t="s">
         <v>78</v>
       </c>
-      <c r="AG1" s="1" t="s">
+      <c r="AF1" s="3" t="s">
         <v>79</v>
       </c>
-      <c r="AH1" s="1" t="s">
+      <c r="AG1" s="3" t="s">
         <v>80</v>
+      </c>
+      <c r="AH1" s="3" t="s">
+        <v>81</v>
       </c>
     </row>
     <row r="8" spans="1:4">
-      <c r="A8" s="1"/>
-      <c r="B8" s="1"/>
-      <c r="C8" s="1"/>
-      <c r="D8" s="1"/>
+      <c r="A8" s="3"/>
+      <c r="B8" s="3"/>
+      <c r="C8" s="3"/>
+      <c r="D8" s="3"/>
     </row>
     <row r="9" spans="1:4">
-      <c r="A9" s="1"/>
-      <c r="B9" s="1"/>
-      <c r="C9" s="1"/>
-      <c r="D9" s="1"/>
+      <c r="A9" s="3"/>
+      <c r="B9" s="3"/>
+      <c r="C9" s="3"/>
+      <c r="D9" s="3"/>
     </row>
     <row r="10" spans="1:4">
-      <c r="A10" s="1"/>
-      <c r="B10" s="1"/>
-      <c r="C10" s="1"/>
-      <c r="D10" s="1"/>
+      <c r="A10" s="3"/>
+      <c r="B10" s="3"/>
+      <c r="C10" s="3"/>
+      <c r="D10" s="3"/>
     </row>
     <row r="11" spans="1:4">
-      <c r="A11" s="1"/>
-      <c r="B11" s="1"/>
-      <c r="C11" s="1"/>
-      <c r="D11" s="1"/>
+      <c r="A11" s="3"/>
+      <c r="B11" s="3"/>
+      <c r="C11" s="3"/>
+      <c r="D11" s="3"/>
     </row>
     <row r="12" spans="1:4">
-      <c r="A12" s="1"/>
-      <c r="B12" s="1"/>
-      <c r="C12" s="1"/>
-      <c r="D12" s="1"/>
+      <c r="A12" s="3"/>
+      <c r="B12" s="3"/>
+      <c r="C12" s="3"/>
+      <c r="D12" s="3"/>
     </row>
     <row r="13" spans="1:4">
-      <c r="A13" s="1"/>
-      <c r="B13" s="1"/>
-      <c r="C13" s="1"/>
-      <c r="D13" s="1"/>
+      <c r="A13" s="3"/>
+      <c r="B13" s="3"/>
+      <c r="C13" s="3"/>
+      <c r="D13" s="3"/>
     </row>
     <row r="14" spans="2:4">
-      <c r="B14" s="1"/>
-      <c r="C14" s="1"/>
-      <c r="D14" s="1"/>
+      <c r="B14" s="3"/>
+      <c r="C14" s="3"/>
+      <c r="D14" s="3"/>
     </row>
     <row r="15" spans="2:4">
-      <c r="B15" s="1"/>
-      <c r="C15" s="1"/>
-      <c r="D15" s="1"/>
+      <c r="B15" s="3"/>
+      <c r="C15" s="3"/>
+      <c r="D15" s="3"/>
     </row>
     <row r="16" spans="2:4">
-      <c r="B16" s="1"/>
-      <c r="D16" s="1"/>
+      <c r="B16" s="3"/>
+      <c r="D16" s="3"/>
     </row>
     <row r="17" spans="2:4">
-      <c r="B17" s="1"/>
-      <c r="D17" s="1"/>
+      <c r="B17" s="3"/>
+      <c r="D17" s="3"/>
     </row>
   </sheetData>
   <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.5" footer="0.5"/>
@@ -2465,60 +2510,60 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
   <cols>
-    <col min="1" max="17" width="30.45" customWidth="1"/>
+    <col min="1" max="17" width="30.4166666666667" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:17">
       <c r="A1" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="B1" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="C1" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="D1" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="E1" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="F1" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="G1" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="H1" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="I1" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="J1" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="K1" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="L1" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="M1" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="N1" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="O1" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="P1" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="Q1" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
     </row>
   </sheetData>
@@ -2533,124 +2578,127 @@
   <sheetPr/>
   <dimension ref="A1:AH1"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C28" sqref="C28"/>
+    <sheetView topLeftCell="AH1" workbookViewId="0">
+      <selection activeCell="AJ1" sqref="AJ1:AN1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
   <cols>
-    <col min="1" max="3" width="40.45" customWidth="1"/>
-    <col min="4" max="6" width="39.3666666666667" customWidth="1"/>
-    <col min="7" max="11" width="40.45" customWidth="1"/>
-    <col min="12" max="16" width="39.3666666666667" customWidth="1"/>
-    <col min="17" max="20" width="40.45" customWidth="1"/>
-    <col min="21" max="24" width="39.3666666666667" customWidth="1"/>
-    <col min="25" max="29" width="40.45" customWidth="1"/>
-    <col min="30" max="34" width="39.3666666666667" customWidth="1"/>
+    <col min="1" max="3" width="40.4166666666667" customWidth="1"/>
+    <col min="4" max="6" width="39.3333333333333" customWidth="1"/>
+    <col min="7" max="11" width="40.4166666666667" customWidth="1"/>
+    <col min="12" max="16" width="39.3333333333333" customWidth="1"/>
+    <col min="17" max="20" width="40.4166666666667" customWidth="1"/>
+    <col min="21" max="24" width="39.3333333333333" customWidth="1"/>
+    <col min="25" max="29" width="40.4166666666667" customWidth="1"/>
+    <col min="30" max="34" width="39.3333333333333" customWidth="1"/>
+    <col min="36" max="37" width="32.0833333333333" customWidth="1"/>
+    <col min="38" max="38" width="36.1666666666667" customWidth="1"/>
+    <col min="39" max="40" width="32.0833333333333" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:34">
-      <c r="A1" s="1" t="s">
-        <v>47</v>
-      </c>
-      <c r="B1" s="1" t="s">
+      <c r="A1" s="3" t="s">
         <v>48</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="B1" s="3" t="s">
         <v>49</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="C1" s="3" t="s">
         <v>50</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="D1" s="3" t="s">
         <v>51</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="E1" s="3" t="s">
         <v>52</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="F1" s="3" t="s">
         <v>53</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="G1" s="3" t="s">
         <v>54</v>
       </c>
-      <c r="I1" s="1" t="s">
+      <c r="H1" s="3" t="s">
         <v>55</v>
       </c>
-      <c r="J1" s="1" t="s">
+      <c r="I1" s="3" t="s">
         <v>56</v>
       </c>
-      <c r="K1" s="1" t="s">
+      <c r="J1" s="3" t="s">
         <v>57</v>
       </c>
-      <c r="L1" s="1" t="s">
+      <c r="K1" s="3" t="s">
         <v>58</v>
       </c>
-      <c r="M1" s="1" t="s">
+      <c r="L1" s="3" t="s">
         <v>59</v>
       </c>
-      <c r="N1" s="1" t="s">
+      <c r="M1" s="3" t="s">
         <v>60</v>
       </c>
-      <c r="O1" s="1" t="s">
+      <c r="N1" s="3" t="s">
         <v>61</v>
       </c>
-      <c r="P1" s="1" t="s">
+      <c r="O1" s="3" t="s">
         <v>62</v>
       </c>
-      <c r="Q1" s="1" t="s">
+      <c r="P1" s="3" t="s">
         <v>63</v>
       </c>
-      <c r="R1" s="1" t="s">
+      <c r="Q1" s="3" t="s">
         <v>64</v>
       </c>
-      <c r="S1" s="1" t="s">
+      <c r="R1" s="3" t="s">
         <v>65</v>
       </c>
-      <c r="T1" s="1" t="s">
+      <c r="S1" s="3" t="s">
         <v>66</v>
       </c>
-      <c r="U1" s="1" t="s">
+      <c r="T1" s="3" t="s">
         <v>67</v>
       </c>
-      <c r="V1" s="1" t="s">
+      <c r="U1" s="3" t="s">
         <v>68</v>
       </c>
-      <c r="W1" s="1" t="s">
+      <c r="V1" s="3" t="s">
         <v>69</v>
       </c>
-      <c r="X1" s="1" t="s">
+      <c r="W1" s="3" t="s">
         <v>70</v>
       </c>
-      <c r="Y1" s="1" t="s">
+      <c r="X1" s="3" t="s">
         <v>71</v>
       </c>
-      <c r="Z1" s="1" t="s">
+      <c r="Y1" s="3" t="s">
         <v>72</v>
       </c>
-      <c r="AA1" s="1" t="s">
+      <c r="Z1" s="3" t="s">
         <v>73</v>
       </c>
-      <c r="AB1" s="1" t="s">
+      <c r="AA1" s="3" t="s">
         <v>74</v>
       </c>
-      <c r="AC1" s="1" t="s">
+      <c r="AB1" s="3" t="s">
         <v>75</v>
       </c>
-      <c r="AD1" s="1" t="s">
+      <c r="AC1" s="3" t="s">
         <v>76</v>
       </c>
-      <c r="AE1" s="1" t="s">
+      <c r="AD1" s="3" t="s">
         <v>77</v>
       </c>
-      <c r="AF1" s="1" t="s">
+      <c r="AE1" s="3" t="s">
         <v>78</v>
       </c>
-      <c r="AG1" s="1" t="s">
+      <c r="AF1" s="3" t="s">
         <v>79</v>
       </c>
-      <c r="AH1" s="1" t="s">
+      <c r="AG1" s="3" t="s">
         <v>80</v>
+      </c>
+      <c r="AH1" s="3" t="s">
+        <v>81</v>
       </c>
     </row>
   </sheetData>
@@ -2675,4 +2723,38 @@
   <pageSetup paperSize="9" orientation="portrait"/>
   <headerFooter/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1:E1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="J20" sqref="J20"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelCol="4"/>
+  <sheetData>
+    <row r="1" s="1" customFormat="1" ht="71.25" spans="1:5">
+      <c r="A1" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>47</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <headerFooter/>
+</worksheet>
 </file>